--- a/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
+++ b/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CDC5B-CE1A-4A03-91EB-070CC8184839}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0897EC82-6F16-414E-8CF1-F72D7462584C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,6 +1581,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1686,7 +1687,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4654,48 +4654,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="117">
+      <c r="A1" s="118">
         <v>0.34</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="117">
+      <c r="B1" s="119"/>
+      <c r="C1" s="118">
         <v>0.245</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="117">
+      <c r="D1" s="119"/>
+      <c r="E1" s="118">
         <v>0.125</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="117">
+      <c r="F1" s="119"/>
+      <c r="G1" s="118">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="117">
+      <c r="H1" s="119"/>
+      <c r="I1" s="118">
         <v>0.19</v>
       </c>
-      <c r="J1" s="118"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="115" t="s">
+      <c r="A2" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="115" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="115" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="115" t="s">
+      <c r="H2" s="117"/>
+      <c r="I2" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="116"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4704,28 +4704,28 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="117"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105">
+      <c r="A4" s="106">
         <v>0.59699999999999998</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="105">
+      <c r="B4" s="111"/>
+      <c r="C4" s="106">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4734,14 +4734,14 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="74" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107">
+      <c r="A5" s="108">
         <v>0.27600000000000002</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="107">
+      <c r="B5" s="112"/>
+      <c r="C5" s="108">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D5" s="111"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -4757,10 +4757,10 @@
         <f>A6/2</f>
         <v>0.25800000000000001</v>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="104">
         <v>1</v>
       </c>
-      <c r="D6" s="109"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4773,10 +4773,10 @@
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="107">
+      <c r="E7" s="108">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F7" s="111"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -4790,10 +4790,10 @@
         <f>A8/2</f>
         <v>0.189</v>
       </c>
-      <c r="C8" s="103">
+      <c r="C8" s="104">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D8" s="109"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -4806,10 +4806,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="107">
+      <c r="E9" s="108">
         <v>0.318</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4820,10 +4820,10 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="103">
+      <c r="C10" s="104">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D10" s="109"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4836,10 +4836,10 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="105">
+      <c r="E11" s="106">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F11" s="110"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -4864,10 +4864,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="103">
+      <c r="C13" s="104">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4880,10 +4880,10 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="105">
+      <c r="E14" s="106">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F14" s="110"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4908,10 +4908,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="103">
+      <c r="C16" s="104">
         <v>0.45</v>
       </c>
-      <c r="D16" s="109"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4924,10 +4924,10 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="105">
+      <c r="E17" s="106">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F17" s="110"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4952,10 +4952,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="103">
+      <c r="C19" s="104">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D19" s="109"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4968,10 +4968,10 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="105">
+      <c r="E20" s="106">
         <v>0.23</v>
       </c>
-      <c r="F20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -4996,10 +4996,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="103">
+      <c r="C22" s="104">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D22" s="109"/>
+      <c r="D22" s="110"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5012,10 +5012,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="105">
+      <c r="E23" s="106">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F23" s="110"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5043,30 +5043,30 @@
         <f>A25/2</f>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="C25" s="103">
+      <c r="C25" s="104">
         <v>0.4</v>
       </c>
-      <c r="D25" s="109"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="105"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="105">
+      <c r="E26" s="106">
         <v>1</v>
       </c>
-      <c r="F26" s="110"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -5094,10 +5094,10 @@
         <f>G28/2</f>
         <v>0.109</v>
       </c>
-      <c r="I28" s="107">
+      <c r="I28" s="108">
         <v>0.32500000000000001</v>
       </c>
-      <c r="J28" s="108"/>
+      <c r="J28" s="109"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -5107,16 +5107,16 @@
         <f>A29/2</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="C29" s="103">
+      <c r="C29" s="104">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="105"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
@@ -5144,10 +5144,10 @@
         <f>G31/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I31" s="107">
+      <c r="I31" s="108">
         <v>0.219</v>
       </c>
-      <c r="J31" s="108"/>
+      <c r="J31" s="109"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -5157,16 +5157,16 @@
         <f>A32/2</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C32" s="103">
+      <c r="C32" s="104">
         <v>0.216</v>
       </c>
-      <c r="D32" s="109"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="105"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
@@ -5194,54 +5194,54 @@
         <f>G34/2</f>
         <v>0.108</v>
       </c>
-      <c r="I34" s="107">
+      <c r="I34" s="108">
         <v>0.48299999999999998</v>
       </c>
-      <c r="J34" s="108"/>
+      <c r="J34" s="109"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="112">
+      <c r="E35" s="113">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F35" s="113"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="114"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="115"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="103">
+      <c r="A36" s="104">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="103">
+      <c r="B36" s="110"/>
+      <c r="C36" s="104">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D36" s="109"/>
+      <c r="D36" s="110"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="105"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="105">
+      <c r="E37" s="106">
         <v>0.88100000000000001</v>
       </c>
-      <c r="F37" s="110"/>
+      <c r="F37" s="111"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="107"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -5254,8 +5254,8 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="H38" s="8"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
@@ -5268,40 +5268,40 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="107">
+      <c r="I39" s="108">
         <v>0.22700000000000001</v>
       </c>
-      <c r="J39" s="108"/>
+      <c r="J39" s="109"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0.34899999999999998</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="103">
+      <c r="C40" s="104">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D40" s="109"/>
+      <c r="D40" s="110"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="105">
+      <c r="E41" s="106">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F41" s="110"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -5314,8 +5314,8 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="107"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
@@ -5328,40 +5328,40 @@
         <v>0.21</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="107">
+      <c r="I43" s="108">
         <v>0.104</v>
       </c>
-      <c r="J43" s="108"/>
+      <c r="J43" s="109"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="103">
+      <c r="E44" s="104">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F44" s="109"/>
+      <c r="F44" s="110"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="105"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>0.48499999999999999</v>
       </c>
       <c r="B45" s="21"/>
-      <c r="C45" s="105">
+      <c r="C45" s="106">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D45" s="110"/>
+      <c r="D45" s="111"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="107"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -5374,8 +5374,8 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="107"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
@@ -5388,26 +5388,26 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="H47" s="27"/>
-      <c r="I47" s="107">
+      <c r="I47" s="108">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="J47" s="108"/>
+      <c r="J47" s="109"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.18</v>
       </c>
       <c r="B48" s="30"/>
-      <c r="C48" s="103">
+      <c r="C48" s="104">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D48" s="109"/>
+      <c r="D48" s="110"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="105"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -5420,8 +5420,8 @@
         <v>1</v>
       </c>
       <c r="H49" s="8"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="107"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -5434,54 +5434,54 @@
         <v>0.246</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="I50" s="105">
+      <c r="I50" s="106">
         <v>0.13500000000000001</v>
       </c>
-      <c r="J50" s="106"/>
+      <c r="J50" s="107"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="107">
+      <c r="E51" s="108">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F51" s="111"/>
+      <c r="F51" s="112"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="109"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>0.28399999999999997</v>
       </c>
       <c r="B52" s="30"/>
-      <c r="C52" s="103">
+      <c r="C52" s="104">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D52" s="109"/>
+      <c r="D52" s="110"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="105"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="105">
+      <c r="E53" s="106">
         <v>0.57399999999999995</v>
       </c>
-      <c r="F53" s="110"/>
+      <c r="F53" s="111"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="107"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -5494,8 +5494,8 @@
         <v>0.56411</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="107"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
@@ -5508,10 +5508,10 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="107">
+      <c r="I55" s="108">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J55" s="108"/>
+      <c r="J55" s="109"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -5524,8 +5524,8 @@
         <v>0.182</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="105"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -5538,8 +5538,8 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="107"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -5564,10 +5564,10 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="H59" s="8"/>
-      <c r="I59" s="105">
+      <c r="I59" s="106">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J59" s="106"/>
+      <c r="J59" s="107"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
@@ -5580,24 +5580,24 @@
         <v>0.18</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="107">
+      <c r="I60" s="108">
         <v>0.26100000000000001</v>
       </c>
-      <c r="J60" s="108"/>
+      <c r="J60" s="109"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="103">
+      <c r="E61" s="104">
         <v>0.40600000000000003</v>
       </c>
-      <c r="F61" s="109"/>
+      <c r="F61" s="110"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="105"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -5610,10 +5610,10 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="105">
+      <c r="I62" s="106">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J62" s="106"/>
+      <c r="J62" s="107"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -5626,10 +5626,10 @@
         <v>0.215</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="105">
+      <c r="I63" s="106">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J63" s="106"/>
+      <c r="J63" s="107"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -5642,8 +5642,8 @@
         <v>0.124</v>
       </c>
       <c r="H64" s="8"/>
-      <c r="I64" s="105"/>
-      <c r="J64" s="106"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="107"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
@@ -5656,10 +5656,10 @@
         <v>0.109</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="107">
+      <c r="I65" s="108">
         <v>0.58299999999999996</v>
       </c>
-      <c r="J65" s="108"/>
+      <c r="J65" s="109"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
@@ -5672,10 +5672,10 @@
         <v>0.224</v>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="103">
+      <c r="I66" s="104">
         <v>1</v>
       </c>
-      <c r="J66" s="104"/>
+      <c r="J66" s="105"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
@@ -5700,8 +5700,8 @@
         <v>0.19</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="105"/>
-      <c r="J68" s="106"/>
+      <c r="I68" s="106"/>
+      <c r="J68" s="107"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
@@ -5714,10 +5714,10 @@
         <v>0.122</v>
       </c>
       <c r="H69" s="27"/>
-      <c r="I69" s="107">
+      <c r="I69" s="108">
         <v>0.36899999999999999</v>
       </c>
-      <c r="J69" s="108"/>
+      <c r="J69" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -26349,7 +26349,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:E3"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26363,68 +26363,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="117">
+      <c r="B1" s="118">
         <v>0.34</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="117">
+      <c r="C1" s="119"/>
+      <c r="D1" s="118">
         <v>0.245</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="117">
+      <c r="E1" s="119"/>
+      <c r="F1" s="118">
         <v>0.125</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="117">
+      <c r="G1" s="119"/>
+      <c r="H1" s="118">
         <v>0.25025999999999998</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="117">
+      <c r="I1" s="119"/>
+      <c r="J1" s="118">
         <v>0.19</v>
       </c>
-      <c r="K1" s="118"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137" t="s">
+      <c r="B2" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137" t="s">
+      <c r="G2" s="138"/>
+      <c r="H2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137" t="s">
+      <c r="I2" s="138"/>
+      <c r="J2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="137"/>
-      <c r="Q2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137" t="s">
+      <c r="K2" s="138"/>
+      <c r="Q2" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137" t="s">
+      <c r="T2" s="138"/>
+      <c r="U2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137" t="s">
+      <c r="V2" s="138"/>
+      <c r="W2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137" t="s">
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="137"/>
+      <c r="Z2" s="138"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -26433,49 +26433,49 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="136"/>
       <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="134"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="136"/>
       <c r="W3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="136"/>
     </row>
     <row r="4" spans="1:26" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="129">
+      <c r="B4" s="130">
         <v>0.59699999999999998</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129">
+      <c r="C4" s="130"/>
+      <c r="D4" s="130">
         <v>0.86599999999999999</v>
       </c>
-      <c r="E4" s="129"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -26506,14 +26506,14 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="136">
+      <c r="B5" s="137">
         <v>0.27600000000000002</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136">
+      <c r="C5" s="137"/>
+      <c r="D5" s="137">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E5" s="136"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -26546,10 +26546,10 @@
       <c r="C6" s="2">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D6" s="129">
+      <c r="D6" s="130">
         <v>1</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -26580,10 +26580,10 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="127">
+      <c r="F7" s="128">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G7" s="127"/>
+      <c r="G7" s="128"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -26618,10 +26618,10 @@
       <c r="C8" s="2">
         <v>0.189</v>
       </c>
-      <c r="D8" s="129">
+      <c r="D8" s="130">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E8" s="129"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -26656,11 +26656,11 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="136">
+      <c r="F9" s="137">
         <f>0.318*1.14</f>
         <v>0.36251999999999995</v>
       </c>
-      <c r="G9" s="136"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -26689,10 +26689,10 @@
         <v>0.75366</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="129">
+      <c r="D10" s="130">
         <v>0.70798000000000005</v>
       </c>
-      <c r="E10" s="129"/>
+      <c r="E10" s="130"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -26727,10 +26727,10 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="124">
+      <c r="F11" s="125">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G11" s="124"/>
+      <c r="G11" s="125"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -26795,10 +26795,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="129">
+      <c r="D13" s="130">
         <v>0.47899999999999998</v>
       </c>
-      <c r="E13" s="129"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -26820,10 +26820,10 @@
       <c r="X13" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="Y13" s="119">
+      <c r="Y13" s="120">
         <v>0.50714999999999999</v>
       </c>
-      <c r="Z13" s="120"/>
+      <c r="Z13" s="121"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -26833,10 +26833,10 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="124">
+      <c r="F14" s="125">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G14" s="124"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -26848,14 +26848,14 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="131">
+      <c r="U14" s="132">
         <v>0.94399999999999995</v>
       </c>
-      <c r="V14" s="131"/>
+      <c r="V14" s="132"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="134"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -26876,20 +26876,20 @@
       <c r="P15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="129">
+      <c r="Q15" s="130">
         <v>0.29099999999999998</v>
       </c>
-      <c r="R15" s="129"/>
-      <c r="S15" s="129">
+      <c r="R15" s="130"/>
+      <c r="S15" s="130">
         <v>0.34799999999999998</v>
       </c>
-      <c r="T15" s="129"/>
+      <c r="T15" s="130"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="105"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -26899,10 +26899,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="129">
+      <c r="D16" s="130">
         <v>0.41400000000000003</v>
       </c>
-      <c r="E16" s="129"/>
+      <c r="E16" s="130"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -26916,14 +26916,14 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="124">
+      <c r="U16" s="125">
         <v>0.88100000000000001</v>
       </c>
-      <c r="V16" s="124"/>
+      <c r="V16" s="125"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="107"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -26933,10 +26933,10 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="124">
+      <c r="F17" s="125">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="125"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -26954,8 +26954,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="X17" s="8"/>
-      <c r="Y17" s="105"/>
-      <c r="Z17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="107"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -26986,10 +26986,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="X18" s="5"/>
-      <c r="Y18" s="119">
+      <c r="Y18" s="120">
         <v>0.24062</v>
       </c>
-      <c r="Z18" s="120"/>
+      <c r="Z18" s="121"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -26999,10 +26999,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="129">
+      <c r="D19" s="130">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E19" s="129"/>
+      <c r="E19" s="130"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -27018,8 +27018,8 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="121"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -27029,10 +27029,10 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="124">
+      <c r="F20" s="125">
         <v>0.23</v>
       </c>
-      <c r="G20" s="124"/>
+      <c r="G20" s="125"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -27042,12 +27042,12 @@
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="133"/>
+      <c r="Y20" s="133"/>
+      <c r="Z20" s="134"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -27066,16 +27066,16 @@
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="105"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -27085,10 +27085,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="129">
+      <c r="D22" s="130">
         <v>0.68300000000000005</v>
       </c>
-      <c r="E22" s="129"/>
+      <c r="E22" s="130"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -27100,12 +27100,12 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="105"/>
-      <c r="Z22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="107"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -27115,10 +27115,10 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="124">
+      <c r="F23" s="125">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G23" s="124"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -27132,8 +27132,8 @@
       <c r="V23" s="102"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="106"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="107"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -27160,8 +27160,8 @@
       <c r="V24" s="101"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="119"/>
-      <c r="Z24" s="120"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="121"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -27173,16 +27173,16 @@
       <c r="C25" s="2">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="D25" s="129">
+      <c r="D25" s="130">
         <v>0.4</v>
       </c>
-      <c r="E25" s="129"/>
+      <c r="E25" s="130"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="105"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -27192,14 +27192,14 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="124">
+      <c r="F26" s="125">
         <v>1</v>
       </c>
-      <c r="G26" s="124"/>
+      <c r="G26" s="125"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="107"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -27213,10 +27213,10 @@
       <c r="G27" s="11"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="119">
+      <c r="J27" s="120">
         <v>0.21</v>
       </c>
-      <c r="K27" s="120"/>
+      <c r="K27" s="121"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -27234,10 +27234,10 @@
       <c r="I28" s="5">
         <v>0.12674418604651164</v>
       </c>
-      <c r="J28" s="119">
+      <c r="J28" s="120">
         <v>0.34125000000000005</v>
       </c>
-      <c r="K28" s="120"/>
+      <c r="K28" s="121"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -27249,16 +27249,16 @@
       <c r="C29" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D29" s="129">
+      <c r="D29" s="130">
         <v>0.59399999999999997</v>
       </c>
-      <c r="E29" s="129"/>
+      <c r="E29" s="130"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="105"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -27272,10 +27272,10 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="119">
+      <c r="J30" s="120">
         <v>0.12</v>
       </c>
-      <c r="K30" s="120"/>
+      <c r="K30" s="121"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -27293,10 +27293,10 @@
       <c r="I31" s="5">
         <v>6.5116279069767455E-2</v>
       </c>
-      <c r="J31" s="119">
+      <c r="J31" s="120">
         <v>0.17519999999999999</v>
       </c>
-      <c r="K31" s="120"/>
+      <c r="K31" s="121"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -27308,16 +27308,16 @@
       <c r="C32" s="2">
         <v>3.8249999999999999E-2</v>
       </c>
-      <c r="D32" s="129">
+      <c r="D32" s="130">
         <v>0.16200000000000003</v>
       </c>
-      <c r="E32" s="129"/>
+      <c r="E32" s="130"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="105"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
@@ -27331,10 +27331,10 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="119">
+      <c r="J33" s="120">
         <v>0.31</v>
       </c>
-      <c r="K33" s="120"/>
+      <c r="K33" s="121"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
@@ -27352,10 +27352,10 @@
       <c r="I34" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="J34" s="119">
+      <c r="J34" s="120">
         <v>0.50714999999999999</v>
       </c>
-      <c r="K34" s="120"/>
+      <c r="K34" s="121"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
@@ -27365,33 +27365,33 @@
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="131">
+      <c r="F35" s="132">
         <v>0.94399999999999995</v>
       </c>
-      <c r="G35" s="131"/>
+      <c r="G35" s="132"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="133"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="134"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="129">
+      <c r="B36" s="130">
         <v>0.29099999999999998</v>
       </c>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129">
+      <c r="C36" s="130"/>
+      <c r="D36" s="130">
         <v>0.34799999999999998</v>
       </c>
-      <c r="E36" s="129"/>
+      <c r="E36" s="130"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="105"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
@@ -27401,14 +27401,14 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="124">
+      <c r="F37" s="125">
         <v>0.88100000000000001</v>
       </c>
-      <c r="G37" s="124"/>
+      <c r="G37" s="125"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="107"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -27424,8 +27424,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="107"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -27447,10 +27447,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="119">
+      <c r="J39" s="120">
         <v>0.24062</v>
       </c>
-      <c r="K39" s="120"/>
+      <c r="K39" s="121"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -27466,16 +27466,16 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="129">
+      <c r="D40" s="130">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E40" s="129"/>
+      <c r="E40" s="130"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="105"/>
       <c r="P40" s="43"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -27491,14 +27491,14 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="124">
+      <c r="F41" s="125">
         <v>0.45500000000000002</v>
       </c>
-      <c r="G41" s="124"/>
+      <c r="G41" s="125"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="107"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -27514,8 +27514,8 @@
         <v>0.86393023255813961</v>
       </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="107"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
@@ -27531,10 +27531,10 @@
         <v>0.2441860465116279</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="119">
+      <c r="J43" s="120">
         <v>0.12064</v>
       </c>
-      <c r="K43" s="120"/>
+      <c r="K43" s="121"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -27544,14 +27544,14 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="129">
+      <c r="F44" s="130">
         <v>0.38100000000000001</v>
       </c>
-      <c r="G44" s="129"/>
+      <c r="G44" s="130"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="129"/>
-      <c r="K44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="131"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
@@ -27561,16 +27561,16 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="124">
+      <c r="D45" s="125">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E45" s="124"/>
+      <c r="E45" s="125"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="126"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="127"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
@@ -27586,8 +27586,8 @@
         <v>0.67255813953488375</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="126"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="127"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
@@ -27603,10 +27603,10 @@
         <v>0.2011627906976744</v>
       </c>
       <c r="I47" s="27"/>
-      <c r="J47" s="127">
+      <c r="J47" s="128">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="K47" s="128"/>
+      <c r="K47" s="129"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -27616,16 +27616,16 @@
         <v>0.18</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="121">
+      <c r="D48" s="122">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E48" s="121"/>
+      <c r="E48" s="122"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="125"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="126"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
@@ -27641,8 +27641,8 @@
         <v>1</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="126"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="127"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
@@ -27658,10 +27658,10 @@
         <v>0.28604651162790701</v>
       </c>
       <c r="I50" s="8"/>
-      <c r="J50" s="124">
+      <c r="J50" s="125">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K50" s="126"/>
+      <c r="K50" s="127"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
@@ -27671,14 +27671,14 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="127">
+      <c r="F51" s="128">
         <v>0.30480000000000002</v>
       </c>
-      <c r="G51" s="127"/>
+      <c r="G51" s="128"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="127"/>
-      <c r="K51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="129"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -27688,16 +27688,16 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="C52" s="30"/>
-      <c r="D52" s="121">
+      <c r="D52" s="122">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E52" s="121"/>
+      <c r="E52" s="122"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="124"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -27707,14 +27707,14 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="124">
+      <c r="F53" s="125">
         <v>0.63139999999999996</v>
       </c>
-      <c r="G53" s="124"/>
+      <c r="G53" s="125"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="107"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -27730,8 +27730,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="I54" s="8"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="107"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
@@ -27747,10 +27747,10 @@
         <v>0.1933139534883721</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="119">
+      <c r="J55" s="120">
         <v>0.14800000000000002</v>
       </c>
-      <c r="K55" s="120"/>
+      <c r="K55" s="121"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -27766,8 +27766,8 @@
         <v>0.21162790697674419</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="105"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
@@ -27783,8 +27783,8 @@
         <v>0.60697674418604652</v>
       </c>
       <c r="I57" s="8"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="107"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -27794,10 +27794,10 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="103">
+      <c r="F58" s="104">
         <v>0.25</v>
       </c>
-      <c r="G58" s="109"/>
+      <c r="G58" s="110"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="23"/>
@@ -27817,10 +27817,10 @@
         <v>0.52441860465116286</v>
       </c>
       <c r="I59" s="8"/>
-      <c r="J59" s="105">
+      <c r="J59" s="106">
         <v>0.60697000000000001</v>
       </c>
-      <c r="K59" s="106"/>
+      <c r="K59" s="107"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -27836,10 +27836,10 @@
         <v>0.20930232558139536</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="119">
+      <c r="J60" s="120">
         <v>0.26100000000000001</v>
       </c>
-      <c r="K60" s="120"/>
+      <c r="K60" s="121"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -27849,14 +27849,14 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="103">
+      <c r="F61" s="104">
         <v>0.40600000000000003</v>
       </c>
-      <c r="G61" s="109"/>
+      <c r="G61" s="110"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="104"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="105"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -27872,10 +27872,10 @@
         <v>0.32441860465116279</v>
       </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="105">
+      <c r="J62" s="106">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K62" s="106"/>
+      <c r="K62" s="107"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -27891,10 +27891,10 @@
         <v>0.25</v>
       </c>
       <c r="I63" s="8"/>
-      <c r="J63" s="105">
+      <c r="J63" s="106">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K63" s="106"/>
+      <c r="K63" s="107"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -27910,8 +27910,8 @@
         <v>0.14418604651162792</v>
       </c>
       <c r="I64" s="8"/>
-      <c r="J64" s="105"/>
-      <c r="K64" s="106"/>
+      <c r="J64" s="106"/>
+      <c r="K64" s="107"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
@@ -27927,10 +27927,10 @@
         <v>0.12674418604651164</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="119">
+      <c r="J65" s="120">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K65" s="120"/>
+      <c r="K65" s="121"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
@@ -27946,10 +27946,10 @@
         <v>0.26046511627906982</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="103">
+      <c r="J66" s="104">
         <v>1</v>
       </c>
-      <c r="K66" s="104"/>
+      <c r="K66" s="105"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -27959,10 +27959,10 @@
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
-      <c r="F67" s="103">
+      <c r="F67" s="104">
         <v>0.25</v>
       </c>
-      <c r="G67" s="109"/>
+      <c r="G67" s="110"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="31"/>
@@ -27982,8 +27982,8 @@
         <v>0.22093023255813954</v>
       </c>
       <c r="I68" s="8"/>
-      <c r="J68" s="105"/>
-      <c r="K68" s="106"/>
+      <c r="J68" s="106"/>
+      <c r="K68" s="107"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
@@ -27999,10 +27999,10 @@
         <v>0.14186046511627906</v>
       </c>
       <c r="I69" s="27"/>
-      <c r="J69" s="107">
+      <c r="J69" s="108">
         <v>0.36899999999999999</v>
       </c>
-      <c r="K69" s="108"/>
+      <c r="K69" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="121">
@@ -28017,18 +28017,6 @@
     <mergeCell ref="Y19:Z19"/>
     <mergeCell ref="U20:V20"/>
     <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="Y16:Z16"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F2:G2"/>
@@ -28058,7 +28046,18 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -28084,6 +28083,7 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="J40:K40"/>
@@ -30079,7 +30079,7 @@
   <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30330,41 +30330,41 @@
       </c>
       <c r="W3" s="45"/>
       <c r="X3" s="79" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="Y3" s="84">
-        <v>9.57</v>
+        <v>9.1650000000000009</v>
       </c>
       <c r="Z3" s="92">
-        <v>0.9761081340930623</v>
+        <v>0.71623566671850913</v>
       </c>
       <c r="AA3" s="92">
-        <v>0.9616808887457734</v>
+        <v>0.82836902270165824</v>
       </c>
       <c r="AB3" s="92">
-        <v>0.9761081340930623</v>
+        <v>0.71623566671850913</v>
       </c>
       <c r="AC3" s="92">
-        <v>0.97051680503299076</v>
+        <v>0.75969333842364517</v>
       </c>
       <c r="AD3" s="93">
-        <v>0.82099858740644271</v>
+        <v>0.93081049771758773</v>
       </c>
       <c r="AE3" s="92">
-        <v>0.73167161468288877</v>
+        <v>0.83287121846261414</v>
       </c>
       <c r="AF3" s="92">
-        <v>0.53092798874482483</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="92">
-        <v>0.73167161468288877</v>
+        <v>0.83287121846261414</v>
       </c>
       <c r="AH3" s="92">
-        <v>0.66574310366150702</v>
-      </c>
-      <c r="AJ3" s="138">
+        <v>0.88775989382696785</v>
+      </c>
+      <c r="AJ3" s="103">
         <f>AH3+AC3</f>
-        <v>1.6362599086944978</v>
+        <v>1.647453232250613</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -30447,41 +30447,41 @@
       </c>
       <c r="W4" s="45"/>
       <c r="X4" s="79" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="Y4" s="84">
-        <v>9.1749999999999989</v>
+        <v>9.07</v>
       </c>
       <c r="Z4" s="92">
+        <v>0.7045258529274534</v>
+      </c>
+      <c r="AA4" s="92">
+        <v>0.46626952181613257</v>
+      </c>
+      <c r="AB4" s="92">
+        <v>0.7045258529274534</v>
+      </c>
+      <c r="AC4" s="92">
+        <v>0.61218878401227772</v>
+      </c>
+      <c r="AD4" s="93">
+        <v>0.94026522084333997</v>
+      </c>
+      <c r="AE4" s="92">
         <v>1</v>
       </c>
-      <c r="AA4" s="92">
-        <v>0.96763806150378362</v>
-      </c>
-      <c r="AB4" s="92">
-        <v>0.90159345087448928</v>
-      </c>
-      <c r="AC4" s="92">
-        <v>0.95732364374302958</v>
-      </c>
-      <c r="AD4" s="93">
-        <v>0.84418127692941181</v>
-      </c>
-      <c r="AE4" s="92">
-        <v>0.76380411256180292</v>
-      </c>
       <c r="AF4" s="92">
-        <v>0.57661238223864453</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="92">
-        <v>0.44887436776006223</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="92">
-        <v>0.59657630262803529</v>
-      </c>
-      <c r="AJ4" s="138">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="103">
         <f t="shared" ref="AJ4:AJ9" si="5">AH4+AC4</f>
-        <v>1.553899946371065</v>
+        <v>1.6121887840122777</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -30565,41 +30565,41 @@
       </c>
       <c r="W5" s="45"/>
       <c r="X5" s="79" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="Y5" s="84">
-        <v>9.59</v>
+        <v>8.9980000000000011</v>
       </c>
       <c r="Z5" s="92">
-        <v>0.9407722651886834</v>
+        <v>0.65564381353655599</v>
       </c>
       <c r="AA5" s="92">
-        <v>0.905007245210111</v>
+        <v>0.7423925293833521</v>
       </c>
       <c r="AB5" s="92">
-        <v>0.9407722651886834</v>
+        <v>0.65564381353655599</v>
       </c>
       <c r="AC5" s="92">
-        <v>0.92691140743472489</v>
+        <v>0.68926357976096742</v>
       </c>
       <c r="AD5" s="93">
-        <v>0.71881507633324593</v>
+        <v>0.96410554457747288</v>
       </c>
       <c r="AE5" s="92">
-        <v>0.81594374467952058</v>
+        <v>0.83287121846261414</v>
       </c>
       <c r="AF5" s="92">
-        <v>0.64517154976207536</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="92">
-        <v>0.81594374467952058</v>
+        <v>0.83287121846261414</v>
       </c>
       <c r="AH5" s="92">
-        <v>0.75985849424056506</v>
-      </c>
-      <c r="AJ5" s="138">
+        <v>0.88775989382696785</v>
+      </c>
+      <c r="AJ5" s="103">
         <f t="shared" si="5"/>
-        <v>1.68676990167529</v>
+        <v>1.5770234735879352</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -30683,41 +30683,41 @@
       </c>
       <c r="W6" s="45"/>
       <c r="X6" s="79" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Y6" s="84">
-        <v>9.4600000000000009</v>
+        <v>9.07</v>
       </c>
       <c r="Z6" s="92">
-        <v>0.9761081340930623</v>
+        <v>0.81396072221358173</v>
       </c>
       <c r="AA6" s="92">
-        <v>0.92931895024955702</v>
+        <v>0.62727419095153747</v>
       </c>
       <c r="AB6" s="92">
-        <v>0.87770158496755157</v>
+        <v>0.5540882548390289</v>
       </c>
       <c r="AC6" s="92">
-        <v>0.92784044877602034</v>
+        <v>0.6620307135291168</v>
       </c>
       <c r="AD6" s="93">
-        <v>0.80254621466299692</v>
+        <v>0.95385921741922897</v>
       </c>
       <c r="AE6" s="92">
-        <v>0.86346743902144385</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="92">
-        <v>0.7255391540287055</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="92">
-        <v>0.54853769421970333</v>
+        <v>0.83287121846261414</v>
       </c>
       <c r="AH6" s="92">
-        <v>0.71241880082097897</v>
-      </c>
-      <c r="AJ6" s="138">
+        <v>0.94387994691348398</v>
+      </c>
+      <c r="AJ6" s="103">
         <f t="shared" si="5"/>
-        <v>1.6402592495969994</v>
+        <v>1.6059106604426008</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -30801,41 +30801,41 @@
       </c>
       <c r="W7" s="45"/>
       <c r="X7" s="79" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="Y7" s="84">
-        <v>9.1650000000000009</v>
+        <v>8.7700000000000014</v>
       </c>
       <c r="Z7" s="92">
-        <v>0.87770158496755157</v>
+        <v>0.74012753262544717</v>
       </c>
       <c r="AA7" s="92">
-        <v>0.83030107873128312</v>
+        <v>0.83432619545966846</v>
       </c>
       <c r="AB7" s="92">
-        <v>0.87770158496755157</v>
+        <v>0.74012753262544717</v>
       </c>
       <c r="AC7" s="92">
-        <v>0.8593313540883244</v>
+        <v>0.77663455168878071</v>
       </c>
       <c r="AD7" s="93">
-        <v>0.73152841834834903</v>
+        <v>0.91035842837638414</v>
       </c>
       <c r="AE7" s="92">
-        <v>0.65293775731934534</v>
+        <v>0.83287121846261414</v>
       </c>
       <c r="AF7" s="92">
-        <v>0.87414236162108983</v>
+        <v>0.97327558503830303</v>
       </c>
       <c r="AG7" s="92">
-        <v>0.65293775731934534</v>
+        <v>0.51794147366087362</v>
       </c>
       <c r="AH7" s="92">
-        <v>0.7255860923513503</v>
-      </c>
-      <c r="AJ7" s="138">
+        <v>0.7732329909329273</v>
+      </c>
+      <c r="AJ7" s="103">
         <f t="shared" si="5"/>
-        <v>1.5849174464396747</v>
+        <v>1.5498675426217079</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -30922,41 +30922,41 @@
       </c>
       <c r="W8" s="45"/>
       <c r="X8" s="79" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="Y8" s="84">
-        <v>9.2949999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="Z8" s="92">
-        <v>0.90061786870643468</v>
+        <v>0.81396072221358173</v>
       </c>
       <c r="AA8" s="92">
-        <v>0.840605377555949</v>
+        <v>0.6939301239735951</v>
       </c>
       <c r="AB8" s="92">
-        <v>0.90061786870643468</v>
+        <v>0.71555417308807101</v>
       </c>
       <c r="AC8" s="92">
-        <v>0.87735981925487716</v>
+        <v>0.73730807227869299</v>
       </c>
       <c r="AD8" s="93">
-        <v>0.57819207726118393</v>
+        <v>0.85062364921972422</v>
       </c>
       <c r="AE8" s="92">
-        <v>0.86633960966334067</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="92">
-        <v>0.69880369592033031</v>
+        <v>0.97327558503830303</v>
       </c>
       <c r="AG8" s="92">
-        <v>0.86633960966334067</v>
+        <v>0.68507025519825948</v>
       </c>
       <c r="AH8" s="92">
-        <v>0.81131722335309642</v>
-      </c>
-      <c r="AJ8" s="138">
+        <v>0.88547309710595956</v>
+      </c>
+      <c r="AJ8" s="103">
         <f t="shared" si="5"/>
-        <v>1.6886770426079736</v>
+        <v>1.6227811693846526</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -31043,41 +31043,41 @@
       </c>
       <c r="W9" s="45"/>
       <c r="X9" s="79" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Y9" s="84">
-        <v>9.2949999999999999</v>
+        <v>8.9980000000000011</v>
       </c>
       <c r="Z9" s="92">
-        <v>0.9407722651886834</v>
+        <v>0.91551628091110882</v>
       </c>
       <c r="AA9" s="92">
-        <v>0.87264530671389462</v>
+        <v>0.77668652390919346</v>
       </c>
       <c r="AB9" s="92">
-        <v>0.84236571606317268</v>
+        <v>0.55723726441104526</v>
       </c>
       <c r="AC9" s="92">
-        <v>0.88423505117775436</v>
+        <v>0.7519989568086699</v>
       </c>
       <c r="AD9" s="93">
-        <v>0.68556494876639396</v>
+        <v>0.90736538495637098</v>
       </c>
       <c r="AE9" s="92">
-        <v>0.92034380777916258</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="92">
-        <v>0.79377475735445968</v>
+        <v>0.97327558503830303</v>
       </c>
       <c r="AG9" s="92">
-        <v>0.60541406297742206</v>
+        <v>0.51794147366087362</v>
       </c>
       <c r="AH9" s="92">
-        <v>0.77302578577093617</v>
-      </c>
-      <c r="AJ9" s="138">
+        <v>0.82935304401944343</v>
+      </c>
+      <c r="AJ9" s="103">
         <f t="shared" si="5"/>
-        <v>1.6572608369486905</v>
+        <v>1.5813520008281134</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -31161,39 +31161,39 @@
       </c>
       <c r="W10" s="45"/>
       <c r="X10" s="79" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Y10" s="84">
-        <v>9.4030000000000005</v>
+        <v>8.9980000000000011</v>
       </c>
       <c r="Z10" s="92">
-        <v>0.91551628091110882</v>
+        <v>0.81710973178559809</v>
       </c>
       <c r="AA10" s="92">
-        <v>0.87570439542746747</v>
+        <v>0.81098051843503471</v>
       </c>
       <c r="AB10" s="92">
-        <v>0.91551628091110882</v>
+        <v>0.81710973178559809</v>
       </c>
       <c r="AC10" s="92">
-        <v>0.90008704637031312</v>
+        <v>0.81473433385637217</v>
       </c>
       <c r="AD10" s="93">
-        <v>0.90232772564556685</v>
+        <v>0.85062522533526908</v>
       </c>
       <c r="AE10" s="92">
-        <v>0.76380411256180292</v>
+        <v>0.68507025519825948</v>
       </c>
       <c r="AF10" s="92">
-        <v>0.6033367972003415</v>
+        <v>0.94655117007660627</v>
       </c>
       <c r="AG10" s="92">
-        <v>0.76380411256180292</v>
+        <v>0.68507025519825948</v>
       </c>
       <c r="AH10" s="92">
-        <v>0.71110320552207584</v>
-      </c>
-      <c r="AJ10" s="138"/>
+        <v>0.77094619421191901</v>
+      </c>
+      <c r="AJ10" s="103"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
@@ -31279,39 +31279,39 @@
       </c>
       <c r="W11" s="45"/>
       <c r="X11" s="79" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="Y11" s="84">
-        <v>9.1750000000000007</v>
+        <v>8.77</v>
       </c>
       <c r="Z11" s="92">
-        <v>1</v>
+        <v>0.90159345087448928</v>
       </c>
       <c r="AA11" s="92">
-        <v>0.93334406697794248</v>
+        <v>0.86862018998550972</v>
       </c>
       <c r="AB11" s="92">
-        <v>0.74012753262544717</v>
+        <v>0.64172098349993645</v>
       </c>
       <c r="AC11" s="92">
-        <v>0.89458826669532732</v>
+        <v>0.80923555418138648</v>
       </c>
       <c r="AD11" s="93">
-        <v>0.90532076906558012</v>
+        <v>0.85361826875528235</v>
       </c>
       <c r="AE11" s="92">
-        <v>0.76380411256180292</v>
+        <v>0.68507025519825948</v>
       </c>
       <c r="AF11" s="92">
-        <v>0.6033367972003415</v>
+        <v>0.94655117007660627</v>
       </c>
       <c r="AG11" s="92">
-        <v>0.59667533102441705</v>
+        <v>0.51794147366087362</v>
       </c>
       <c r="AH11" s="92">
-        <v>0.65498315243555982</v>
-      </c>
-      <c r="AJ11" s="138"/>
+        <v>0.71482614112540299</v>
+      </c>
+      <c r="AJ11" s="103"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
@@ -31397,39 +31397,39 @@
       </c>
       <c r="W12" s="45"/>
       <c r="X12" s="79" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Y12" s="84">
-        <v>9.6880000000000006</v>
+        <v>9.4650000000000016</v>
       </c>
       <c r="Z12" s="92">
-        <v>0.89162441500417111</v>
+        <v>0.79006885630664381</v>
       </c>
       <c r="AA12" s="92">
-        <v>0.83738528417324098</v>
+        <v>0.68797295121558522</v>
       </c>
       <c r="AB12" s="92">
-        <v>0.89162441500417111</v>
+        <v>0.79006885630664381</v>
       </c>
       <c r="AC12" s="92">
-        <v>0.87060385140330376</v>
+        <v>0.75050123356865406</v>
       </c>
       <c r="AD12" s="93">
-        <v>0.85629333086408554</v>
+        <v>0.86953703576009156</v>
       </c>
       <c r="AE12" s="92">
-        <v>0.86346743902144385</v>
+        <v>0.96786750212108585</v>
       </c>
       <c r="AF12" s="92">
-        <v>0.75226356899040236</v>
+        <v>0.92759119154448355</v>
       </c>
       <c r="AG12" s="92">
-        <v>0.86346743902144385</v>
+        <v>0.96786750212108585</v>
       </c>
       <c r="AH12" s="92">
-        <v>0.82694570371501952</v>
-      </c>
-      <c r="AJ12" s="138"/>
+        <v>0.95463989813943118</v>
+      </c>
+      <c r="AJ12" s="103"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
@@ -31512,39 +31512,39 @@
       </c>
       <c r="W13" s="45"/>
       <c r="X13" s="79" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Y13" s="84">
-        <v>9.293000000000001</v>
+        <v>9.3930000000000007</v>
       </c>
       <c r="Z13" s="92">
-        <v>0.91551628091110882</v>
+        <v>0.89162441500417111</v>
       </c>
       <c r="AA13" s="92">
-        <v>0.84334245693125109</v>
+        <v>0.8050233456770246</v>
       </c>
       <c r="AB13" s="92">
-        <v>0.81710973178559809</v>
+        <v>0.79321786587866017</v>
       </c>
       <c r="AC13" s="92">
-        <v>0.85741069011334248</v>
+        <v>0.82792749514633324</v>
       </c>
       <c r="AD13" s="93">
-        <v>0.88387535290212127</v>
+        <v>0.84668493647269272</v>
       </c>
       <c r="AE13" s="92">
-        <v>0.89559993690035788</v>
+        <v>0.96786750212108585</v>
       </c>
       <c r="AF13" s="92">
-        <v>0.79794796248422206</v>
+        <v>0.90086677658278658</v>
       </c>
       <c r="AG13" s="92">
-        <v>0.58067019209861725</v>
+        <v>0.65293775731934534</v>
       </c>
       <c r="AH13" s="92">
-        <v>0.75777890268154779</v>
-      </c>
-      <c r="AJ13" s="138"/>
+        <v>0.84011299524539074</v>
+      </c>
+      <c r="AJ13" s="103"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
@@ -31630,39 +31630,39 @@
       </c>
       <c r="W14" s="45"/>
       <c r="X14" s="79" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Y14" s="84">
-        <v>9.4600000000000009</v>
+        <v>9.1650000000000009</v>
       </c>
       <c r="Z14" s="92">
         <v>0.9761081340930623</v>
       </c>
       <c r="AA14" s="92">
-        <v>0.89502495572371588</v>
+        <v>0.8626630172274995</v>
       </c>
       <c r="AB14" s="92">
-        <v>0.71623566671850913</v>
+        <v>0.61782911759299841</v>
       </c>
       <c r="AC14" s="92">
-        <v>0.86510507172831796</v>
+        <v>0.82242871547134755</v>
       </c>
       <c r="AD14" s="93">
-        <v>0.85928637428409871</v>
+        <v>0.82603624671724685</v>
       </c>
       <c r="AE14" s="92">
-        <v>0.86346743902144385</v>
+        <v>0.96786750212108585</v>
       </c>
       <c r="AF14" s="92">
-        <v>0.75226356899040236</v>
+        <v>0.90086677658278658</v>
       </c>
       <c r="AG14" s="92">
-        <v>0.6963386574840581</v>
+        <v>0.48580897578195958</v>
       </c>
       <c r="AH14" s="92">
-        <v>0.77082565062850339</v>
-      </c>
-      <c r="AJ14" s="138"/>
+        <v>0.78399294215887472</v>
+      </c>
+      <c r="AJ14" s="103"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
@@ -31748,39 +31748,39 @@
       </c>
       <c r="W15" s="45"/>
       <c r="X15" s="79" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Y15" s="84">
-        <v>9.0649999999999995</v>
+        <v>9.3930000000000007</v>
       </c>
       <c r="Z15" s="92">
-        <v>1</v>
+        <v>0.89162441500417111</v>
       </c>
       <c r="AA15" s="92">
-        <v>0.9009821284817261</v>
+        <v>0.77072935115118324</v>
       </c>
       <c r="AB15" s="92">
-        <v>0.64172098349993645</v>
+        <v>0.63175194762961806</v>
       </c>
       <c r="AC15" s="92">
-        <v>0.8519119104383569</v>
+        <v>0.76519211809863097</v>
       </c>
       <c r="AD15" s="93">
-        <v>0.85956219450447913</v>
+        <v>0.87978336291833548</v>
       </c>
       <c r="AE15" s="92">
-        <v>0.895599936900358</v>
+        <v>0.96786750212108585</v>
       </c>
       <c r="AF15" s="92">
-        <v>0.79794796248422206</v>
+        <v>0.90086677658278658</v>
       </c>
       <c r="AG15" s="92">
-        <v>0.4135414105612315</v>
+        <v>0.8007387205837001</v>
       </c>
       <c r="AH15" s="92">
-        <v>0.70165884959503166</v>
-      </c>
-      <c r="AJ15" s="138"/>
+        <v>0.8897429741654389</v>
+      </c>
+      <c r="AJ15" s="103"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
@@ -31864,39 +31864,39 @@
       </c>
       <c r="W16" s="45"/>
       <c r="X16" s="79" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Y16" s="84">
-        <v>8.9980000000000011</v>
+        <v>9.1650000000000009</v>
       </c>
       <c r="Z16" s="92">
-        <v>0.81710973178559809</v>
+        <v>0.87770158496755157</v>
       </c>
       <c r="AA16" s="92">
-        <v>0.81098051843503471</v>
+        <v>0.83030107873128312</v>
       </c>
       <c r="AB16" s="92">
-        <v>0.81710973178559809</v>
+        <v>0.87770158496755157</v>
       </c>
       <c r="AC16" s="92">
-        <v>0.81473433385637217</v>
+        <v>0.8593313540883244</v>
       </c>
       <c r="AD16" s="93">
-        <v>0.85062522533526908</v>
+        <v>0.73152841834834903</v>
       </c>
       <c r="AE16" s="92">
-        <v>0.68507025519825948</v>
+        <v>0.65293775731934534</v>
       </c>
       <c r="AF16" s="92">
-        <v>0.94655117007660627</v>
+        <v>0.87414236162108983</v>
       </c>
       <c r="AG16" s="92">
-        <v>0.68507025519825948</v>
+        <v>0.65293775731934534</v>
       </c>
       <c r="AH16" s="92">
-        <v>0.77094619421191901</v>
-      </c>
-      <c r="AJ16" s="138"/>
+        <v>0.7255860923513503</v>
+      </c>
+      <c r="AJ16" s="103"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
@@ -31980,39 +31980,39 @@
       </c>
       <c r="W17" s="45"/>
       <c r="X17" s="79" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Y17" s="84">
-        <v>9.5229999999999997</v>
+        <v>9.0650000000000013</v>
       </c>
       <c r="Z17" s="92">
-        <v>0.85628854609979221</v>
+        <v>0.74012753262544717</v>
       </c>
       <c r="AA17" s="92">
-        <v>0.78071164063757847</v>
+        <v>0.83432619545966846</v>
       </c>
       <c r="AB17" s="92">
-        <v>0.85628854609979221</v>
+        <v>0.74012753262544717</v>
       </c>
       <c r="AC17" s="92">
-        <v>0.82699845380503778</v>
+        <v>0.77663455168878071</v>
       </c>
       <c r="AD17" s="93">
-        <v>0.7393120649674827</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="92">
-        <v>0.92034380777916258</v>
+        <v>0.72847115536297213</v>
       </c>
       <c r="AF17" s="92">
-        <v>0.82049917231615643</v>
+        <v>0.82467237744591892</v>
       </c>
       <c r="AG17" s="92">
-        <v>0.92034380777916258</v>
+        <v>0.72847115536297213</v>
       </c>
       <c r="AH17" s="92">
-        <v>0.88755268866497661</v>
-      </c>
-      <c r="AJ17" s="138"/>
+        <v>0.76006569940255608</v>
+      </c>
+      <c r="AJ17" s="103"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
@@ -32096,39 +32096,39 @@
       </c>
       <c r="W18" s="45"/>
       <c r="X18" s="79" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Y18" s="84">
-        <v>9.3930000000000007</v>
+        <v>9.3650000000000002</v>
       </c>
       <c r="Z18" s="92">
-        <v>0.89162441500417111</v>
+        <v>0.81002106691928111</v>
       </c>
       <c r="AA18" s="92">
-        <v>0.8050233456770246</v>
+        <v>0.72049589438093697</v>
       </c>
       <c r="AB18" s="92">
-        <v>0.79321786587866017</v>
+        <v>0.81002106691928111</v>
       </c>
       <c r="AC18" s="92">
-        <v>0.82792749514633324</v>
+        <v>0.77532527525759509</v>
       </c>
       <c r="AD18" s="93">
-        <v>0.84668493647269272</v>
+        <v>0.93036918536497926</v>
       </c>
       <c r="AE18" s="92">
-        <v>0.96786750212108585</v>
+        <v>0.895599936900358</v>
       </c>
       <c r="AF18" s="92">
-        <v>0.90086677658278658</v>
+        <v>0.82467237744591892</v>
       </c>
       <c r="AG18" s="92">
-        <v>0.65293775731934534</v>
+        <v>0.895599936900358</v>
       </c>
       <c r="AH18" s="92">
-        <v>0.84011299524539074</v>
-      </c>
-      <c r="AJ18" s="138"/>
+        <v>0.87230580557558846</v>
+      </c>
+      <c r="AJ18" s="103"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
@@ -32214,39 +32214,39 @@
       </c>
       <c r="W19" s="45"/>
       <c r="X19" s="79" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y19" s="84">
-        <v>8.77</v>
+        <v>9.293000000000001</v>
       </c>
       <c r="Z19" s="92">
-        <v>0.90159345087448928</v>
+        <v>0.91551628091110882</v>
       </c>
       <c r="AA19" s="92">
-        <v>0.86862018998550972</v>
+        <v>0.80904846240540984</v>
       </c>
       <c r="AB19" s="92">
-        <v>0.64172098349993645</v>
+        <v>0.55723726441104526</v>
       </c>
       <c r="AC19" s="92">
-        <v>0.80923555418138648</v>
+        <v>0.76454093851054383</v>
       </c>
       <c r="AD19" s="93">
-        <v>0.85361826875528235</v>
+        <v>0.94061551252322317</v>
       </c>
       <c r="AE19" s="92">
-        <v>0.68507025519825948</v>
+        <v>0.895599936900358</v>
       </c>
       <c r="AF19" s="92">
-        <v>0.94655117007660627</v>
+        <v>0.82467237744591892</v>
       </c>
       <c r="AG19" s="92">
-        <v>0.51794147366087362</v>
+        <v>0.72847115536297213</v>
       </c>
       <c r="AH19" s="92">
-        <v>0.71482614112540299</v>
-      </c>
-      <c r="AJ19" s="138"/>
+        <v>0.81618575248907232</v>
+      </c>
+      <c r="AJ19" s="103"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
@@ -32332,25 +32332,25 @@
       </c>
       <c r="W20" s="45"/>
       <c r="X20" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Y20" s="84">
-        <v>9.2949999999999999</v>
+        <v>9.5229999999999997</v>
       </c>
       <c r="Z20" s="92">
-        <v>0.9407722651886834</v>
+        <v>0.85628854609979221</v>
       </c>
       <c r="AA20" s="92">
-        <v>0.83835131218805348</v>
+        <v>0.78071164063757847</v>
       </c>
       <c r="AB20" s="92">
-        <v>0.68089979781413046</v>
+        <v>0.85628854609979221</v>
       </c>
       <c r="AC20" s="92">
-        <v>0.8214996741300522</v>
+        <v>0.82699845380503778</v>
       </c>
       <c r="AD20" s="93">
-        <v>0.74230510838749575</v>
+        <v>0.7393120649674827</v>
       </c>
       <c r="AE20" s="92">
         <v>0.92034380777916258</v>
@@ -32359,12 +32359,12 @@
         <v>0.82049917231615643</v>
       </c>
       <c r="AG20" s="92">
-        <v>0.75321502624177683</v>
+        <v>0.92034380777916258</v>
       </c>
       <c r="AH20" s="92">
-        <v>0.83143263557846059</v>
-      </c>
-      <c r="AJ20" s="138"/>
+        <v>0.88755268866497661</v>
+      </c>
+      <c r="AJ20" s="103"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
@@ -32450,39 +32450,39 @@
       </c>
       <c r="W21" s="45"/>
       <c r="X21" s="79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y21" s="84">
-        <v>9.1650000000000009</v>
+        <v>9.2949999999999999</v>
       </c>
       <c r="Z21" s="92">
-        <v>0.9761081340930623</v>
+        <v>0.9407722651886834</v>
       </c>
       <c r="AA21" s="92">
-        <v>0.8626630172274995</v>
+        <v>0.83835131218805348</v>
       </c>
       <c r="AB21" s="92">
-        <v>0.61782911759299841</v>
+        <v>0.68089979781413046</v>
       </c>
       <c r="AC21" s="92">
-        <v>0.82242871547134755</v>
+        <v>0.8214996741300522</v>
       </c>
       <c r="AD21" s="93">
-        <v>0.82603624671724685</v>
+        <v>0.74230510838749575</v>
       </c>
       <c r="AE21" s="92">
-        <v>0.96786750212108585</v>
+        <v>0.92034380777916258</v>
       </c>
       <c r="AF21" s="92">
-        <v>0.90086677658278658</v>
+        <v>0.82049917231615643</v>
       </c>
       <c r="AG21" s="92">
-        <v>0.48580897578195958</v>
+        <v>0.75321502624177683</v>
       </c>
       <c r="AH21" s="92">
-        <v>0.78399294215887472</v>
-      </c>
-      <c r="AJ21" s="138"/>
+        <v>0.83143263557846059</v>
+      </c>
+      <c r="AJ21" s="103"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
@@ -32567,39 +32567,39 @@
         <v>1.9005890000000001</v>
       </c>
       <c r="X22" s="79" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Y22" s="84">
-        <v>9.0650000000000013</v>
+        <v>9.293000000000001</v>
       </c>
       <c r="Z22" s="92">
-        <v>0.74012753262544717</v>
+        <v>0.91551628091110882</v>
       </c>
       <c r="AA22" s="92">
-        <v>0.83432619545966846</v>
+        <v>0.84334245693125109</v>
       </c>
       <c r="AB22" s="92">
-        <v>0.74012753262544717</v>
+        <v>0.81710973178559809</v>
       </c>
       <c r="AC22" s="92">
-        <v>0.77663455168878071</v>
+        <v>0.85741069011334248</v>
       </c>
       <c r="AD22" s="93">
-        <v>1</v>
+        <v>0.88387535290212127</v>
       </c>
       <c r="AE22" s="92">
-        <v>0.72847115536297213</v>
+        <v>0.89559993690035788</v>
       </c>
       <c r="AF22" s="92">
-        <v>0.82467237744591892</v>
+        <v>0.79794796248422206</v>
       </c>
       <c r="AG22" s="92">
-        <v>0.72847115536297213</v>
+        <v>0.58067019209861725</v>
       </c>
       <c r="AH22" s="92">
-        <v>0.76006569940255608</v>
-      </c>
-      <c r="AJ22" s="138"/>
+        <v>0.75777890268154779</v>
+      </c>
+      <c r="AJ22" s="103"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
@@ -32684,39 +32684,39 @@
         <v>2.053579</v>
       </c>
       <c r="X23" s="79" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Y23" s="84">
-        <v>9.3650000000000002</v>
+        <v>9.0649999999999995</v>
       </c>
       <c r="Z23" s="92">
-        <v>0.81002106691928111</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="92">
-        <v>0.72049589438093697</v>
+        <v>0.9009821284817261</v>
       </c>
       <c r="AB23" s="92">
-        <v>0.81002106691928111</v>
+        <v>0.64172098349993645</v>
       </c>
       <c r="AC23" s="92">
-        <v>0.77532527525759509</v>
+        <v>0.8519119104383569</v>
       </c>
       <c r="AD23" s="93">
-        <v>0.93036918536497926</v>
+        <v>0.85956219450447913</v>
       </c>
       <c r="AE23" s="92">
         <v>0.895599936900358</v>
       </c>
       <c r="AF23" s="92">
-        <v>0.82467237744591892</v>
+        <v>0.79794796248422206</v>
       </c>
       <c r="AG23" s="92">
-        <v>0.895599936900358</v>
+        <v>0.4135414105612315</v>
       </c>
       <c r="AH23" s="92">
-        <v>0.87230580557558846</v>
-      </c>
-      <c r="AJ23" s="138"/>
+        <v>0.70165884959503166</v>
+      </c>
+      <c r="AJ23" s="103"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
@@ -32801,39 +32801,39 @@
         <v>2.3253845499999999</v>
       </c>
       <c r="X24" s="79" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="Y24" s="84">
-        <v>9.293000000000001</v>
+        <v>9.2949999999999999</v>
       </c>
       <c r="Z24" s="92">
-        <v>0.91551628091110882</v>
+        <v>0.9407722651886834</v>
       </c>
       <c r="AA24" s="92">
-        <v>0.80904846240540984</v>
+        <v>0.87264530671389462</v>
       </c>
       <c r="AB24" s="92">
-        <v>0.55723726441104526</v>
+        <v>0.84236571606317268</v>
       </c>
       <c r="AC24" s="92">
-        <v>0.76454093851054383</v>
+        <v>0.88423505117775436</v>
       </c>
       <c r="AD24" s="93">
-        <v>0.94061551252322317</v>
+        <v>0.68556494876639396</v>
       </c>
       <c r="AE24" s="92">
-        <v>0.895599936900358</v>
+        <v>0.92034380777916258</v>
       </c>
       <c r="AF24" s="92">
-        <v>0.82467237744591892</v>
+        <v>0.79377475735445968</v>
       </c>
       <c r="AG24" s="92">
-        <v>0.72847115536297213</v>
+        <v>0.60541406297742206</v>
       </c>
       <c r="AH24" s="92">
-        <v>0.81618575248907232</v>
-      </c>
-      <c r="AJ24" s="138"/>
+        <v>0.77302578577093617</v>
+      </c>
+      <c r="AJ24" s="103"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
@@ -32918,39 +32918,39 @@
         <v>2.3193945500000002</v>
       </c>
       <c r="X25" s="79" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Y25" s="84">
-        <v>9.1650000000000009</v>
+        <v>9.6880000000000006</v>
       </c>
       <c r="Z25" s="92">
-        <v>0.71623566671850913</v>
+        <v>0.89162441500417111</v>
       </c>
       <c r="AA25" s="92">
-        <v>0.82836902270165824</v>
+        <v>0.83738528417324098</v>
       </c>
       <c r="AB25" s="92">
-        <v>0.71623566671850913</v>
+        <v>0.89162441500417111</v>
       </c>
       <c r="AC25" s="92">
-        <v>0.75969333842364517</v>
+        <v>0.87060385140330376</v>
       </c>
       <c r="AD25" s="93">
-        <v>0.93081049771758773</v>
+        <v>0.85629333086408554</v>
       </c>
       <c r="AE25" s="92">
-        <v>0.83287121846261414</v>
+        <v>0.86346743902144385</v>
       </c>
       <c r="AF25" s="92">
-        <v>1</v>
+        <v>0.75226356899040236</v>
       </c>
       <c r="AG25" s="92">
-        <v>0.83287121846261414</v>
+        <v>0.86346743902144385</v>
       </c>
       <c r="AH25" s="92">
-        <v>0.88775989382696785</v>
-      </c>
-      <c r="AJ25" s="138"/>
+        <v>0.82694570371501952</v>
+      </c>
+      <c r="AJ25" s="103"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
@@ -33035,39 +33035,39 @@
         <v>2.6193845499999999</v>
       </c>
       <c r="X26" s="79" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="Y26" s="84">
-        <v>8.7700000000000014</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="Z26" s="92">
-        <v>0.74012753262544717</v>
+        <v>0.9761081340930623</v>
       </c>
       <c r="AA26" s="92">
-        <v>0.83432619545966846</v>
+        <v>0.89502495572371588</v>
       </c>
       <c r="AB26" s="92">
-        <v>0.74012753262544717</v>
+        <v>0.71623566671850913</v>
       </c>
       <c r="AC26" s="92">
-        <v>0.77663455168878071</v>
+        <v>0.86510507172831796</v>
       </c>
       <c r="AD26" s="93">
-        <v>0.91035842837638414</v>
+        <v>0.85928637428409871</v>
       </c>
       <c r="AE26" s="92">
-        <v>0.83287121846261414</v>
+        <v>0.86346743902144385</v>
       </c>
       <c r="AF26" s="92">
-        <v>0.97327558503830303</v>
+        <v>0.75226356899040236</v>
       </c>
       <c r="AG26" s="92">
-        <v>0.51794147366087362</v>
+        <v>0.6963386574840581</v>
       </c>
       <c r="AH26" s="92">
-        <v>0.7732329909329273</v>
-      </c>
-      <c r="AJ26" s="138"/>
+        <v>0.77082565062850339</v>
+      </c>
+      <c r="AJ26" s="103"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
@@ -33152,39 +33152,39 @@
         <v>2.4723845500000001</v>
       </c>
       <c r="X27" s="79" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Y27" s="84">
-        <v>9.4650000000000016</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="Z27" s="92">
-        <v>0.79006885630664381</v>
+        <v>0.9761081340930623</v>
       </c>
       <c r="AA27" s="92">
-        <v>0.68797295121558522</v>
+        <v>0.92931895024955702</v>
       </c>
       <c r="AB27" s="92">
-        <v>0.79006885630664381</v>
+        <v>0.87770158496755157</v>
       </c>
       <c r="AC27" s="92">
-        <v>0.75050123356865406</v>
+        <v>0.92784044877602034</v>
       </c>
       <c r="AD27" s="93">
-        <v>0.86953703576009156</v>
+        <v>0.80254621466299692</v>
       </c>
       <c r="AE27" s="92">
-        <v>0.96786750212108585</v>
+        <v>0.86346743902144385</v>
       </c>
       <c r="AF27" s="92">
-        <v>0.92759119154448355</v>
+        <v>0.7255391540287055</v>
       </c>
       <c r="AG27" s="92">
-        <v>0.96786750212108585</v>
+        <v>0.54853769421970333</v>
       </c>
       <c r="AH27" s="92">
-        <v>0.95463989813943118</v>
-      </c>
-      <c r="AJ27" s="138"/>
+        <v>0.71241880082097897</v>
+      </c>
+      <c r="AJ27" s="103"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
@@ -33267,39 +33267,39 @@
         <v>1.9909043499999997</v>
       </c>
       <c r="X28" s="79" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="Y28" s="84">
-        <v>9.07</v>
+        <v>9.2949999999999999</v>
       </c>
       <c r="Z28" s="92">
-        <v>0.81396072221358173</v>
+        <v>0.90061786870643468</v>
       </c>
       <c r="AA28" s="92">
-        <v>0.6939301239735951</v>
+        <v>0.840605377555949</v>
       </c>
       <c r="AB28" s="92">
-        <v>0.71555417308807101</v>
+        <v>0.90061786870643468</v>
       </c>
       <c r="AC28" s="92">
-        <v>0.73730807227869299</v>
+        <v>0.87735981925487716</v>
       </c>
       <c r="AD28" s="93">
-        <v>0.85062364921972422</v>
+        <v>0.57819207726118393</v>
       </c>
       <c r="AE28" s="92">
-        <v>1</v>
+        <v>0.86633960966334067</v>
       </c>
       <c r="AF28" s="92">
-        <v>0.97327558503830303</v>
+        <v>0.69880369592033031</v>
       </c>
       <c r="AG28" s="92">
-        <v>0.68507025519825948</v>
+        <v>0.86633960966334067</v>
       </c>
       <c r="AH28" s="92">
-        <v>0.88547309710595956</v>
-      </c>
-      <c r="AJ28" s="138"/>
+        <v>0.81131722335309642</v>
+      </c>
+      <c r="AJ28" s="103"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
@@ -33384,39 +33384,39 @@
         <v>1.8379143499999997</v>
       </c>
       <c r="X29" s="79" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="Y29" s="84">
-        <v>9.3930000000000007</v>
+        <v>9.59</v>
       </c>
       <c r="Z29" s="92">
-        <v>0.89162441500417111</v>
+        <v>0.9407722651886834</v>
       </c>
       <c r="AA29" s="92">
-        <v>0.77072935115118324</v>
+        <v>0.905007245210111</v>
       </c>
       <c r="AB29" s="92">
-        <v>0.63175194762961806</v>
+        <v>0.9407722651886834</v>
       </c>
       <c r="AC29" s="92">
-        <v>0.76519211809863097</v>
+        <v>0.92691140743472489</v>
       </c>
       <c r="AD29" s="93">
-        <v>0.87978336291833548</v>
+        <v>0.71881507633324593</v>
       </c>
       <c r="AE29" s="92">
-        <v>0.96786750212108585</v>
+        <v>0.81594374467952058</v>
       </c>
       <c r="AF29" s="92">
-        <v>0.90086677658278658</v>
+        <v>0.64517154976207536</v>
       </c>
       <c r="AG29" s="92">
-        <v>0.8007387205837001</v>
+        <v>0.81594374467952058</v>
       </c>
       <c r="AH29" s="92">
-        <v>0.8897429741654389</v>
-      </c>
-      <c r="AJ29" s="138"/>
+        <v>0.75985849424056506</v>
+      </c>
+      <c r="AJ29" s="103"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
@@ -33501,39 +33501,39 @@
         <v>2.01940455</v>
       </c>
       <c r="X30" s="79" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Y30" s="84">
-        <v>8.9980000000000011</v>
+        <v>9.4030000000000005</v>
       </c>
       <c r="Z30" s="92">
         <v>0.91551628091110882</v>
       </c>
       <c r="AA30" s="92">
-        <v>0.77668652390919346</v>
+        <v>0.87570439542746747</v>
       </c>
       <c r="AB30" s="92">
-        <v>0.55723726441104526</v>
+        <v>0.91551628091110882</v>
       </c>
       <c r="AC30" s="92">
-        <v>0.7519989568086699</v>
+        <v>0.90008704637031312</v>
       </c>
       <c r="AD30" s="93">
-        <v>0.90736538495637098</v>
+        <v>0.90232772564556685</v>
       </c>
       <c r="AE30" s="92">
-        <v>1</v>
+        <v>0.76380411256180292</v>
       </c>
       <c r="AF30" s="92">
-        <v>0.97327558503830303</v>
+        <v>0.6033367972003415</v>
       </c>
       <c r="AG30" s="92">
-        <v>0.51794147366087362</v>
+        <v>0.76380411256180292</v>
       </c>
       <c r="AH30" s="92">
-        <v>0.82935304401944343</v>
-      </c>
-      <c r="AJ30" s="138"/>
+        <v>0.71110320552207584</v>
+      </c>
+      <c r="AJ30" s="103"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
@@ -33615,39 +33615,39 @@
         <v>2.1723945499999999</v>
       </c>
       <c r="X31" s="79" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="Y31" s="84">
-        <v>9.07</v>
+        <v>9.1750000000000007</v>
       </c>
       <c r="Z31" s="92">
-        <v>0.7045258529274534</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="92">
-        <v>0.46626952181613257</v>
+        <v>0.93334406697794248</v>
       </c>
       <c r="AB31" s="92">
-        <v>0.7045258529274534</v>
+        <v>0.74012753262544717</v>
       </c>
       <c r="AC31" s="92">
-        <v>0.61218878401227772</v>
+        <v>0.89458826669532732</v>
       </c>
       <c r="AD31" s="93">
-        <v>0.94026522084333997</v>
+        <v>0.90532076906558012</v>
       </c>
       <c r="AE31" s="92">
-        <v>1</v>
+        <v>0.76380411256180292</v>
       </c>
       <c r="AF31" s="92">
-        <v>1</v>
+        <v>0.6033367972003415</v>
       </c>
       <c r="AG31" s="92">
-        <v>1</v>
+        <v>0.59667533102441705</v>
       </c>
       <c r="AH31" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="138"/>
+        <v>0.65498315243555982</v>
+      </c>
+      <c r="AJ31" s="103"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
@@ -33729,39 +33729,39 @@
         <v>2.3253845499999999</v>
       </c>
       <c r="X32" s="79" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="Y32" s="84">
-        <v>8.9980000000000011</v>
+        <v>9.1749999999999989</v>
       </c>
       <c r="Z32" s="92">
-        <v>0.65564381353655599</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="92">
-        <v>0.7423925293833521</v>
+        <v>0.96763806150378362</v>
       </c>
       <c r="AB32" s="92">
-        <v>0.65564381353655599</v>
+        <v>0.90159345087448928</v>
       </c>
       <c r="AC32" s="92">
-        <v>0.68926357976096742</v>
+        <v>0.95732364374302958</v>
       </c>
       <c r="AD32" s="93">
-        <v>0.96410554457747288</v>
+        <v>0.84418127692941181</v>
       </c>
       <c r="AE32" s="92">
-        <v>0.83287121846261414</v>
+        <v>0.76380411256180292</v>
       </c>
       <c r="AF32" s="92">
-        <v>1</v>
+        <v>0.57661238223864453</v>
       </c>
       <c r="AG32" s="92">
-        <v>0.83287121846261414</v>
+        <v>0.44887436776006223</v>
       </c>
       <c r="AH32" s="92">
-        <v>0.88775989382696785</v>
-      </c>
-      <c r="AJ32" s="138"/>
+        <v>0.59657630262803529</v>
+      </c>
+      <c r="AJ32" s="103"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="79" t="s">
@@ -33843,39 +33843,39 @@
         <v>2.0253945499999997</v>
       </c>
       <c r="X33" s="79" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="Y33" s="84">
-        <v>9.07</v>
+        <v>9.57</v>
       </c>
       <c r="Z33" s="92">
-        <v>0.81396072221358173</v>
+        <v>0.9761081340930623</v>
       </c>
       <c r="AA33" s="92">
-        <v>0.62727419095153747</v>
+        <v>0.9616808887457734</v>
       </c>
       <c r="AB33" s="92">
-        <v>0.5540882548390289</v>
+        <v>0.9761081340930623</v>
       </c>
       <c r="AC33" s="92">
-        <v>0.6620307135291168</v>
+        <v>0.97051680503299076</v>
       </c>
       <c r="AD33" s="93">
-        <v>0.95385921741922897</v>
+        <v>0.82099858740644271</v>
       </c>
       <c r="AE33" s="92">
-        <v>1</v>
+        <v>0.73167161468288877</v>
       </c>
       <c r="AF33" s="92">
-        <v>1</v>
+        <v>0.53092798874482483</v>
       </c>
       <c r="AG33" s="92">
-        <v>0.83287121846261414</v>
+        <v>0.73167161468288877</v>
       </c>
       <c r="AH33" s="92">
-        <v>0.94387994691348398</v>
-      </c>
-      <c r="AJ33" s="138"/>
+        <v>0.66574310366150702</v>
+      </c>
+      <c r="AJ33" s="103"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
@@ -33988,7 +33988,7 @@
       <c r="AH34" s="92">
         <v>0.52997668860801672</v>
       </c>
-      <c r="AJ34" s="138"/>
+      <c r="AJ34" s="103"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
@@ -34182,7 +34182,7 @@
     </row>
   </sheetData>
   <sortState ref="X3:AH34">
-    <sortCondition descending="1" ref="X3:X34"/>
+    <sortCondition descending="1" ref="AF3:AF34"/>
   </sortState>
   <conditionalFormatting sqref="M3:M34">
     <cfRule type="cellIs" dxfId="129" priority="7" operator="lessThan">

--- a/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
+++ b/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0897EC82-6F16-414E-8CF1-F72D7462584C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91882A-1617-445F-A221-996243E8B4B6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apo_ManualNOEscrito&lt;T60" sheetId="17" r:id="rId1"/>
@@ -1379,7 +1379,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1666,6 +1666,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1675,18 +1681,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -26347,9 +26348,9 @@
   </sheetPr>
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26385,46 +26386,46 @@
       <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138" t="s">
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138" t="s">
+      <c r="E2" s="137"/>
+      <c r="F2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138" t="s">
+      <c r="G2" s="137"/>
+      <c r="H2" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138" t="s">
+      <c r="I2" s="137"/>
+      <c r="J2" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="138"/>
-      <c r="Q2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138" t="s">
+      <c r="K2" s="137"/>
+      <c r="Q2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138" t="s">
+      <c r="T2" s="137"/>
+      <c r="U2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138" t="s">
+      <c r="V2" s="137"/>
+      <c r="W2" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138" t="s">
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="138"/>
+      <c r="Z2" s="137"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -26433,36 +26434,36 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="136"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="133"/>
       <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="135"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="136"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="133"/>
       <c r="W3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="136"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="133"/>
     </row>
     <row r="4" spans="1:26" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -26506,20 +26507,21 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="137">
+      <c r="B5" s="138">
         <v>0.27600000000000002</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137">
+      <c r="C5" s="138"/>
+      <c r="D5" s="138">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E5" s="137"/>
+      <c r="E5" s="138"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
+      <c r="M5" s="139"/>
       <c r="P5" s="10" t="s">
         <v>29</v>
       </c>
@@ -26656,11 +26658,11 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="137">
+      <c r="F9" s="138">
         <f>0.318*1.14</f>
         <v>0.36251999999999995</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -26848,14 +26850,14 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="132">
+      <c r="U14" s="134">
         <v>0.94399999999999995</v>
       </c>
-      <c r="V14" s="132"/>
+      <c r="V14" s="134"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="133"/>
-      <c r="Z14" s="134"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="136"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -27042,12 +27044,12 @@
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="134"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="136"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -27365,14 +27367,14 @@
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="132">
+      <c r="F35" s="134">
         <v>0.94399999999999995</v>
       </c>
-      <c r="G35" s="132"/>
+      <c r="G35" s="134"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="134"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="136"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -28034,6 +28036,14 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="Y24:Z24"/>
     <mergeCell ref="Q2:R2"/>
@@ -28058,14 +28068,6 @@
     <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
@@ -30078,7 +30080,7 @@
   </sheetPr>
   <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>

--- a/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
+++ b/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91882A-1617-445F-A221-996243E8B4B6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0352C21E-5CD4-43CB-8824-73F3C1C1079A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apo_ManualNOEscrito&lt;T60" sheetId="17" r:id="rId1"/>
@@ -23,7 +23,15 @@
     <sheet name="352CenBan" sheetId="6" r:id="rId13"/>
     <sheet name="352bibanda" sheetId="5" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1582,31 +1590,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1618,58 +1639,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1687,7 +1666,36 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4642,8 +4650,8 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4655,48 +4663,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="118">
+      <c r="A1" s="105">
         <v>0.34</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="118">
+      <c r="B1" s="106"/>
+      <c r="C1" s="105">
         <v>0.245</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="118">
+      <c r="D1" s="106"/>
+      <c r="E1" s="105">
         <v>0.125</v>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="118">
+      <c r="F1" s="106"/>
+      <c r="G1" s="105">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="118">
+      <c r="H1" s="106"/>
+      <c r="I1" s="105">
         <v>0.19</v>
       </c>
-      <c r="J1" s="119"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="116" t="s">
+      <c r="A2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="116" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="116" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="116" t="s">
+      <c r="H2" s="108"/>
+      <c r="I2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="117"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4705,28 +4713,28 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="117"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106">
+      <c r="A4" s="109">
         <v>0.59699999999999998</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="106">
+      <c r="B4" s="110"/>
+      <c r="C4" s="109">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D4" s="111"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4735,11 +4743,11 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="74" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108">
+      <c r="A5" s="111">
         <v>0.27600000000000002</v>
       </c>
       <c r="B5" s="112"/>
-      <c r="C5" s="108">
+      <c r="C5" s="111">
         <v>0.42499999999999999</v>
       </c>
       <c r="D5" s="112"/>
@@ -4758,10 +4766,10 @@
         <f>A6/2</f>
         <v>0.25800000000000001</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="113">
         <v>1</v>
       </c>
-      <c r="D6" s="110"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4774,7 +4782,7 @@
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="108">
+      <c r="E7" s="111">
         <v>0.23599999999999999</v>
       </c>
       <c r="F7" s="112"/>
@@ -4791,10 +4799,10 @@
         <f>A8/2</f>
         <v>0.189</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="113">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D8" s="110"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -4807,7 +4815,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="108">
+      <c r="E9" s="111">
         <v>0.318</v>
       </c>
       <c r="F9" s="112"/>
@@ -4821,10 +4829,10 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="104">
+      <c r="C10" s="113">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4837,10 +4845,10 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="106">
+      <c r="E11" s="109">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F11" s="111"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -4865,10 +4873,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="104">
+      <c r="C13" s="113">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D13" s="110"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4881,10 +4889,10 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="106">
+      <c r="E14" s="109">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F14" s="111"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4909,10 +4917,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="104">
+      <c r="C16" s="113">
         <v>0.45</v>
       </c>
-      <c r="D16" s="110"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4925,10 +4933,10 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="106">
+      <c r="E17" s="109">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F17" s="111"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4953,10 +4961,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="104">
+      <c r="C19" s="113">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D19" s="110"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4969,10 +4977,10 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="106">
+      <c r="E20" s="109">
         <v>0.23</v>
       </c>
-      <c r="F20" s="111"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -4997,10 +5005,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="104">
+      <c r="C22" s="113">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D22" s="110"/>
+      <c r="D22" s="114"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5013,10 +5021,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="106">
+      <c r="E23" s="109">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F23" s="111"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5044,30 +5052,30 @@
         <f>A25/2</f>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="113">
         <v>0.4</v>
       </c>
-      <c r="D25" s="110"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="105"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="106">
+      <c r="E26" s="109">
         <v>1</v>
       </c>
-      <c r="F26" s="111"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="115"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -5095,10 +5103,10 @@
         <f>G28/2</f>
         <v>0.109</v>
       </c>
-      <c r="I28" s="108">
+      <c r="I28" s="111">
         <v>0.32500000000000001</v>
       </c>
-      <c r="J28" s="109"/>
+      <c r="J28" s="117"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -5108,16 +5116,16 @@
         <f>A29/2</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="113">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D29" s="110"/>
+      <c r="D29" s="114"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="105"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="116"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
@@ -5145,10 +5153,10 @@
         <f>G31/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I31" s="108">
+      <c r="I31" s="111">
         <v>0.219</v>
       </c>
-      <c r="J31" s="109"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -5158,16 +5166,16 @@
         <f>A32/2</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C32" s="104">
+      <c r="C32" s="113">
         <v>0.216</v>
       </c>
-      <c r="D32" s="110"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="105"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
@@ -5195,54 +5203,54 @@
         <f>G34/2</f>
         <v>0.108</v>
       </c>
-      <c r="I34" s="108">
+      <c r="I34" s="111">
         <v>0.48299999999999998</v>
       </c>
-      <c r="J34" s="109"/>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="113">
+      <c r="E35" s="118">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F35" s="114"/>
+      <c r="F35" s="119"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="115"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="120"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="104">
+      <c r="A36" s="113">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="104">
+      <c r="B36" s="114"/>
+      <c r="C36" s="113">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D36" s="110"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="105"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="116"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="106">
+      <c r="E37" s="109">
         <v>0.88100000000000001</v>
       </c>
-      <c r="F37" s="111"/>
+      <c r="F37" s="110"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="107"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="115"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -5255,8 +5263,8 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="H38" s="8"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="115"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
@@ -5269,40 +5277,40 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="108">
+      <c r="I39" s="111">
         <v>0.22700000000000001</v>
       </c>
-      <c r="J39" s="109"/>
+      <c r="J39" s="117"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0.34899999999999998</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="104">
+      <c r="C40" s="113">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D40" s="110"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="105"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="116"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="106">
+      <c r="E41" s="109">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F41" s="111"/>
+      <c r="F41" s="110"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="115"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -5315,8 +5323,8 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="107"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="115"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
@@ -5329,40 +5337,40 @@
         <v>0.21</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="108">
+      <c r="I43" s="111">
         <v>0.104</v>
       </c>
-      <c r="J43" s="109"/>
+      <c r="J43" s="117"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="104">
+      <c r="E44" s="113">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F44" s="110"/>
+      <c r="F44" s="114"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="105"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="116"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>0.48499999999999999</v>
       </c>
       <c r="B45" s="21"/>
-      <c r="C45" s="106">
+      <c r="C45" s="109">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D45" s="111"/>
+      <c r="D45" s="110"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="107"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="115"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -5375,8 +5383,8 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="107"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="115"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
@@ -5389,26 +5397,26 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="H47" s="27"/>
-      <c r="I47" s="108">
+      <c r="I47" s="111">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="J47" s="109"/>
+      <c r="J47" s="117"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.18</v>
       </c>
       <c r="B48" s="30"/>
-      <c r="C48" s="104">
+      <c r="C48" s="113">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D48" s="110"/>
+      <c r="D48" s="114"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="105"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="116"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -5421,8 +5429,8 @@
         <v>1</v>
       </c>
       <c r="H49" s="8"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="107"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="115"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -5435,54 +5443,54 @@
         <v>0.246</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="I50" s="106">
+      <c r="I50" s="109">
         <v>0.13500000000000001</v>
       </c>
-      <c r="J50" s="107"/>
+      <c r="J50" s="115"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="108">
+      <c r="E51" s="111">
         <v>0.38100000000000001</v>
       </c>
       <c r="F51" s="112"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="109"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="117"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>0.28399999999999997</v>
       </c>
       <c r="B52" s="30"/>
-      <c r="C52" s="104">
+      <c r="C52" s="113">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D52" s="110"/>
+      <c r="D52" s="114"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="105"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="116"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="106">
+      <c r="E53" s="109">
         <v>0.57399999999999995</v>
       </c>
-      <c r="F53" s="111"/>
+      <c r="F53" s="110"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="107"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="115"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -5495,8 +5503,8 @@
         <v>0.56411</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="107"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="115"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
@@ -5509,10 +5517,10 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="108">
+      <c r="I55" s="111">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J55" s="109"/>
+      <c r="J55" s="117"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -5525,8 +5533,8 @@
         <v>0.182</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="105"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="116"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -5539,8 +5547,8 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="107"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="115"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -5565,10 +5573,10 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="H59" s="8"/>
-      <c r="I59" s="106">
+      <c r="I59" s="109">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J59" s="107"/>
+      <c r="J59" s="115"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
@@ -5581,24 +5589,24 @@
         <v>0.18</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="108">
+      <c r="I60" s="111">
         <v>0.26100000000000001</v>
       </c>
-      <c r="J60" s="109"/>
+      <c r="J60" s="117"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="104">
+      <c r="E61" s="113">
         <v>0.40600000000000003</v>
       </c>
-      <c r="F61" s="110"/>
+      <c r="F61" s="114"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="104"/>
-      <c r="J61" s="105"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="116"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -5611,10 +5619,10 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="106">
+      <c r="I62" s="109">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J62" s="107"/>
+      <c r="J62" s="115"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -5627,10 +5635,10 @@
         <v>0.215</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="106">
+      <c r="I63" s="109">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J63" s="107"/>
+      <c r="J63" s="115"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -5643,8 +5651,8 @@
         <v>0.124</v>
       </c>
       <c r="H64" s="8"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="107"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="115"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
@@ -5657,10 +5665,10 @@
         <v>0.109</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="108">
+      <c r="I65" s="111">
         <v>0.58299999999999996</v>
       </c>
-      <c r="J65" s="109"/>
+      <c r="J65" s="117"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
@@ -5673,10 +5681,10 @@
         <v>0.224</v>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="104">
+      <c r="I66" s="113">
         <v>1</v>
       </c>
-      <c r="J66" s="105"/>
+      <c r="J66" s="116"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
@@ -5701,8 +5709,8 @@
         <v>0.19</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="106"/>
-      <c r="J68" s="107"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="115"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
@@ -5715,18 +5723,89 @@
         <v>0.122</v>
       </c>
       <c r="H69" s="27"/>
-      <c r="I69" s="108">
+      <c r="I69" s="111">
         <v>0.36899999999999999</v>
       </c>
-      <c r="J69" s="109"/>
+      <c r="J69" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A2:B2"/>
@@ -5734,82 +5813,11 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A45:J69 A4:J43">
     <cfRule type="cellIs" dxfId="154" priority="13" operator="between">
@@ -9471,10 +9479,10 @@
   <dimension ref="A1:BY30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="Z12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18322,10 +18330,10 @@
   <dimension ref="A1:BY30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="ED3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="EH11" sqref="EH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26349,8 +26357,8 @@
   <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26364,68 +26372,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="118">
+      <c r="B1" s="105">
         <v>0.34</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="118">
+      <c r="C1" s="106"/>
+      <c r="D1" s="105">
         <v>0.245</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="118">
+      <c r="E1" s="106"/>
+      <c r="F1" s="105">
         <v>0.125</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="118">
+      <c r="G1" s="106"/>
+      <c r="H1" s="105">
         <v>0.25025999999999998</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="118">
+      <c r="I1" s="106"/>
+      <c r="J1" s="105">
         <v>0.19</v>
       </c>
-      <c r="K1" s="119"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137" t="s">
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137" t="s">
+      <c r="G2" s="128"/>
+      <c r="H2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="137"/>
-      <c r="Q2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137" t="s">
+      <c r="K2" s="128"/>
+      <c r="Q2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137" t="s">
+      <c r="T2" s="128"/>
+      <c r="U2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137" t="s">
+      <c r="V2" s="128"/>
+      <c r="W2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137" t="s">
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="137"/>
+      <c r="Z2" s="128"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -26434,49 +26442,49 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="133"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="133"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
       <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="132"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="133"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="131"/>
       <c r="W3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="133"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="131"/>
     </row>
     <row r="4" spans="1:26" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="130">
+      <c r="B4" s="122">
         <v>0.59699999999999998</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130">
+      <c r="C4" s="122"/>
+      <c r="D4" s="122">
         <v>0.86599999999999999</v>
       </c>
-      <c r="E4" s="130"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -26507,21 +26515,21 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="138">
+      <c r="B5" s="129">
         <v>0.27600000000000002</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138">
+      <c r="C5" s="129"/>
+      <c r="D5" s="129">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E5" s="138"/>
+      <c r="E5" s="129"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
-      <c r="M5" s="139"/>
+      <c r="M5" s="104"/>
       <c r="P5" s="10" t="s">
         <v>29</v>
       </c>
@@ -26548,10 +26556,10 @@
       <c r="C6" s="2">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D6" s="130">
+      <c r="D6" s="122">
         <v>1</v>
       </c>
-      <c r="E6" s="130"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -26582,10 +26590,10 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="128">
+      <c r="F7" s="132">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G7" s="128"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -26620,10 +26628,10 @@
       <c r="C8" s="2">
         <v>0.189</v>
       </c>
-      <c r="D8" s="130">
+      <c r="D8" s="122">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E8" s="130"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -26658,11 +26666,11 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="138">
+      <c r="F9" s="129">
         <f>0.318*1.14</f>
         <v>0.36251999999999995</v>
       </c>
-      <c r="G9" s="138"/>
+      <c r="G9" s="129"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -26691,10 +26699,10 @@
         <v>0.75366</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="130">
+      <c r="D10" s="122">
         <v>0.70798000000000005</v>
       </c>
-      <c r="E10" s="130"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -26729,10 +26737,10 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="125">
+      <c r="F11" s="121">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G11" s="125"/>
+      <c r="G11" s="121"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -26797,10 +26805,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="130">
+      <c r="D13" s="122">
         <v>0.47899999999999998</v>
       </c>
-      <c r="E13" s="130"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -26822,10 +26830,10 @@
       <c r="X13" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="Y13" s="120">
+      <c r="Y13" s="123">
         <v>0.50714999999999999</v>
       </c>
-      <c r="Z13" s="121"/>
+      <c r="Z13" s="124"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -26835,10 +26843,10 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="125">
+      <c r="F14" s="121">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G14" s="125"/>
+      <c r="G14" s="121"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -26850,14 +26858,14 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="134">
+      <c r="U14" s="125">
         <v>0.94399999999999995</v>
       </c>
-      <c r="V14" s="134"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="136"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="127"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -26878,20 +26886,20 @@
       <c r="P15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="130">
+      <c r="Q15" s="122">
         <v>0.29099999999999998</v>
       </c>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130">
+      <c r="R15" s="122"/>
+      <c r="S15" s="122">
         <v>0.34799999999999998</v>
       </c>
-      <c r="T15" s="130"/>
+      <c r="T15" s="122"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="105"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="116"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -26901,10 +26909,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="130">
+      <c r="D16" s="122">
         <v>0.41400000000000003</v>
       </c>
-      <c r="E16" s="130"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -26918,14 +26926,14 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="125">
+      <c r="U16" s="121">
         <v>0.88100000000000001</v>
       </c>
-      <c r="V16" s="125"/>
+      <c r="V16" s="121"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="107"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="115"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -26935,10 +26943,10 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="125">
+      <c r="F17" s="121">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G17" s="125"/>
+      <c r="G17" s="121"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -26956,8 +26964,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="X17" s="8"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="107"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="115"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -26988,10 +26996,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="X18" s="5"/>
-      <c r="Y18" s="120">
+      <c r="Y18" s="123">
         <v>0.24062</v>
       </c>
-      <c r="Z18" s="121"/>
+      <c r="Z18" s="124"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -27001,10 +27009,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="130">
+      <c r="D19" s="122">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E19" s="130"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -27020,8 +27028,8 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="121"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="124"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -27031,10 +27039,10 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="125">
+      <c r="F20" s="121">
         <v>0.23</v>
       </c>
-      <c r="G20" s="125"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -27044,12 +27052,12 @@
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="136"/>
+      <c r="Y20" s="126"/>
+      <c r="Z20" s="127"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -27068,16 +27076,16 @@
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="130"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="130"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="105"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="116"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -27087,10 +27095,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="130">
+      <c r="D22" s="122">
         <v>0.68300000000000005</v>
       </c>
-      <c r="E22" s="130"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -27102,12 +27110,12 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="121"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="107"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="115"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -27117,10 +27125,10 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="125">
+      <c r="F23" s="121">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G23" s="125"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -27134,8 +27142,8 @@
       <c r="V23" s="102"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="107"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="115"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -27162,8 +27170,8 @@
       <c r="V24" s="101"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="121"/>
+      <c r="Y24" s="123"/>
+      <c r="Z24" s="124"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -27175,16 +27183,16 @@
       <c r="C25" s="2">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="D25" s="130">
+      <c r="D25" s="122">
         <v>0.4</v>
       </c>
-      <c r="E25" s="130"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="105"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="116"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -27194,14 +27202,14 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="125">
+      <c r="F26" s="121">
         <v>1</v>
       </c>
-      <c r="G26" s="125"/>
+      <c r="G26" s="121"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="107"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="115"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -27215,10 +27223,10 @@
       <c r="G27" s="11"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="120">
+      <c r="J27" s="123">
         <v>0.21</v>
       </c>
-      <c r="K27" s="121"/>
+      <c r="K27" s="124"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -27236,10 +27244,10 @@
       <c r="I28" s="5">
         <v>0.12674418604651164</v>
       </c>
-      <c r="J28" s="120">
+      <c r="J28" s="123">
         <v>0.34125000000000005</v>
       </c>
-      <c r="K28" s="121"/>
+      <c r="K28" s="124"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -27251,16 +27259,16 @@
       <c r="C29" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D29" s="130">
+      <c r="D29" s="122">
         <v>0.59399999999999997</v>
       </c>
-      <c r="E29" s="130"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="105"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="116"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -27274,10 +27282,10 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="120">
+      <c r="J30" s="123">
         <v>0.12</v>
       </c>
-      <c r="K30" s="121"/>
+      <c r="K30" s="124"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -27295,10 +27303,10 @@
       <c r="I31" s="5">
         <v>6.5116279069767455E-2</v>
       </c>
-      <c r="J31" s="120">
+      <c r="J31" s="123">
         <v>0.17519999999999999</v>
       </c>
-      <c r="K31" s="121"/>
+      <c r="K31" s="124"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -27310,16 +27318,16 @@
       <c r="C32" s="2">
         <v>3.8249999999999999E-2</v>
       </c>
-      <c r="D32" s="130">
+      <c r="D32" s="122">
         <v>0.16200000000000003</v>
       </c>
-      <c r="E32" s="130"/>
+      <c r="E32" s="122"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="105"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="116"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
@@ -27333,10 +27341,10 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="120">
+      <c r="J33" s="123">
         <v>0.31</v>
       </c>
-      <c r="K33" s="121"/>
+      <c r="K33" s="124"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
@@ -27354,10 +27362,10 @@
       <c r="I34" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="J34" s="120">
+      <c r="J34" s="123">
         <v>0.50714999999999999</v>
       </c>
-      <c r="K34" s="121"/>
+      <c r="K34" s="124"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
@@ -27367,33 +27375,33 @@
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="134">
+      <c r="F35" s="125">
         <v>0.94399999999999995</v>
       </c>
-      <c r="G35" s="134"/>
+      <c r="G35" s="125"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="136"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="127"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="130">
+      <c r="B36" s="122">
         <v>0.29099999999999998</v>
       </c>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130">
+      <c r="C36" s="122"/>
+      <c r="D36" s="122">
         <v>0.34799999999999998</v>
       </c>
-      <c r="E36" s="130"/>
+      <c r="E36" s="122"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="105"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="116"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
@@ -27403,14 +27411,14 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="125">
+      <c r="F37" s="121">
         <v>0.88100000000000001</v>
       </c>
-      <c r="G37" s="125"/>
+      <c r="G37" s="121"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="107"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="115"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -27426,8 +27434,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="107"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="115"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -27449,10 +27457,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="120">
+      <c r="J39" s="123">
         <v>0.24062</v>
       </c>
-      <c r="K39" s="121"/>
+      <c r="K39" s="124"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -27468,16 +27476,16 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="130">
+      <c r="D40" s="122">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E40" s="130"/>
+      <c r="E40" s="122"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="105"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="116"/>
       <c r="P40" s="43"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -27493,14 +27501,14 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="125">
+      <c r="F41" s="121">
         <v>0.45500000000000002</v>
       </c>
-      <c r="G41" s="125"/>
+      <c r="G41" s="121"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="107"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="115"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -27516,8 +27524,8 @@
         <v>0.86393023255813961</v>
       </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="107"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="115"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
@@ -27533,10 +27541,10 @@
         <v>0.2441860465116279</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="120">
+      <c r="J43" s="123">
         <v>0.12064</v>
       </c>
-      <c r="K43" s="121"/>
+      <c r="K43" s="124"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -27546,14 +27554,14 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="130">
+      <c r="F44" s="122">
         <v>0.38100000000000001</v>
       </c>
-      <c r="G44" s="130"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="131"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="133"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
@@ -27563,16 +27571,16 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="125">
+      <c r="D45" s="121">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E45" s="125"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="127"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="136"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
@@ -27588,8 +27596,8 @@
         <v>0.67255813953488375</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="127"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="136"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
@@ -27605,10 +27613,10 @@
         <v>0.2011627906976744</v>
       </c>
       <c r="I47" s="27"/>
-      <c r="J47" s="128">
+      <c r="J47" s="132">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="K47" s="129"/>
+      <c r="K47" s="137"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -27618,16 +27626,16 @@
         <v>0.18</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="122">
+      <c r="D48" s="134">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E48" s="122"/>
+      <c r="E48" s="134"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="126"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="135"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
@@ -27643,8 +27651,8 @@
         <v>1</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="127"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="136"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
@@ -27660,10 +27668,10 @@
         <v>0.28604651162790701</v>
       </c>
       <c r="I50" s="8"/>
-      <c r="J50" s="125">
+      <c r="J50" s="121">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K50" s="127"/>
+      <c r="K50" s="136"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
@@ -27673,14 +27681,14 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="128">
+      <c r="F51" s="132">
         <v>0.30480000000000002</v>
       </c>
-      <c r="G51" s="128"/>
+      <c r="G51" s="132"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="129"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="137"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -27690,16 +27698,16 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="C52" s="30"/>
-      <c r="D52" s="122">
+      <c r="D52" s="134">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E52" s="122"/>
+      <c r="E52" s="134"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="124"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="139"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -27709,14 +27717,14 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="125">
+      <c r="F53" s="121">
         <v>0.63139999999999996</v>
       </c>
-      <c r="G53" s="125"/>
+      <c r="G53" s="121"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="107"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="115"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -27732,8 +27740,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="I54" s="8"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="107"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="115"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
@@ -27749,10 +27757,10 @@
         <v>0.1933139534883721</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="120">
+      <c r="J55" s="123">
         <v>0.14800000000000002</v>
       </c>
-      <c r="K55" s="121"/>
+      <c r="K55" s="124"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -27768,8 +27776,8 @@
         <v>0.21162790697674419</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="105"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="116"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
@@ -27785,8 +27793,8 @@
         <v>0.60697674418604652</v>
       </c>
       <c r="I57" s="8"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="107"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="115"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -27796,10 +27804,10 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="104">
+      <c r="F58" s="113">
         <v>0.25</v>
       </c>
-      <c r="G58" s="110"/>
+      <c r="G58" s="114"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="23"/>
@@ -27819,10 +27827,10 @@
         <v>0.52441860465116286</v>
       </c>
       <c r="I59" s="8"/>
-      <c r="J59" s="106">
+      <c r="J59" s="109">
         <v>0.60697000000000001</v>
       </c>
-      <c r="K59" s="107"/>
+      <c r="K59" s="115"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -27838,10 +27846,10 @@
         <v>0.20930232558139536</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="120">
+      <c r="J60" s="123">
         <v>0.26100000000000001</v>
       </c>
-      <c r="K60" s="121"/>
+      <c r="K60" s="124"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -27851,14 +27859,14 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="104">
+      <c r="F61" s="113">
         <v>0.40600000000000003</v>
       </c>
-      <c r="G61" s="110"/>
+      <c r="G61" s="114"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="104"/>
-      <c r="K61" s="105"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="116"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -27874,10 +27882,10 @@
         <v>0.32441860465116279</v>
       </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="106">
+      <c r="J62" s="109">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K62" s="107"/>
+      <c r="K62" s="115"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -27893,10 +27901,10 @@
         <v>0.25</v>
       </c>
       <c r="I63" s="8"/>
-      <c r="J63" s="106">
+      <c r="J63" s="109">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K63" s="107"/>
+      <c r="K63" s="115"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -27912,8 +27920,8 @@
         <v>0.14418604651162792</v>
       </c>
       <c r="I64" s="8"/>
-      <c r="J64" s="106"/>
-      <c r="K64" s="107"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="115"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
@@ -27929,10 +27937,10 @@
         <v>0.12674418604651164</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="120">
+      <c r="J65" s="123">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K65" s="121"/>
+      <c r="K65" s="124"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
@@ -27948,10 +27956,10 @@
         <v>0.26046511627906982</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="104">
+      <c r="J66" s="113">
         <v>1</v>
       </c>
-      <c r="K66" s="105"/>
+      <c r="K66" s="116"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -27961,10 +27969,10 @@
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
-      <c r="F67" s="104">
+      <c r="F67" s="113">
         <v>0.25</v>
       </c>
-      <c r="G67" s="110"/>
+      <c r="G67" s="114"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="31"/>
@@ -27984,8 +27992,8 @@
         <v>0.22093023255813954</v>
       </c>
       <c r="I68" s="8"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="107"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="115"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
@@ -28001,25 +28009,98 @@
         <v>0.14186046511627906</v>
       </c>
       <c r="I69" s="27"/>
-      <c r="J69" s="108">
+      <c r="J69" s="111">
         <v>0.36899999999999999</v>
       </c>
-      <c r="K69" s="109"/>
+      <c r="K69" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -28044,91 +28125,18 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y16:Z16"/>
   </mergeCells>
   <conditionalFormatting sqref="B44:K44">
     <cfRule type="cellIs" dxfId="146" priority="13" operator="between">
@@ -30045,7 +30053,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C3:Q33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:Q33">
     <sortCondition descending="1" ref="Q3:Q33"/>
   </sortState>
   <conditionalFormatting sqref="D2:P33">
@@ -34183,7 +34191,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="X3:AH34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X3:AH34">
     <sortCondition descending="1" ref="AF3:AF34"/>
   </sortState>
   <conditionalFormatting sqref="M3:M34">

--- a/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
+++ b/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0352C21E-5CD4-43CB-8824-73F3C1C1079A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E5C82D-438F-49D4-8A0C-1DFE1F0A9626}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apo_ManualNOEscrito&lt;T60" sheetId="17" r:id="rId1"/>
@@ -1591,43 +1591,31 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1639,16 +1627,58 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1664,36 +1694,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4663,48 +4663,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="105">
+      <c r="A1" s="119">
         <v>0.34</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="105">
+      <c r="B1" s="120"/>
+      <c r="C1" s="119">
         <v>0.245</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105">
+      <c r="D1" s="120"/>
+      <c r="E1" s="119">
         <v>0.125</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="105">
+      <c r="F1" s="120"/>
+      <c r="G1" s="119">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="105">
+      <c r="H1" s="120"/>
+      <c r="I1" s="119">
         <v>0.19</v>
       </c>
-      <c r="J1" s="106"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="107" t="s">
+      <c r="A2" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="107" t="s">
+      <c r="D2" s="118"/>
+      <c r="E2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="107" t="s">
+      <c r="F2" s="118"/>
+      <c r="G2" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="107" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="108"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4713,28 +4713,28 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="118"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109">
+      <c r="A4" s="107">
         <v>0.59699999999999998</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="109">
+      <c r="B4" s="112"/>
+      <c r="C4" s="107">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4743,14 +4743,14 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="74" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111">
+      <c r="A5" s="109">
         <v>0.27600000000000002</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="111">
+      <c r="B5" s="113"/>
+      <c r="C5" s="109">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -4766,10 +4766,10 @@
         <f>A6/2</f>
         <v>0.25800000000000001</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="105">
         <v>1</v>
       </c>
-      <c r="D6" s="114"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4782,10 +4782,10 @@
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="111">
+      <c r="E7" s="109">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F7" s="112"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -4799,10 +4799,10 @@
         <f>A8/2</f>
         <v>0.189</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="105">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D8" s="114"/>
+      <c r="D8" s="111"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -4815,10 +4815,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="111">
+      <c r="E9" s="109">
         <v>0.318</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4829,10 +4829,10 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="113">
+      <c r="C10" s="105">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4845,10 +4845,10 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="109">
+      <c r="E11" s="107">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F11" s="110"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -4873,10 +4873,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="113">
+      <c r="C13" s="105">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D13" s="114"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4889,10 +4889,10 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="109">
+      <c r="E14" s="107">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F14" s="110"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4917,10 +4917,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="113">
+      <c r="C16" s="105">
         <v>0.45</v>
       </c>
-      <c r="D16" s="114"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4933,10 +4933,10 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="109">
+      <c r="E17" s="107">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F17" s="110"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4961,10 +4961,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="113">
+      <c r="C19" s="105">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4977,10 +4977,10 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="109">
+      <c r="E20" s="107">
         <v>0.23</v>
       </c>
-      <c r="F20" s="110"/>
+      <c r="F20" s="112"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -5005,10 +5005,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="113">
+      <c r="C22" s="105">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D22" s="114"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5021,10 +5021,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="109">
+      <c r="E23" s="107">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F23" s="110"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5052,30 +5052,30 @@
         <f>A25/2</f>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="C25" s="113">
+      <c r="C25" s="105">
         <v>0.4</v>
       </c>
-      <c r="D25" s="114"/>
+      <c r="D25" s="111"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="116"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="109">
+      <c r="E26" s="107">
         <v>1</v>
       </c>
-      <c r="F26" s="110"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="115"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -5103,10 +5103,10 @@
         <f>G28/2</f>
         <v>0.109</v>
       </c>
-      <c r="I28" s="111">
+      <c r="I28" s="109">
         <v>0.32500000000000001</v>
       </c>
-      <c r="J28" s="117"/>
+      <c r="J28" s="110"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -5116,16 +5116,16 @@
         <f>A29/2</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="C29" s="113">
+      <c r="C29" s="105">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D29" s="114"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="116"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
@@ -5153,10 +5153,10 @@
         <f>G31/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I31" s="111">
+      <c r="I31" s="109">
         <v>0.219</v>
       </c>
-      <c r="J31" s="117"/>
+      <c r="J31" s="110"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -5166,16 +5166,16 @@
         <f>A32/2</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="105">
         <v>0.216</v>
       </c>
-      <c r="D32" s="114"/>
+      <c r="D32" s="111"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="116"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="106"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
@@ -5203,54 +5203,54 @@
         <f>G34/2</f>
         <v>0.108</v>
       </c>
-      <c r="I34" s="111">
+      <c r="I34" s="109">
         <v>0.48299999999999998</v>
       </c>
-      <c r="J34" s="117"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="118">
+      <c r="E35" s="114">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F35" s="119"/>
+      <c r="F35" s="115"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="120"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="116"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="113">
+      <c r="A36" s="105">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="C36" s="113">
+      <c r="B36" s="111"/>
+      <c r="C36" s="105">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D36" s="114"/>
+      <c r="D36" s="111"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="116"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="106"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="109">
+      <c r="E37" s="107">
         <v>0.88100000000000001</v>
       </c>
-      <c r="F37" s="110"/>
+      <c r="F37" s="112"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="115"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="108"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -5263,8 +5263,8 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="H38" s="8"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="115"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="108"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
@@ -5277,40 +5277,40 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="111">
+      <c r="I39" s="109">
         <v>0.22700000000000001</v>
       </c>
-      <c r="J39" s="117"/>
+      <c r="J39" s="110"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0.34899999999999998</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="113">
+      <c r="C40" s="105">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D40" s="114"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="116"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="106"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="109">
+      <c r="E41" s="107">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F41" s="110"/>
+      <c r="F41" s="112"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="115"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -5323,8 +5323,8 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="115"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="108"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
@@ -5337,40 +5337,40 @@
         <v>0.21</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="111">
+      <c r="I43" s="109">
         <v>0.104</v>
       </c>
-      <c r="J43" s="117"/>
+      <c r="J43" s="110"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="113">
+      <c r="E44" s="105">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F44" s="114"/>
+      <c r="F44" s="111"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="116"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="106"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>0.48499999999999999</v>
       </c>
       <c r="B45" s="21"/>
-      <c r="C45" s="109">
+      <c r="C45" s="107">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D45" s="110"/>
+      <c r="D45" s="112"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="115"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="108"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -5383,8 +5383,8 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="115"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="108"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
@@ -5397,26 +5397,26 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="H47" s="27"/>
-      <c r="I47" s="111">
+      <c r="I47" s="109">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="J47" s="117"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.18</v>
       </c>
       <c r="B48" s="30"/>
-      <c r="C48" s="113">
+      <c r="C48" s="105">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D48" s="114"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="116"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="106"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -5429,8 +5429,8 @@
         <v>1</v>
       </c>
       <c r="H49" s="8"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="115"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="108"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -5443,54 +5443,54 @@
         <v>0.246</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="I50" s="109">
+      <c r="I50" s="107">
         <v>0.13500000000000001</v>
       </c>
-      <c r="J50" s="115"/>
+      <c r="J50" s="108"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="111">
+      <c r="E51" s="109">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F51" s="112"/>
+      <c r="F51" s="113"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="117"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>0.28399999999999997</v>
       </c>
       <c r="B52" s="30"/>
-      <c r="C52" s="113">
+      <c r="C52" s="105">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D52" s="114"/>
+      <c r="D52" s="111"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="116"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="106"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="109">
+      <c r="E53" s="107">
         <v>0.57399999999999995</v>
       </c>
-      <c r="F53" s="110"/>
+      <c r="F53" s="112"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="115"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -5503,8 +5503,8 @@
         <v>0.56411</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="115"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="108"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
@@ -5517,10 +5517,10 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="111">
+      <c r="I55" s="109">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J55" s="117"/>
+      <c r="J55" s="110"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -5533,8 +5533,8 @@
         <v>0.182</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="113"/>
-      <c r="J56" s="116"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="106"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -5547,8 +5547,8 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="115"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="108"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -5573,10 +5573,10 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="H59" s="8"/>
-      <c r="I59" s="109">
+      <c r="I59" s="107">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J59" s="115"/>
+      <c r="J59" s="108"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
@@ -5589,24 +5589,24 @@
         <v>0.18</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="111">
+      <c r="I60" s="109">
         <v>0.26100000000000001</v>
       </c>
-      <c r="J60" s="117"/>
+      <c r="J60" s="110"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="113">
+      <c r="E61" s="105">
         <v>0.40600000000000003</v>
       </c>
-      <c r="F61" s="114"/>
+      <c r="F61" s="111"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="116"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="106"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -5619,10 +5619,10 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="109">
+      <c r="I62" s="107">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J62" s="115"/>
+      <c r="J62" s="108"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -5635,10 +5635,10 @@
         <v>0.215</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="109">
+      <c r="I63" s="107">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J63" s="115"/>
+      <c r="J63" s="108"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -5651,8 +5651,8 @@
         <v>0.124</v>
       </c>
       <c r="H64" s="8"/>
-      <c r="I64" s="109"/>
-      <c r="J64" s="115"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="108"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
@@ -5665,10 +5665,10 @@
         <v>0.109</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="111">
+      <c r="I65" s="109">
         <v>0.58299999999999996</v>
       </c>
-      <c r="J65" s="117"/>
+      <c r="J65" s="110"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
@@ -5681,10 +5681,10 @@
         <v>0.224</v>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="113">
+      <c r="I66" s="105">
         <v>1</v>
       </c>
-      <c r="J66" s="116"/>
+      <c r="J66" s="106"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
@@ -5709,8 +5709,8 @@
         <v>0.19</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="115"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="108"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
@@ -5723,25 +5723,82 @@
         <v>0.122</v>
       </c>
       <c r="H69" s="27"/>
-      <c r="I69" s="111">
+      <c r="I69" s="109">
         <v>0.36899999999999999</v>
       </c>
-      <c r="J69" s="117"/>
+      <c r="J69" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I47:J47"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="I56:J56"/>
@@ -5749,75 +5806,18 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
   </mergeCells>
   <conditionalFormatting sqref="A45:J69 A4:J43">
     <cfRule type="cellIs" dxfId="154" priority="13" operator="between">
@@ -26356,7 +26356,7 @@
   </sheetPr>
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F26" sqref="F26:G26"/>
     </sheetView>
@@ -26372,68 +26372,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="105">
+      <c r="B1" s="119">
         <v>0.34</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="105">
+      <c r="C1" s="120"/>
+      <c r="D1" s="119">
         <v>0.245</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="105">
+      <c r="E1" s="120"/>
+      <c r="F1" s="119">
         <v>0.125</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="105">
+      <c r="G1" s="120"/>
+      <c r="H1" s="119">
         <v>0.25025999999999998</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="105">
+      <c r="I1" s="120"/>
+      <c r="J1" s="119">
         <v>0.19</v>
       </c>
-      <c r="K1" s="106"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128" t="s">
+      <c r="B2" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128" t="s">
+      <c r="G2" s="138"/>
+      <c r="H2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128" t="s">
+      <c r="I2" s="138"/>
+      <c r="J2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="128"/>
-      <c r="Q2" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128" t="s">
+      <c r="K2" s="138"/>
+      <c r="Q2" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128" t="s">
+      <c r="T2" s="138"/>
+      <c r="U2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128" t="s">
+      <c r="V2" s="138"/>
+      <c r="W2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128" t="s">
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="128"/>
+      <c r="Z2" s="138"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -26442,49 +26442,49 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="131"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="134"/>
       <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="130"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="131"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="134"/>
       <c r="W3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="131"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="134"/>
     </row>
     <row r="4" spans="1:26" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="122">
+      <c r="B4" s="131">
         <v>0.59699999999999998</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122">
+      <c r="C4" s="131"/>
+      <c r="D4" s="131">
         <v>0.86599999999999999</v>
       </c>
-      <c r="E4" s="122"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -26515,14 +26515,14 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="129">
+      <c r="B5" s="139">
         <v>0.27600000000000002</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129">
+      <c r="C5" s="139"/>
+      <c r="D5" s="139">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -26556,10 +26556,10 @@
       <c r="C6" s="2">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D6" s="122">
+      <c r="D6" s="131">
         <v>1</v>
       </c>
-      <c r="E6" s="122"/>
+      <c r="E6" s="131"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -26590,10 +26590,10 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="132">
+      <c r="F7" s="129">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G7" s="132"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -26628,10 +26628,10 @@
       <c r="C8" s="2">
         <v>0.189</v>
       </c>
-      <c r="D8" s="122">
+      <c r="D8" s="131">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E8" s="122"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -26666,11 +26666,11 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="129">
+      <c r="F9" s="139">
         <f>0.318*1.14</f>
         <v>0.36251999999999995</v>
       </c>
-      <c r="G9" s="129"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -26699,10 +26699,10 @@
         <v>0.75366</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="122">
+      <c r="D10" s="131">
         <v>0.70798000000000005</v>
       </c>
-      <c r="E10" s="122"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -26737,10 +26737,10 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="121">
+      <c r="F11" s="126">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G11" s="121"/>
+      <c r="G11" s="126"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -26805,10 +26805,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="122">
+      <c r="D13" s="131">
         <v>0.47899999999999998</v>
       </c>
-      <c r="E13" s="122"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -26830,10 +26830,10 @@
       <c r="X13" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="Y13" s="123">
+      <c r="Y13" s="121">
         <v>0.50714999999999999</v>
       </c>
-      <c r="Z13" s="124"/>
+      <c r="Z13" s="122"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -26843,10 +26843,10 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="121">
+      <c r="F14" s="126">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G14" s="121"/>
+      <c r="G14" s="126"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -26858,14 +26858,14 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="125">
+      <c r="U14" s="135">
         <v>0.94399999999999995</v>
       </c>
-      <c r="V14" s="125"/>
+      <c r="V14" s="135"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="127"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="137"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -26886,20 +26886,20 @@
       <c r="P15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="122">
+      <c r="Q15" s="131">
         <v>0.29099999999999998</v>
       </c>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122">
+      <c r="R15" s="131"/>
+      <c r="S15" s="131">
         <v>0.34799999999999998</v>
       </c>
-      <c r="T15" s="122"/>
+      <c r="T15" s="131"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="116"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="106"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -26909,10 +26909,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="122">
+      <c r="D16" s="131">
         <v>0.41400000000000003</v>
       </c>
-      <c r="E16" s="122"/>
+      <c r="E16" s="131"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -26926,14 +26926,14 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="121">
+      <c r="U16" s="126">
         <v>0.88100000000000001</v>
       </c>
-      <c r="V16" s="121"/>
+      <c r="V16" s="126"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="115"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="108"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -26943,10 +26943,10 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="121">
+      <c r="F17" s="126">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G17" s="121"/>
+      <c r="G17" s="126"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -26964,8 +26964,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="X17" s="8"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="115"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="108"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -26996,10 +26996,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="X18" s="5"/>
-      <c r="Y18" s="123">
+      <c r="Y18" s="121">
         <v>0.24062</v>
       </c>
-      <c r="Z18" s="124"/>
+      <c r="Z18" s="122"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -27009,10 +27009,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="122">
+      <c r="D19" s="131">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="131"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -27028,8 +27028,8 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="123"/>
-      <c r="Z19" s="124"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="122"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -27039,10 +27039,10 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="121">
+      <c r="F20" s="126">
         <v>0.23</v>
       </c>
-      <c r="G20" s="121"/>
+      <c r="G20" s="126"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -27052,12 +27052,12 @@
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
-      <c r="Y20" s="126"/>
-      <c r="Z20" s="127"/>
+      <c r="Y20" s="136"/>
+      <c r="Z20" s="137"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -27076,16 +27076,16 @@
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="116"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="106"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -27095,10 +27095,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="122">
+      <c r="D22" s="131">
         <v>0.68300000000000005</v>
       </c>
-      <c r="E22" s="122"/>
+      <c r="E22" s="131"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -27110,12 +27110,12 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="121"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="115"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="108"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -27125,10 +27125,10 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="121">
+      <c r="F23" s="126">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G23" s="121"/>
+      <c r="G23" s="126"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -27142,8 +27142,8 @@
       <c r="V23" s="102"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="115"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="108"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -27170,8 +27170,8 @@
       <c r="V24" s="101"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="123"/>
-      <c r="Z24" s="124"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="122"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -27183,16 +27183,16 @@
       <c r="C25" s="2">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="D25" s="122">
+      <c r="D25" s="131">
         <v>0.4</v>
       </c>
-      <c r="E25" s="122"/>
+      <c r="E25" s="131"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="116"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -27202,14 +27202,14 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="121">
+      <c r="F26" s="126">
         <v>1</v>
       </c>
-      <c r="G26" s="121"/>
+      <c r="G26" s="126"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="115"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="108"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -27223,10 +27223,10 @@
       <c r="G27" s="11"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="123">
+      <c r="J27" s="121">
         <v>0.21</v>
       </c>
-      <c r="K27" s="124"/>
+      <c r="K27" s="122"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -27244,10 +27244,10 @@
       <c r="I28" s="5">
         <v>0.12674418604651164</v>
       </c>
-      <c r="J28" s="123">
+      <c r="J28" s="121">
         <v>0.34125000000000005</v>
       </c>
-      <c r="K28" s="124"/>
+      <c r="K28" s="122"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -27259,16 +27259,16 @@
       <c r="C29" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D29" s="122">
+      <c r="D29" s="131">
         <v>0.59399999999999997</v>
       </c>
-      <c r="E29" s="122"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="116"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -27282,10 +27282,10 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="123">
+      <c r="J30" s="121">
         <v>0.12</v>
       </c>
-      <c r="K30" s="124"/>
+      <c r="K30" s="122"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -27303,10 +27303,10 @@
       <c r="I31" s="5">
         <v>6.5116279069767455E-2</v>
       </c>
-      <c r="J31" s="123">
+      <c r="J31" s="121">
         <v>0.17519999999999999</v>
       </c>
-      <c r="K31" s="124"/>
+      <c r="K31" s="122"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -27318,16 +27318,16 @@
       <c r="C32" s="2">
         <v>3.8249999999999999E-2</v>
       </c>
-      <c r="D32" s="122">
+      <c r="D32" s="131">
         <v>0.16200000000000003</v>
       </c>
-      <c r="E32" s="122"/>
+      <c r="E32" s="131"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="116"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="106"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
@@ -27341,10 +27341,10 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="123">
+      <c r="J33" s="121">
         <v>0.31</v>
       </c>
-      <c r="K33" s="124"/>
+      <c r="K33" s="122"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
@@ -27362,10 +27362,10 @@
       <c r="I34" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="J34" s="123">
+      <c r="J34" s="121">
         <v>0.50714999999999999</v>
       </c>
-      <c r="K34" s="124"/>
+      <c r="K34" s="122"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
@@ -27375,33 +27375,33 @@
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="125">
+      <c r="F35" s="135">
         <v>0.94399999999999995</v>
       </c>
-      <c r="G35" s="125"/>
+      <c r="G35" s="135"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="127"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="137"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="122">
+      <c r="B36" s="131">
         <v>0.29099999999999998</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122">
+      <c r="C36" s="131"/>
+      <c r="D36" s="131">
         <v>0.34799999999999998</v>
       </c>
-      <c r="E36" s="122"/>
+      <c r="E36" s="131"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="116"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="106"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
@@ -27411,14 +27411,14 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="121">
+      <c r="F37" s="126">
         <v>0.88100000000000001</v>
       </c>
-      <c r="G37" s="121"/>
+      <c r="G37" s="126"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="115"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="108"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -27434,8 +27434,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="115"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="108"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -27457,10 +27457,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="123">
+      <c r="J39" s="121">
         <v>0.24062</v>
       </c>
-      <c r="K39" s="124"/>
+      <c r="K39" s="122"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -27476,16 +27476,16 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="122">
+      <c r="D40" s="131">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E40" s="122"/>
+      <c r="E40" s="131"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="116"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="106"/>
       <c r="P40" s="43"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -27501,14 +27501,14 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="121">
+      <c r="F41" s="126">
         <v>0.45500000000000002</v>
       </c>
-      <c r="G41" s="121"/>
+      <c r="G41" s="126"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="115"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="108"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -27524,8 +27524,8 @@
         <v>0.86393023255813961</v>
       </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="115"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="108"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
@@ -27541,10 +27541,10 @@
         <v>0.2441860465116279</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="123">
+      <c r="J43" s="121">
         <v>0.12064</v>
       </c>
-      <c r="K43" s="124"/>
+      <c r="K43" s="122"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -27554,14 +27554,14 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="122">
+      <c r="F44" s="131">
         <v>0.38100000000000001</v>
       </c>
-      <c r="G44" s="122"/>
+      <c r="G44" s="131"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="133"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="132"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
@@ -27571,16 +27571,16 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="121">
+      <c r="D45" s="126">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E45" s="121"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="136"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="128"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
@@ -27596,8 +27596,8 @@
         <v>0.67255813953488375</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="136"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="128"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
@@ -27613,10 +27613,10 @@
         <v>0.2011627906976744</v>
       </c>
       <c r="I47" s="27"/>
-      <c r="J47" s="132">
+      <c r="J47" s="129">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="K47" s="137"/>
+      <c r="K47" s="130"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -27626,16 +27626,16 @@
         <v>0.18</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="134">
+      <c r="D48" s="123">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E48" s="134"/>
+      <c r="E48" s="123"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="135"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="127"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
@@ -27651,8 +27651,8 @@
         <v>1</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="136"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="128"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
@@ -27668,10 +27668,10 @@
         <v>0.28604651162790701</v>
       </c>
       <c r="I50" s="8"/>
-      <c r="J50" s="121">
+      <c r="J50" s="126">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K50" s="136"/>
+      <c r="K50" s="128"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
@@ -27681,14 +27681,14 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="132">
+      <c r="F51" s="129">
         <v>0.30480000000000002</v>
       </c>
-      <c r="G51" s="132"/>
+      <c r="G51" s="129"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="137"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="130"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -27698,16 +27698,16 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="C52" s="30"/>
-      <c r="D52" s="134">
+      <c r="D52" s="123">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E52" s="134"/>
+      <c r="E52" s="123"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="139"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="125"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -27717,14 +27717,14 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="121">
+      <c r="F53" s="126">
         <v>0.63139999999999996</v>
       </c>
-      <c r="G53" s="121"/>
+      <c r="G53" s="126"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="115"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="108"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -27740,8 +27740,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="I54" s="8"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="115"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="108"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
@@ -27757,10 +27757,10 @@
         <v>0.1933139534883721</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="123">
+      <c r="J55" s="121">
         <v>0.14800000000000002</v>
       </c>
-      <c r="K55" s="124"/>
+      <c r="K55" s="122"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -27776,8 +27776,8 @@
         <v>0.21162790697674419</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="113"/>
-      <c r="K56" s="116"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="106"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
@@ -27793,8 +27793,8 @@
         <v>0.60697674418604652</v>
       </c>
       <c r="I57" s="8"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="115"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="108"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -27804,10 +27804,10 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="113">
+      <c r="F58" s="105">
         <v>0.25</v>
       </c>
-      <c r="G58" s="114"/>
+      <c r="G58" s="111"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="23"/>
@@ -27827,10 +27827,10 @@
         <v>0.52441860465116286</v>
       </c>
       <c r="I59" s="8"/>
-      <c r="J59" s="109">
+      <c r="J59" s="107">
         <v>0.60697000000000001</v>
       </c>
-      <c r="K59" s="115"/>
+      <c r="K59" s="108"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -27846,10 +27846,10 @@
         <v>0.20930232558139536</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="123">
+      <c r="J60" s="121">
         <v>0.26100000000000001</v>
       </c>
-      <c r="K60" s="124"/>
+      <c r="K60" s="122"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -27859,14 +27859,14 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="113">
+      <c r="F61" s="105">
         <v>0.40600000000000003</v>
       </c>
-      <c r="G61" s="114"/>
+      <c r="G61" s="111"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="116"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="106"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -27882,10 +27882,10 @@
         <v>0.32441860465116279</v>
       </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="109">
+      <c r="J62" s="107">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K62" s="115"/>
+      <c r="K62" s="108"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -27901,10 +27901,10 @@
         <v>0.25</v>
       </c>
       <c r="I63" s="8"/>
-      <c r="J63" s="109">
+      <c r="J63" s="107">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K63" s="115"/>
+      <c r="K63" s="108"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -27920,8 +27920,8 @@
         <v>0.14418604651162792</v>
       </c>
       <c r="I64" s="8"/>
-      <c r="J64" s="109"/>
-      <c r="K64" s="115"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="108"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
@@ -27937,10 +27937,10 @@
         <v>0.12674418604651164</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="123">
+      <c r="J65" s="121">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K65" s="124"/>
+      <c r="K65" s="122"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
@@ -27956,10 +27956,10 @@
         <v>0.26046511627906982</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="113">
+      <c r="J66" s="105">
         <v>1</v>
       </c>
-      <c r="K66" s="116"/>
+      <c r="K66" s="106"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -27969,10 +27969,10 @@
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
-      <c r="F67" s="113">
+      <c r="F67" s="105">
         <v>0.25</v>
       </c>
-      <c r="G67" s="114"/>
+      <c r="G67" s="111"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="31"/>
@@ -27992,8 +27992,8 @@
         <v>0.22093023255813954</v>
       </c>
       <c r="I68" s="8"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="115"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="108"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
@@ -28009,74 +28009,49 @@
         <v>0.14186046511627906</v>
       </c>
       <c r="I69" s="27"/>
-      <c r="J69" s="111">
+      <c r="J69" s="109">
         <v>0.36899999999999999</v>
       </c>
-      <c r="K69" s="117"/>
+      <c r="K69" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="Y24:Z24"/>
     <mergeCell ref="Q2:R2"/>
@@ -28101,42 +28076,67 @@
     <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
   </mergeCells>
   <conditionalFormatting sqref="B44:K44">
     <cfRule type="cellIs" dxfId="146" priority="13" operator="between">
@@ -28276,8 +28276,8 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30089,7 +30089,7 @@
   <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30340,25 +30340,25 @@
       </c>
       <c r="W3" s="45"/>
       <c r="X3" s="79" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y3" s="84">
-        <v>9.1650000000000009</v>
+        <v>8.9980000000000011</v>
       </c>
       <c r="Z3" s="92">
-        <v>0.71623566671850913</v>
+        <v>0.65564381353655599</v>
       </c>
       <c r="AA3" s="92">
-        <v>0.82836902270165824</v>
+        <v>0.7423925293833521</v>
       </c>
       <c r="AB3" s="92">
-        <v>0.71623566671850913</v>
+        <v>0.65564381353655599</v>
       </c>
       <c r="AC3" s="92">
-        <v>0.75969333842364517</v>
+        <v>0.68926357976096742</v>
       </c>
       <c r="AD3" s="93">
-        <v>0.93081049771758773</v>
+        <v>0.96410554457747288</v>
       </c>
       <c r="AE3" s="92">
         <v>0.83287121846261414</v>
@@ -30374,7 +30374,7 @@
       </c>
       <c r="AJ3" s="103">
         <f>AH3+AC3</f>
-        <v>1.647453232250613</v>
+        <v>1.5770234735879352</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -30457,25 +30457,25 @@
       </c>
       <c r="W4" s="45"/>
       <c r="X4" s="79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y4" s="84">
         <v>9.07</v>
       </c>
       <c r="Z4" s="92">
-        <v>0.7045258529274534</v>
+        <v>0.81396072221358173</v>
       </c>
       <c r="AA4" s="92">
-        <v>0.46626952181613257</v>
+        <v>0.62727419095153747</v>
       </c>
       <c r="AB4" s="92">
-        <v>0.7045258529274534</v>
+        <v>0.5540882548390289</v>
       </c>
       <c r="AC4" s="92">
-        <v>0.61218878401227772</v>
+        <v>0.6620307135291168</v>
       </c>
       <c r="AD4" s="93">
-        <v>0.94026522084333997</v>
+        <v>0.95385921741922897</v>
       </c>
       <c r="AE4" s="92">
         <v>1</v>
@@ -30484,14 +30484,14 @@
         <v>1</v>
       </c>
       <c r="AG4" s="92">
-        <v>1</v>
+        <v>0.83287121846261414</v>
       </c>
       <c r="AH4" s="92">
-        <v>1</v>
+        <v>0.94387994691348398</v>
       </c>
       <c r="AJ4" s="103">
         <f t="shared" ref="AJ4:AJ9" si="5">AH4+AC4</f>
-        <v>1.6121887840122777</v>
+        <v>1.6059106604426008</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -30575,41 +30575,41 @@
       </c>
       <c r="W5" s="45"/>
       <c r="X5" s="79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y5" s="84">
-        <v>8.9980000000000011</v>
+        <v>9.07</v>
       </c>
       <c r="Z5" s="92">
-        <v>0.65564381353655599</v>
+        <v>0.7045258529274534</v>
       </c>
       <c r="AA5" s="92">
-        <v>0.7423925293833521</v>
+        <v>0.46626952181613257</v>
       </c>
       <c r="AB5" s="92">
-        <v>0.65564381353655599</v>
+        <v>0.7045258529274534</v>
       </c>
       <c r="AC5" s="92">
-        <v>0.68926357976096742</v>
+        <v>0.61218878401227772</v>
       </c>
       <c r="AD5" s="93">
-        <v>0.96410554457747288</v>
+        <v>0.94026522084333997</v>
       </c>
       <c r="AE5" s="92">
-        <v>0.83287121846261414</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="92">
         <v>1</v>
       </c>
       <c r="AG5" s="92">
-        <v>0.83287121846261414</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="92">
-        <v>0.88775989382696785</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="103">
         <f t="shared" si="5"/>
-        <v>1.5770234735879352</v>
+        <v>1.6121887840122777</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -30693,28 +30693,28 @@
       </c>
       <c r="W6" s="45"/>
       <c r="X6" s="79" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Y6" s="84">
-        <v>9.07</v>
+        <v>9.1650000000000009</v>
       </c>
       <c r="Z6" s="92">
-        <v>0.81396072221358173</v>
+        <v>0.71623566671850913</v>
       </c>
       <c r="AA6" s="92">
-        <v>0.62727419095153747</v>
+        <v>0.82836902270165824</v>
       </c>
       <c r="AB6" s="92">
-        <v>0.5540882548390289</v>
+        <v>0.71623566671850913</v>
       </c>
       <c r="AC6" s="92">
-        <v>0.6620307135291168</v>
+        <v>0.75969333842364517</v>
       </c>
       <c r="AD6" s="93">
-        <v>0.95385921741922897</v>
+        <v>0.93081049771758773</v>
       </c>
       <c r="AE6" s="92">
-        <v>1</v>
+        <v>0.83287121846261414</v>
       </c>
       <c r="AF6" s="92">
         <v>1</v>
@@ -30723,11 +30723,11 @@
         <v>0.83287121846261414</v>
       </c>
       <c r="AH6" s="92">
-        <v>0.94387994691348398</v>
+        <v>0.88775989382696785</v>
       </c>
       <c r="AJ6" s="103">
         <f t="shared" si="5"/>
-        <v>1.6059106604426008</v>
+        <v>1.647453232250613</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -30932,25 +30932,25 @@
       </c>
       <c r="W8" s="45"/>
       <c r="X8" s="79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y8" s="84">
-        <v>9.07</v>
+        <v>8.9980000000000011</v>
       </c>
       <c r="Z8" s="92">
-        <v>0.81396072221358173</v>
+        <v>0.91551628091110882</v>
       </c>
       <c r="AA8" s="92">
-        <v>0.6939301239735951</v>
+        <v>0.77668652390919346</v>
       </c>
       <c r="AB8" s="92">
-        <v>0.71555417308807101</v>
+        <v>0.55723726441104526</v>
       </c>
       <c r="AC8" s="92">
-        <v>0.73730807227869299</v>
+        <v>0.7519989568086699</v>
       </c>
       <c r="AD8" s="93">
-        <v>0.85062364921972422</v>
+        <v>0.90736538495637098</v>
       </c>
       <c r="AE8" s="92">
         <v>1</v>
@@ -30959,14 +30959,14 @@
         <v>0.97327558503830303</v>
       </c>
       <c r="AG8" s="92">
-        <v>0.68507025519825948</v>
+        <v>0.51794147366087362</v>
       </c>
       <c r="AH8" s="92">
-        <v>0.88547309710595956</v>
+        <v>0.82935304401944343</v>
       </c>
       <c r="AJ8" s="103">
         <f t="shared" si="5"/>
-        <v>1.6227811693846526</v>
+        <v>1.5813520008281134</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -31053,25 +31053,25 @@
       </c>
       <c r="W9" s="45"/>
       <c r="X9" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y9" s="84">
-        <v>8.9980000000000011</v>
+        <v>9.07</v>
       </c>
       <c r="Z9" s="92">
-        <v>0.91551628091110882</v>
+        <v>0.81396072221358173</v>
       </c>
       <c r="AA9" s="92">
-        <v>0.77668652390919346</v>
+        <v>0.6939301239735951</v>
       </c>
       <c r="AB9" s="92">
-        <v>0.55723726441104526</v>
+        <v>0.71555417308807101</v>
       </c>
       <c r="AC9" s="92">
-        <v>0.7519989568086699</v>
+        <v>0.73730807227869299</v>
       </c>
       <c r="AD9" s="93">
-        <v>0.90736538495637098</v>
+        <v>0.85062364921972422</v>
       </c>
       <c r="AE9" s="92">
         <v>1</v>
@@ -31080,14 +31080,14 @@
         <v>0.97327558503830303</v>
       </c>
       <c r="AG9" s="92">
-        <v>0.51794147366087362</v>
+        <v>0.68507025519825948</v>
       </c>
       <c r="AH9" s="92">
-        <v>0.82935304401944343</v>
+        <v>0.88547309710595956</v>
       </c>
       <c r="AJ9" s="103">
         <f t="shared" si="5"/>
-        <v>1.5813520008281134</v>
+        <v>1.6227811693846526</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -31171,25 +31171,25 @@
       </c>
       <c r="W10" s="45"/>
       <c r="X10" s="79" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="84">
-        <v>8.9980000000000011</v>
+        <v>8.77</v>
       </c>
       <c r="Z10" s="92">
-        <v>0.81710973178559809</v>
+        <v>0.90159345087448928</v>
       </c>
       <c r="AA10" s="92">
-        <v>0.81098051843503471</v>
+        <v>0.86862018998550972</v>
       </c>
       <c r="AB10" s="92">
-        <v>0.81710973178559809</v>
+        <v>0.64172098349993645</v>
       </c>
       <c r="AC10" s="92">
-        <v>0.81473433385637217</v>
+        <v>0.80923555418138648</v>
       </c>
       <c r="AD10" s="93">
-        <v>0.85062522533526908</v>
+        <v>0.85361826875528235</v>
       </c>
       <c r="AE10" s="92">
         <v>0.68507025519825948</v>
@@ -31198,10 +31198,10 @@
         <v>0.94655117007660627</v>
       </c>
       <c r="AG10" s="92">
-        <v>0.68507025519825948</v>
+        <v>0.51794147366087362</v>
       </c>
       <c r="AH10" s="92">
-        <v>0.77094619421191901</v>
+        <v>0.71482614112540299</v>
       </c>
       <c r="AJ10" s="103"/>
     </row>
@@ -31289,25 +31289,25 @@
       </c>
       <c r="W11" s="45"/>
       <c r="X11" s="79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Y11" s="84">
-        <v>8.77</v>
+        <v>8.9980000000000011</v>
       </c>
       <c r="Z11" s="92">
-        <v>0.90159345087448928</v>
+        <v>0.81710973178559809</v>
       </c>
       <c r="AA11" s="92">
-        <v>0.86862018998550972</v>
+        <v>0.81098051843503471</v>
       </c>
       <c r="AB11" s="92">
-        <v>0.64172098349993645</v>
+        <v>0.81710973178559809</v>
       </c>
       <c r="AC11" s="92">
-        <v>0.80923555418138648</v>
+        <v>0.81473433385637217</v>
       </c>
       <c r="AD11" s="93">
-        <v>0.85361826875528235</v>
+        <v>0.85062522533526908</v>
       </c>
       <c r="AE11" s="92">
         <v>0.68507025519825948</v>
@@ -31316,10 +31316,10 @@
         <v>0.94655117007660627</v>
       </c>
       <c r="AG11" s="92">
-        <v>0.51794147366087362</v>
+        <v>0.68507025519825948</v>
       </c>
       <c r="AH11" s="92">
-        <v>0.71482614112540299</v>
+        <v>0.77094619421191901</v>
       </c>
       <c r="AJ11" s="103"/>
     </row>
@@ -31522,7 +31522,7 @@
       </c>
       <c r="W13" s="45"/>
       <c r="X13" s="79" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Y13" s="84">
         <v>9.3930000000000007</v>
@@ -31531,16 +31531,16 @@
         <v>0.89162441500417111</v>
       </c>
       <c r="AA13" s="92">
-        <v>0.8050233456770246</v>
+        <v>0.77072935115118324</v>
       </c>
       <c r="AB13" s="92">
-        <v>0.79321786587866017</v>
+        <v>0.63175194762961806</v>
       </c>
       <c r="AC13" s="92">
-        <v>0.82792749514633324</v>
+        <v>0.76519211809863097</v>
       </c>
       <c r="AD13" s="93">
-        <v>0.84668493647269272</v>
+        <v>0.87978336291833548</v>
       </c>
       <c r="AE13" s="92">
         <v>0.96786750212108585</v>
@@ -31549,10 +31549,10 @@
         <v>0.90086677658278658</v>
       </c>
       <c r="AG13" s="92">
-        <v>0.65293775731934534</v>
+        <v>0.8007387205837001</v>
       </c>
       <c r="AH13" s="92">
-        <v>0.84011299524539074</v>
+        <v>0.8897429741654389</v>
       </c>
       <c r="AJ13" s="103"/>
     </row>
@@ -31640,25 +31640,25 @@
       </c>
       <c r="W14" s="45"/>
       <c r="X14" s="79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y14" s="84">
-        <v>9.1650000000000009</v>
+        <v>9.3930000000000007</v>
       </c>
       <c r="Z14" s="92">
-        <v>0.9761081340930623</v>
+        <v>0.89162441500417111</v>
       </c>
       <c r="AA14" s="92">
-        <v>0.8626630172274995</v>
+        <v>0.8050233456770246</v>
       </c>
       <c r="AB14" s="92">
-        <v>0.61782911759299841</v>
+        <v>0.79321786587866017</v>
       </c>
       <c r="AC14" s="92">
-        <v>0.82242871547134755</v>
+        <v>0.82792749514633324</v>
       </c>
       <c r="AD14" s="93">
-        <v>0.82603624671724685</v>
+        <v>0.84668493647269272</v>
       </c>
       <c r="AE14" s="92">
         <v>0.96786750212108585</v>
@@ -31667,10 +31667,10 @@
         <v>0.90086677658278658</v>
       </c>
       <c r="AG14" s="92">
-        <v>0.48580897578195958</v>
+        <v>0.65293775731934534</v>
       </c>
       <c r="AH14" s="92">
-        <v>0.78399294215887472</v>
+        <v>0.84011299524539074</v>
       </c>
       <c r="AJ14" s="103"/>
     </row>
@@ -31758,25 +31758,25 @@
       </c>
       <c r="W15" s="45"/>
       <c r="X15" s="79" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="Y15" s="84">
-        <v>9.3930000000000007</v>
+        <v>9.1650000000000009</v>
       </c>
       <c r="Z15" s="92">
-        <v>0.89162441500417111</v>
+        <v>0.9761081340930623</v>
       </c>
       <c r="AA15" s="92">
-        <v>0.77072935115118324</v>
+        <v>0.8626630172274995</v>
       </c>
       <c r="AB15" s="92">
-        <v>0.63175194762961806</v>
+        <v>0.61782911759299841</v>
       </c>
       <c r="AC15" s="92">
-        <v>0.76519211809863097</v>
+        <v>0.82242871547134755</v>
       </c>
       <c r="AD15" s="93">
-        <v>0.87978336291833548</v>
+        <v>0.82603624671724685</v>
       </c>
       <c r="AE15" s="92">
         <v>0.96786750212108585</v>
@@ -31785,10 +31785,10 @@
         <v>0.90086677658278658</v>
       </c>
       <c r="AG15" s="92">
-        <v>0.8007387205837001</v>
+        <v>0.48580897578195958</v>
       </c>
       <c r="AH15" s="92">
-        <v>0.8897429741654389</v>
+        <v>0.78399294215887472</v>
       </c>
       <c r="AJ15" s="103"/>
     </row>
@@ -32106,25 +32106,25 @@
       </c>
       <c r="W18" s="45"/>
       <c r="X18" s="79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y18" s="84">
-        <v>9.3650000000000002</v>
+        <v>9.293000000000001</v>
       </c>
       <c r="Z18" s="92">
-        <v>0.81002106691928111</v>
+        <v>0.91551628091110882</v>
       </c>
       <c r="AA18" s="92">
-        <v>0.72049589438093697</v>
+        <v>0.80904846240540984</v>
       </c>
       <c r="AB18" s="92">
-        <v>0.81002106691928111</v>
+        <v>0.55723726441104526</v>
       </c>
       <c r="AC18" s="92">
-        <v>0.77532527525759509</v>
+        <v>0.76454093851054383</v>
       </c>
       <c r="AD18" s="93">
-        <v>0.93036918536497926</v>
+        <v>0.94061551252322317</v>
       </c>
       <c r="AE18" s="92">
         <v>0.895599936900358</v>
@@ -32133,10 +32133,10 @@
         <v>0.82467237744591892</v>
       </c>
       <c r="AG18" s="92">
-        <v>0.895599936900358</v>
+        <v>0.72847115536297213</v>
       </c>
       <c r="AH18" s="92">
-        <v>0.87230580557558846</v>
+        <v>0.81618575248907232</v>
       </c>
       <c r="AJ18" s="103"/>
     </row>
@@ -32224,25 +32224,25 @@
       </c>
       <c r="W19" s="45"/>
       <c r="X19" s="79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y19" s="84">
-        <v>9.293000000000001</v>
+        <v>9.3650000000000002</v>
       </c>
       <c r="Z19" s="92">
-        <v>0.91551628091110882</v>
+        <v>0.81002106691928111</v>
       </c>
       <c r="AA19" s="92">
-        <v>0.80904846240540984</v>
+        <v>0.72049589438093697</v>
       </c>
       <c r="AB19" s="92">
-        <v>0.55723726441104526</v>
+        <v>0.81002106691928111</v>
       </c>
       <c r="AC19" s="92">
-        <v>0.76454093851054383</v>
+        <v>0.77532527525759509</v>
       </c>
       <c r="AD19" s="93">
-        <v>0.94061551252322317</v>
+        <v>0.93036918536497926</v>
       </c>
       <c r="AE19" s="92">
         <v>0.895599936900358</v>
@@ -32251,10 +32251,10 @@
         <v>0.82467237744591892</v>
       </c>
       <c r="AG19" s="92">
-        <v>0.72847115536297213</v>
+        <v>0.895599936900358</v>
       </c>
       <c r="AH19" s="92">
-        <v>0.81618575248907232</v>
+        <v>0.87230580557558846</v>
       </c>
       <c r="AJ19" s="103"/>
     </row>
@@ -32342,25 +32342,25 @@
       </c>
       <c r="W20" s="45"/>
       <c r="X20" s="79" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Y20" s="84">
-        <v>9.5229999999999997</v>
+        <v>9.2949999999999999</v>
       </c>
       <c r="Z20" s="92">
-        <v>0.85628854609979221</v>
+        <v>0.9407722651886834</v>
       </c>
       <c r="AA20" s="92">
-        <v>0.78071164063757847</v>
+        <v>0.83835131218805348</v>
       </c>
       <c r="AB20" s="92">
-        <v>0.85628854609979221</v>
+        <v>0.68089979781413046</v>
       </c>
       <c r="AC20" s="92">
-        <v>0.82699845380503778</v>
+        <v>0.8214996741300522</v>
       </c>
       <c r="AD20" s="93">
-        <v>0.7393120649674827</v>
+        <v>0.74230510838749575</v>
       </c>
       <c r="AE20" s="92">
         <v>0.92034380777916258</v>
@@ -32369,10 +32369,10 @@
         <v>0.82049917231615643</v>
       </c>
       <c r="AG20" s="92">
-        <v>0.92034380777916258</v>
+        <v>0.75321502624177683</v>
       </c>
       <c r="AH20" s="92">
-        <v>0.88755268866497661</v>
+        <v>0.83143263557846059</v>
       </c>
       <c r="AJ20" s="103"/>
     </row>
@@ -32460,25 +32460,25 @@
       </c>
       <c r="W21" s="45"/>
       <c r="X21" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Y21" s="84">
-        <v>9.2949999999999999</v>
+        <v>9.5229999999999997</v>
       </c>
       <c r="Z21" s="92">
-        <v>0.9407722651886834</v>
+        <v>0.85628854609979221</v>
       </c>
       <c r="AA21" s="92">
-        <v>0.83835131218805348</v>
+        <v>0.78071164063757847</v>
       </c>
       <c r="AB21" s="92">
-        <v>0.68089979781413046</v>
+        <v>0.85628854609979221</v>
       </c>
       <c r="AC21" s="92">
-        <v>0.8214996741300522</v>
+        <v>0.82699845380503778</v>
       </c>
       <c r="AD21" s="93">
-        <v>0.74230510838749575</v>
+        <v>0.7393120649674827</v>
       </c>
       <c r="AE21" s="92">
         <v>0.92034380777916258</v>
@@ -32487,10 +32487,10 @@
         <v>0.82049917231615643</v>
       </c>
       <c r="AG21" s="92">
-        <v>0.75321502624177683</v>
+        <v>0.92034380777916258</v>
       </c>
       <c r="AH21" s="92">
-        <v>0.83143263557846059</v>
+        <v>0.88755268866497661</v>
       </c>
       <c r="AJ21" s="103"/>
     </row>
@@ -32928,25 +32928,25 @@
         <v>2.3193945500000002</v>
       </c>
       <c r="X25" s="79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y25" s="84">
-        <v>9.6880000000000006</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="Z25" s="92">
-        <v>0.89162441500417111</v>
+        <v>0.9761081340930623</v>
       </c>
       <c r="AA25" s="92">
-        <v>0.83738528417324098</v>
+        <v>0.89502495572371588</v>
       </c>
       <c r="AB25" s="92">
-        <v>0.89162441500417111</v>
+        <v>0.71623566671850913</v>
       </c>
       <c r="AC25" s="92">
-        <v>0.87060385140330376</v>
+        <v>0.86510507172831796</v>
       </c>
       <c r="AD25" s="93">
-        <v>0.85629333086408554</v>
+        <v>0.85928637428409871</v>
       </c>
       <c r="AE25" s="92">
         <v>0.86346743902144385</v>
@@ -32955,10 +32955,10 @@
         <v>0.75226356899040236</v>
       </c>
       <c r="AG25" s="92">
-        <v>0.86346743902144385</v>
+        <v>0.6963386574840581</v>
       </c>
       <c r="AH25" s="92">
-        <v>0.82694570371501952</v>
+        <v>0.77082565062850339</v>
       </c>
       <c r="AJ25" s="103"/>
     </row>
@@ -33045,25 +33045,25 @@
         <v>2.6193845499999999</v>
       </c>
       <c r="X26" s="79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y26" s="84">
-        <v>9.4600000000000009</v>
+        <v>9.6880000000000006</v>
       </c>
       <c r="Z26" s="92">
-        <v>0.9761081340930623</v>
+        <v>0.89162441500417111</v>
       </c>
       <c r="AA26" s="92">
-        <v>0.89502495572371588</v>
+        <v>0.83738528417324098</v>
       </c>
       <c r="AB26" s="92">
-        <v>0.71623566671850913</v>
+        <v>0.89162441500417111</v>
       </c>
       <c r="AC26" s="92">
-        <v>0.86510507172831796</v>
+        <v>0.87060385140330376</v>
       </c>
       <c r="AD26" s="93">
-        <v>0.85928637428409871</v>
+        <v>0.85629333086408554</v>
       </c>
       <c r="AE26" s="92">
         <v>0.86346743902144385</v>
@@ -33072,10 +33072,10 @@
         <v>0.75226356899040236</v>
       </c>
       <c r="AG26" s="92">
-        <v>0.6963386574840581</v>
+        <v>0.86346743902144385</v>
       </c>
       <c r="AH26" s="92">
-        <v>0.77082565062850339</v>
+        <v>0.82694570371501952</v>
       </c>
       <c r="AJ26" s="103"/>
     </row>
@@ -33511,25 +33511,25 @@
         <v>2.01940455</v>
       </c>
       <c r="X30" s="79" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y30" s="84">
-        <v>9.4030000000000005</v>
+        <v>9.1750000000000007</v>
       </c>
       <c r="Z30" s="92">
-        <v>0.91551628091110882</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="92">
-        <v>0.87570439542746747</v>
+        <v>0.93334406697794248</v>
       </c>
       <c r="AB30" s="92">
-        <v>0.91551628091110882</v>
+        <v>0.74012753262544717</v>
       </c>
       <c r="AC30" s="92">
-        <v>0.90008704637031312</v>
+        <v>0.89458826669532732</v>
       </c>
       <c r="AD30" s="93">
-        <v>0.90232772564556685</v>
+        <v>0.90532076906558012</v>
       </c>
       <c r="AE30" s="92">
         <v>0.76380411256180292</v>
@@ -33538,10 +33538,10 @@
         <v>0.6033367972003415</v>
       </c>
       <c r="AG30" s="92">
-        <v>0.76380411256180292</v>
+        <v>0.59667533102441705</v>
       </c>
       <c r="AH30" s="92">
-        <v>0.71110320552207584</v>
+        <v>0.65498315243555982</v>
       </c>
       <c r="AJ30" s="103"/>
     </row>
@@ -33625,25 +33625,25 @@
         <v>2.1723945499999999</v>
       </c>
       <c r="X31" s="79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y31" s="84">
-        <v>9.1750000000000007</v>
+        <v>9.4030000000000005</v>
       </c>
       <c r="Z31" s="92">
-        <v>1</v>
+        <v>0.91551628091110882</v>
       </c>
       <c r="AA31" s="92">
-        <v>0.93334406697794248</v>
+        <v>0.87570439542746747</v>
       </c>
       <c r="AB31" s="92">
-        <v>0.74012753262544717</v>
+        <v>0.91551628091110882</v>
       </c>
       <c r="AC31" s="92">
-        <v>0.89458826669532732</v>
+        <v>0.90008704637031312</v>
       </c>
       <c r="AD31" s="93">
-        <v>0.90532076906558012</v>
+        <v>0.90232772564556685</v>
       </c>
       <c r="AE31" s="92">
         <v>0.76380411256180292</v>
@@ -33652,10 +33652,10 @@
         <v>0.6033367972003415</v>
       </c>
       <c r="AG31" s="92">
-        <v>0.59667533102441705</v>
+        <v>0.76380411256180292</v>
       </c>
       <c r="AH31" s="92">
-        <v>0.65498315243555982</v>
+        <v>0.71110320552207584</v>
       </c>
       <c r="AJ31" s="103"/>
     </row>

--- a/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
+++ b/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E5C82D-438F-49D4-8A0C-1DFE1F0A9626}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70110E6-2C8C-497A-8AB5-C2701C9C4BE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apo_ManualNOEscrito&lt;T60" sheetId="17" r:id="rId1"/>
@@ -1591,31 +1591,43 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1627,58 +1639,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1694,6 +1664,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4663,48 +4663,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119">
+      <c r="A1" s="105">
         <v>0.34</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="119">
+      <c r="B1" s="106"/>
+      <c r="C1" s="105">
         <v>0.245</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="119">
+      <c r="D1" s="106"/>
+      <c r="E1" s="105">
         <v>0.125</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="119">
+      <c r="F1" s="106"/>
+      <c r="G1" s="105">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="119">
+      <c r="H1" s="106"/>
+      <c r="I1" s="105">
         <v>0.19</v>
       </c>
-      <c r="J1" s="120"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="117" t="s">
+      <c r="A2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="117" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="117" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="117" t="s">
+      <c r="H2" s="108"/>
+      <c r="I2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="118"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4713,28 +4713,28 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="117"/>
-      <c r="J3" s="118"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107">
+      <c r="A4" s="109">
         <v>0.59699999999999998</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107">
+      <c r="B4" s="110"/>
+      <c r="C4" s="109">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D4" s="112"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4743,14 +4743,14 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="74" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109">
+      <c r="A5" s="111">
         <v>0.27600000000000002</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="109">
+      <c r="B5" s="112"/>
+      <c r="C5" s="111">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -4766,10 +4766,10 @@
         <f>A6/2</f>
         <v>0.25800000000000001</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="113">
         <v>1</v>
       </c>
-      <c r="D6" s="111"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4782,10 +4782,10 @@
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="109">
+      <c r="E7" s="111">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F7" s="113"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -4799,10 +4799,10 @@
         <f>A8/2</f>
         <v>0.189</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="113">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D8" s="111"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -4815,10 +4815,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="109">
+      <c r="E9" s="111">
         <v>0.318</v>
       </c>
-      <c r="F9" s="113"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4829,10 +4829,10 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="105">
+      <c r="C10" s="113">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4845,10 +4845,10 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="107">
+      <c r="E11" s="109">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F11" s="112"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -4873,10 +4873,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="105">
+      <c r="C13" s="113">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D13" s="111"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4889,10 +4889,10 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="107">
+      <c r="E14" s="109">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F14" s="112"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4917,10 +4917,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="105">
+      <c r="C16" s="113">
         <v>0.45</v>
       </c>
-      <c r="D16" s="111"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4933,10 +4933,10 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="107">
+      <c r="E17" s="109">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F17" s="112"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4961,10 +4961,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="105">
+      <c r="C19" s="113">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D19" s="111"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4977,10 +4977,10 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="107">
+      <c r="E20" s="109">
         <v>0.23</v>
       </c>
-      <c r="F20" s="112"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -5005,10 +5005,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="105">
+      <c r="C22" s="113">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D22" s="111"/>
+      <c r="D22" s="114"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5021,10 +5021,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="107">
+      <c r="E23" s="109">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F23" s="112"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5052,30 +5052,30 @@
         <f>A25/2</f>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="C25" s="105">
+      <c r="C25" s="113">
         <v>0.4</v>
       </c>
-      <c r="D25" s="111"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="106"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="107">
+      <c r="E26" s="109">
         <v>1</v>
       </c>
-      <c r="F26" s="112"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="115"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -5103,10 +5103,10 @@
         <f>G28/2</f>
         <v>0.109</v>
       </c>
-      <c r="I28" s="109">
+      <c r="I28" s="111">
         <v>0.32500000000000001</v>
       </c>
-      <c r="J28" s="110"/>
+      <c r="J28" s="117"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -5116,16 +5116,16 @@
         <f>A29/2</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="C29" s="105">
+      <c r="C29" s="113">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D29" s="111"/>
+      <c r="D29" s="114"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="106"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="116"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
@@ -5153,10 +5153,10 @@
         <f>G31/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I31" s="109">
+      <c r="I31" s="111">
         <v>0.219</v>
       </c>
-      <c r="J31" s="110"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -5166,16 +5166,16 @@
         <f>A32/2</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C32" s="105">
+      <c r="C32" s="113">
         <v>0.216</v>
       </c>
-      <c r="D32" s="111"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="106"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
@@ -5203,54 +5203,54 @@
         <f>G34/2</f>
         <v>0.108</v>
       </c>
-      <c r="I34" s="109">
+      <c r="I34" s="111">
         <v>0.48299999999999998</v>
       </c>
-      <c r="J34" s="110"/>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="114">
+      <c r="E35" s="118">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F35" s="115"/>
+      <c r="F35" s="119"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="116"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="120"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="105">
+      <c r="A36" s="113">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="105">
+      <c r="B36" s="114"/>
+      <c r="C36" s="113">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D36" s="111"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="106"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="116"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="107">
+      <c r="E37" s="109">
         <v>0.88100000000000001</v>
       </c>
-      <c r="F37" s="112"/>
+      <c r="F37" s="110"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="108"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="115"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -5263,8 +5263,8 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="H38" s="8"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="108"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="115"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
@@ -5277,40 +5277,40 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="109">
+      <c r="I39" s="111">
         <v>0.22700000000000001</v>
       </c>
-      <c r="J39" s="110"/>
+      <c r="J39" s="117"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0.34899999999999998</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="105">
+      <c r="C40" s="113">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D40" s="111"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="106"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="116"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="107">
+      <c r="E41" s="109">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F41" s="112"/>
+      <c r="F41" s="110"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="115"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -5323,8 +5323,8 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="108"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="115"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
@@ -5337,40 +5337,40 @@
         <v>0.21</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="109">
+      <c r="I43" s="111">
         <v>0.104</v>
       </c>
-      <c r="J43" s="110"/>
+      <c r="J43" s="117"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="105">
+      <c r="E44" s="113">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F44" s="111"/>
+      <c r="F44" s="114"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="106"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="116"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>0.48499999999999999</v>
       </c>
       <c r="B45" s="21"/>
-      <c r="C45" s="107">
+      <c r="C45" s="109">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D45" s="112"/>
+      <c r="D45" s="110"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="108"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="115"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -5383,8 +5383,8 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="108"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="115"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
@@ -5397,26 +5397,26 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="H47" s="27"/>
-      <c r="I47" s="109">
+      <c r="I47" s="111">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="J47" s="110"/>
+      <c r="J47" s="117"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.18</v>
       </c>
       <c r="B48" s="30"/>
-      <c r="C48" s="105">
+      <c r="C48" s="113">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D48" s="111"/>
+      <c r="D48" s="114"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="106"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="116"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -5429,8 +5429,8 @@
         <v>1</v>
       </c>
       <c r="H49" s="8"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="108"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="115"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -5443,54 +5443,54 @@
         <v>0.246</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="I50" s="107">
+      <c r="I50" s="109">
         <v>0.13500000000000001</v>
       </c>
-      <c r="J50" s="108"/>
+      <c r="J50" s="115"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="109">
+      <c r="E51" s="111">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F51" s="113"/>
+      <c r="F51" s="112"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="117"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>0.28399999999999997</v>
       </c>
       <c r="B52" s="30"/>
-      <c r="C52" s="105">
+      <c r="C52" s="113">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D52" s="111"/>
+      <c r="D52" s="114"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="106"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="116"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="107">
+      <c r="E53" s="109">
         <v>0.57399999999999995</v>
       </c>
-      <c r="F53" s="112"/>
+      <c r="F53" s="110"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="108"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="115"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -5503,8 +5503,8 @@
         <v>0.56411</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="108"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="115"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
@@ -5517,10 +5517,10 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="109">
+      <c r="I55" s="111">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J55" s="110"/>
+      <c r="J55" s="117"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -5533,8 +5533,8 @@
         <v>0.182</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="106"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="116"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -5547,8 +5547,8 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="108"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="115"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -5573,10 +5573,10 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="H59" s="8"/>
-      <c r="I59" s="107">
+      <c r="I59" s="109">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J59" s="108"/>
+      <c r="J59" s="115"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
@@ -5589,24 +5589,24 @@
         <v>0.18</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="109">
+      <c r="I60" s="111">
         <v>0.26100000000000001</v>
       </c>
-      <c r="J60" s="110"/>
+      <c r="J60" s="117"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="105">
+      <c r="E61" s="113">
         <v>0.40600000000000003</v>
       </c>
-      <c r="F61" s="111"/>
+      <c r="F61" s="114"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="106"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="116"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -5619,10 +5619,10 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="107">
+      <c r="I62" s="109">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J62" s="108"/>
+      <c r="J62" s="115"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -5635,10 +5635,10 @@
         <v>0.215</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="107">
+      <c r="I63" s="109">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J63" s="108"/>
+      <c r="J63" s="115"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -5651,8 +5651,8 @@
         <v>0.124</v>
       </c>
       <c r="H64" s="8"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="108"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="115"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
@@ -5665,10 +5665,10 @@
         <v>0.109</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="109">
+      <c r="I65" s="111">
         <v>0.58299999999999996</v>
       </c>
-      <c r="J65" s="110"/>
+      <c r="J65" s="117"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
@@ -5681,10 +5681,10 @@
         <v>0.224</v>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="105">
+      <c r="I66" s="113">
         <v>1</v>
       </c>
-      <c r="J66" s="106"/>
+      <c r="J66" s="116"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
@@ -5709,8 +5709,8 @@
         <v>0.19</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="108"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="115"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
@@ -5723,18 +5723,89 @@
         <v>0.122</v>
       </c>
       <c r="H69" s="27"/>
-      <c r="I69" s="109">
+      <c r="I69" s="111">
         <v>0.36899999999999999</v>
       </c>
-      <c r="J69" s="110"/>
+      <c r="J69" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A2:B2"/>
@@ -5742,82 +5813,11 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A45:J69 A4:J43">
     <cfRule type="cellIs" dxfId="154" priority="13" operator="between">
@@ -9482,7 +9482,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13915,10 +13915,10 @@
   <dimension ref="A1:BY30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18330,10 +18330,10 @@
   <dimension ref="A1:BY30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="ED3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="EH11" sqref="EH11"/>
+      <selection pane="bottomRight" sqref="A1:BZ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22754,10 +22754,10 @@
   <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" sqref="A1:BJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26356,9 +26356,9 @@
   </sheetPr>
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26:G26"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26372,68 +26372,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="119">
+      <c r="B1" s="105">
         <v>0.34</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="119">
+      <c r="C1" s="106"/>
+      <c r="D1" s="105">
         <v>0.245</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="119">
+      <c r="E1" s="106"/>
+      <c r="F1" s="105">
         <v>0.125</v>
       </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="119">
+      <c r="G1" s="106"/>
+      <c r="H1" s="105">
         <v>0.25025999999999998</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="119">
+      <c r="I1" s="106"/>
+      <c r="J1" s="105">
         <v>0.19</v>
       </c>
-      <c r="K1" s="120"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138" t="s">
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138" t="s">
+      <c r="G2" s="128"/>
+      <c r="H2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="138"/>
-      <c r="Q2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138" t="s">
+      <c r="K2" s="128"/>
+      <c r="Q2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138" t="s">
+      <c r="T2" s="128"/>
+      <c r="U2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138" t="s">
+      <c r="V2" s="128"/>
+      <c r="W2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138" t="s">
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="138"/>
+      <c r="Z2" s="128"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -26442,49 +26442,49 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="134"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="133"/>
-      <c r="K3" s="134"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
       <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="133"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="134"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="131"/>
       <c r="W3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="134"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="131"/>
     </row>
     <row r="4" spans="1:26" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="131">
+      <c r="B4" s="122">
         <v>0.59699999999999998</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131">
+      <c r="C4" s="122"/>
+      <c r="D4" s="122">
         <v>0.86599999999999999</v>
       </c>
-      <c r="E4" s="131"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -26515,14 +26515,14 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="139">
+      <c r="B5" s="129">
         <v>0.27600000000000002</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139">
+      <c r="C5" s="129"/>
+      <c r="D5" s="129">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E5" s="139"/>
+      <c r="E5" s="129"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -26556,10 +26556,10 @@
       <c r="C6" s="2">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D6" s="131">
+      <c r="D6" s="122">
         <v>1</v>
       </c>
-      <c r="E6" s="131"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -26590,10 +26590,10 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="129">
+      <c r="F7" s="132">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G7" s="129"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -26628,10 +26628,10 @@
       <c r="C8" s="2">
         <v>0.189</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="122">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E8" s="131"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -26666,11 +26666,11 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="139">
+      <c r="F9" s="129">
         <f>0.318*1.14</f>
         <v>0.36251999999999995</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="129"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -26699,10 +26699,10 @@
         <v>0.75366</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="131">
+      <c r="D10" s="122">
         <v>0.70798000000000005</v>
       </c>
-      <c r="E10" s="131"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -26737,10 +26737,10 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="126">
+      <c r="F11" s="121">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G11" s="126"/>
+      <c r="G11" s="121"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -26805,10 +26805,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="131">
+      <c r="D13" s="122">
         <v>0.47899999999999998</v>
       </c>
-      <c r="E13" s="131"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -26830,10 +26830,10 @@
       <c r="X13" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="Y13" s="121">
+      <c r="Y13" s="123">
         <v>0.50714999999999999</v>
       </c>
-      <c r="Z13" s="122"/>
+      <c r="Z13" s="124"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -26843,10 +26843,10 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="126">
+      <c r="F14" s="121">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G14" s="126"/>
+      <c r="G14" s="121"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -26858,14 +26858,14 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="135">
+      <c r="U14" s="125">
         <v>0.94399999999999995</v>
       </c>
-      <c r="V14" s="135"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="137"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="127"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -26886,20 +26886,20 @@
       <c r="P15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="131">
+      <c r="Q15" s="122">
         <v>0.29099999999999998</v>
       </c>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131">
+      <c r="R15" s="122"/>
+      <c r="S15" s="122">
         <v>0.34799999999999998</v>
       </c>
-      <c r="T15" s="131"/>
+      <c r="T15" s="122"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="106"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="116"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -26909,10 +26909,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="131">
+      <c r="D16" s="122">
         <v>0.41400000000000003</v>
       </c>
-      <c r="E16" s="131"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -26926,14 +26926,14 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="126">
+      <c r="U16" s="121">
         <v>0.88100000000000001</v>
       </c>
-      <c r="V16" s="126"/>
+      <c r="V16" s="121"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="108"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="115"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -26943,10 +26943,10 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="126">
+      <c r="F17" s="121">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G17" s="126"/>
+      <c r="G17" s="121"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -26964,8 +26964,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="X17" s="8"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="108"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="115"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -26996,10 +26996,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="X18" s="5"/>
-      <c r="Y18" s="121">
+      <c r="Y18" s="123">
         <v>0.24062</v>
       </c>
-      <c r="Z18" s="122"/>
+      <c r="Z18" s="124"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -27009,10 +27009,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="131">
+      <c r="D19" s="122">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E19" s="131"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -27028,8 +27028,8 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="122"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="124"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -27039,10 +27039,10 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="126">
+      <c r="F20" s="121">
         <v>0.23</v>
       </c>
-      <c r="G20" s="126"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -27052,12 +27052,12 @@
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
-      <c r="Y20" s="136"/>
-      <c r="Z20" s="137"/>
+      <c r="Y20" s="126"/>
+      <c r="Z20" s="127"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -27076,16 +27076,16 @@
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="106"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="116"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -27095,10 +27095,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="131">
+      <c r="D22" s="122">
         <v>0.68300000000000005</v>
       </c>
-      <c r="E22" s="131"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -27110,12 +27110,12 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="121"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="108"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="115"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -27125,10 +27125,10 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="126">
+      <c r="F23" s="121">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G23" s="126"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -27142,8 +27142,8 @@
       <c r="V23" s="102"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="108"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="115"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -27170,8 +27170,8 @@
       <c r="V24" s="101"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="122"/>
+      <c r="Y24" s="123"/>
+      <c r="Z24" s="124"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -27183,16 +27183,16 @@
       <c r="C25" s="2">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="D25" s="131">
+      <c r="D25" s="122">
         <v>0.4</v>
       </c>
-      <c r="E25" s="131"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="116"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -27202,14 +27202,14 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="126">
+      <c r="F26" s="121">
         <v>1</v>
       </c>
-      <c r="G26" s="126"/>
+      <c r="G26" s="121"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="115"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -27223,10 +27223,10 @@
       <c r="G27" s="11"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="121">
+      <c r="J27" s="123">
         <v>0.21</v>
       </c>
-      <c r="K27" s="122"/>
+      <c r="K27" s="124"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -27244,10 +27244,10 @@
       <c r="I28" s="5">
         <v>0.12674418604651164</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J28" s="123">
         <v>0.34125000000000005</v>
       </c>
-      <c r="K28" s="122"/>
+      <c r="K28" s="124"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -27259,16 +27259,16 @@
       <c r="C29" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D29" s="131">
+      <c r="D29" s="122">
         <v>0.59399999999999997</v>
       </c>
-      <c r="E29" s="131"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="106"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="116"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -27282,10 +27282,10 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="121">
+      <c r="J30" s="123">
         <v>0.12</v>
       </c>
-      <c r="K30" s="122"/>
+      <c r="K30" s="124"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -27303,10 +27303,10 @@
       <c r="I31" s="5">
         <v>6.5116279069767455E-2</v>
       </c>
-      <c r="J31" s="121">
+      <c r="J31" s="123">
         <v>0.17519999999999999</v>
       </c>
-      <c r="K31" s="122"/>
+      <c r="K31" s="124"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -27318,16 +27318,16 @@
       <c r="C32" s="2">
         <v>3.8249999999999999E-2</v>
       </c>
-      <c r="D32" s="131">
+      <c r="D32" s="122">
         <v>0.16200000000000003</v>
       </c>
-      <c r="E32" s="131"/>
+      <c r="E32" s="122"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="106"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="116"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
@@ -27341,10 +27341,10 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="121">
+      <c r="J33" s="123">
         <v>0.31</v>
       </c>
-      <c r="K33" s="122"/>
+      <c r="K33" s="124"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
@@ -27362,10 +27362,10 @@
       <c r="I34" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="J34" s="121">
+      <c r="J34" s="123">
         <v>0.50714999999999999</v>
       </c>
-      <c r="K34" s="122"/>
+      <c r="K34" s="124"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
@@ -27375,33 +27375,33 @@
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="135">
+      <c r="F35" s="125">
         <v>0.94399999999999995</v>
       </c>
-      <c r="G35" s="135"/>
+      <c r="G35" s="125"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="137"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="127"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="131">
+      <c r="B36" s="122">
         <v>0.29099999999999998</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131">
+      <c r="C36" s="122"/>
+      <c r="D36" s="122">
         <v>0.34799999999999998</v>
       </c>
-      <c r="E36" s="131"/>
+      <c r="E36" s="122"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="106"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="116"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
@@ -27411,14 +27411,14 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="126">
+      <c r="F37" s="121">
         <v>0.88100000000000001</v>
       </c>
-      <c r="G37" s="126"/>
+      <c r="G37" s="121"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="108"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="115"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -27434,8 +27434,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="108"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="115"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -27457,10 +27457,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="121">
+      <c r="J39" s="123">
         <v>0.24062</v>
       </c>
-      <c r="K39" s="122"/>
+      <c r="K39" s="124"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -27476,16 +27476,16 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="131">
+      <c r="D40" s="122">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E40" s="131"/>
+      <c r="E40" s="122"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="106"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="116"/>
       <c r="P40" s="43"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -27501,14 +27501,14 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="126">
+      <c r="F41" s="121">
         <v>0.45500000000000002</v>
       </c>
-      <c r="G41" s="126"/>
+      <c r="G41" s="121"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="108"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="115"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -27524,8 +27524,8 @@
         <v>0.86393023255813961</v>
       </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="108"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="115"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
@@ -27541,10 +27541,10 @@
         <v>0.2441860465116279</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="121">
+      <c r="J43" s="123">
         <v>0.12064</v>
       </c>
-      <c r="K43" s="122"/>
+      <c r="K43" s="124"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -27554,14 +27554,14 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="131">
+      <c r="F44" s="122">
         <v>0.38100000000000001</v>
       </c>
-      <c r="G44" s="131"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="132"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="133"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
@@ -27571,16 +27571,16 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="126">
+      <c r="D45" s="121">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E45" s="126"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="128"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="136"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
@@ -27596,8 +27596,8 @@
         <v>0.67255813953488375</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="128"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="136"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
@@ -27613,10 +27613,10 @@
         <v>0.2011627906976744</v>
       </c>
       <c r="I47" s="27"/>
-      <c r="J47" s="129">
+      <c r="J47" s="132">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="K47" s="130"/>
+      <c r="K47" s="137"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -27626,16 +27626,16 @@
         <v>0.18</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="123">
+      <c r="D48" s="134">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E48" s="123"/>
+      <c r="E48" s="134"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="127"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="135"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
@@ -27651,8 +27651,8 @@
         <v>1</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="128"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="136"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
@@ -27668,10 +27668,10 @@
         <v>0.28604651162790701</v>
       </c>
       <c r="I50" s="8"/>
-      <c r="J50" s="126">
+      <c r="J50" s="121">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K50" s="128"/>
+      <c r="K50" s="136"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
@@ -27681,14 +27681,14 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="129">
+      <c r="F51" s="132">
         <v>0.30480000000000002</v>
       </c>
-      <c r="G51" s="129"/>
+      <c r="G51" s="132"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="130"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="137"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -27698,16 +27698,16 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="C52" s="30"/>
-      <c r="D52" s="123">
+      <c r="D52" s="134">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E52" s="123"/>
+      <c r="E52" s="134"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="125"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="139"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -27717,14 +27717,14 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="126">
+      <c r="F53" s="121">
         <v>0.63139999999999996</v>
       </c>
-      <c r="G53" s="126"/>
+      <c r="G53" s="121"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="108"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="115"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -27740,8 +27740,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="I54" s="8"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="108"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="115"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
@@ -27757,10 +27757,10 @@
         <v>0.1933139534883721</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="121">
+      <c r="J55" s="123">
         <v>0.14800000000000002</v>
       </c>
-      <c r="K55" s="122"/>
+      <c r="K55" s="124"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -27776,8 +27776,8 @@
         <v>0.21162790697674419</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="106"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="116"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
@@ -27793,8 +27793,8 @@
         <v>0.60697674418604652</v>
       </c>
       <c r="I57" s="8"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="108"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="115"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -27804,10 +27804,10 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="105">
+      <c r="F58" s="113">
         <v>0.25</v>
       </c>
-      <c r="G58" s="111"/>
+      <c r="G58" s="114"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="23"/>
@@ -27827,10 +27827,10 @@
         <v>0.52441860465116286</v>
       </c>
       <c r="I59" s="8"/>
-      <c r="J59" s="107">
+      <c r="J59" s="109">
         <v>0.60697000000000001</v>
       </c>
-      <c r="K59" s="108"/>
+      <c r="K59" s="115"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -27846,10 +27846,10 @@
         <v>0.20930232558139536</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="121">
+      <c r="J60" s="123">
         <v>0.26100000000000001</v>
       </c>
-      <c r="K60" s="122"/>
+      <c r="K60" s="124"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -27859,14 +27859,14 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="105">
+      <c r="F61" s="113">
         <v>0.40600000000000003</v>
       </c>
-      <c r="G61" s="111"/>
+      <c r="G61" s="114"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="106"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="116"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -27882,10 +27882,10 @@
         <v>0.32441860465116279</v>
       </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="107">
+      <c r="J62" s="109">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K62" s="108"/>
+      <c r="K62" s="115"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -27901,10 +27901,10 @@
         <v>0.25</v>
       </c>
       <c r="I63" s="8"/>
-      <c r="J63" s="107">
+      <c r="J63" s="109">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K63" s="108"/>
+      <c r="K63" s="115"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -27920,8 +27920,8 @@
         <v>0.14418604651162792</v>
       </c>
       <c r="I64" s="8"/>
-      <c r="J64" s="107"/>
-      <c r="K64" s="108"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="115"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
@@ -27937,10 +27937,10 @@
         <v>0.12674418604651164</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="121">
+      <c r="J65" s="123">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K65" s="122"/>
+      <c r="K65" s="124"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
@@ -27956,10 +27956,10 @@
         <v>0.26046511627906982</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="105">
+      <c r="J66" s="113">
         <v>1</v>
       </c>
-      <c r="K66" s="106"/>
+      <c r="K66" s="116"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -27969,10 +27969,10 @@
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
-      <c r="F67" s="105">
+      <c r="F67" s="113">
         <v>0.25</v>
       </c>
-      <c r="G67" s="111"/>
+      <c r="G67" s="114"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="31"/>
@@ -27992,8 +27992,8 @@
         <v>0.22093023255813954</v>
       </c>
       <c r="I68" s="8"/>
-      <c r="J68" s="107"/>
-      <c r="K68" s="108"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="115"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
@@ -28009,25 +28009,98 @@
         <v>0.14186046511627906</v>
       </c>
       <c r="I69" s="27"/>
-      <c r="J69" s="109">
+      <c r="J69" s="111">
         <v>0.36899999999999999</v>
       </c>
-      <c r="K69" s="110"/>
+      <c r="K69" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -28052,91 +28125,18 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y16:Z16"/>
   </mergeCells>
   <conditionalFormatting sqref="B44:K44">
     <cfRule type="cellIs" dxfId="146" priority="13" operator="between">
@@ -28276,7 +28276,7 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -34259,10 +34259,10 @@
   <dimension ref="A1:BP30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
+++ b/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70110E6-2C8C-497A-8AB5-C2701C9C4BE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD23055-B0DD-4C65-8777-A37EB12177B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2490" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apo_ManualNOEscrito&lt;T60" sheetId="17" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1591,43 +1593,31 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1639,16 +1629,58 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1664,36 +1696,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3639,8 +3641,8 @@
         <c:axId val="283015816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="11"/>
-          <c:min val="6"/>
+          <c:max val="10"/>
+          <c:min val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4663,48 +4665,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="105">
+      <c r="A1" s="119">
         <v>0.34</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="105">
+      <c r="B1" s="120"/>
+      <c r="C1" s="119">
         <v>0.245</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="105">
+      <c r="D1" s="120"/>
+      <c r="E1" s="119">
         <v>0.125</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="105">
+      <c r="F1" s="120"/>
+      <c r="G1" s="119">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="105">
+      <c r="H1" s="120"/>
+      <c r="I1" s="119">
         <v>0.19</v>
       </c>
-      <c r="J1" s="106"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="107" t="s">
+      <c r="A2" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="107" t="s">
+      <c r="D2" s="118"/>
+      <c r="E2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="107" t="s">
+      <c r="F2" s="118"/>
+      <c r="G2" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="107" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="108"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4713,28 +4715,28 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="118"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109">
+      <c r="A4" s="107">
         <v>0.59699999999999998</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="109">
+      <c r="B4" s="112"/>
+      <c r="C4" s="107">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4743,14 +4745,14 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="74" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111">
+      <c r="A5" s="109">
         <v>0.27600000000000002</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="111">
+      <c r="B5" s="113"/>
+      <c r="C5" s="109">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -4766,10 +4768,10 @@
         <f>A6/2</f>
         <v>0.25800000000000001</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="105">
         <v>1</v>
       </c>
-      <c r="D6" s="114"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4782,10 +4784,10 @@
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="111">
+      <c r="E7" s="109">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F7" s="112"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -4799,10 +4801,10 @@
         <f>A8/2</f>
         <v>0.189</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="105">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D8" s="114"/>
+      <c r="D8" s="111"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -4815,10 +4817,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="111">
+      <c r="E9" s="109">
         <v>0.318</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4829,10 +4831,10 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="113">
+      <c r="C10" s="105">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4845,10 +4847,10 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="109">
+      <c r="E11" s="107">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F11" s="110"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -4873,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="113">
+      <c r="C13" s="105">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D13" s="114"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4889,10 +4891,10 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="109">
+      <c r="E14" s="107">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F14" s="110"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4917,10 +4919,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="113">
+      <c r="C16" s="105">
         <v>0.45</v>
       </c>
-      <c r="D16" s="114"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4933,10 +4935,10 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="109">
+      <c r="E17" s="107">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F17" s="110"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4961,10 +4963,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="113">
+      <c r="C19" s="105">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4977,10 +4979,10 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="109">
+      <c r="E20" s="107">
         <v>0.23</v>
       </c>
-      <c r="F20" s="110"/>
+      <c r="F20" s="112"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -5005,10 +5007,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="113">
+      <c r="C22" s="105">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D22" s="114"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5021,10 +5023,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="109">
+      <c r="E23" s="107">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F23" s="110"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5052,30 +5054,30 @@
         <f>A25/2</f>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="C25" s="113">
+      <c r="C25" s="105">
         <v>0.4</v>
       </c>
-      <c r="D25" s="114"/>
+      <c r="D25" s="111"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="116"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="109">
+      <c r="E26" s="107">
         <v>1</v>
       </c>
-      <c r="F26" s="110"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="115"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -5103,10 +5105,10 @@
         <f>G28/2</f>
         <v>0.109</v>
       </c>
-      <c r="I28" s="111">
+      <c r="I28" s="109">
         <v>0.32500000000000001</v>
       </c>
-      <c r="J28" s="117"/>
+      <c r="J28" s="110"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -5116,16 +5118,16 @@
         <f>A29/2</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="C29" s="113">
+      <c r="C29" s="105">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D29" s="114"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="116"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
@@ -5153,10 +5155,10 @@
         <f>G31/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I31" s="111">
+      <c r="I31" s="109">
         <v>0.219</v>
       </c>
-      <c r="J31" s="117"/>
+      <c r="J31" s="110"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -5166,16 +5168,16 @@
         <f>A32/2</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="105">
         <v>0.216</v>
       </c>
-      <c r="D32" s="114"/>
+      <c r="D32" s="111"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="116"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="106"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
@@ -5203,54 +5205,54 @@
         <f>G34/2</f>
         <v>0.108</v>
       </c>
-      <c r="I34" s="111">
+      <c r="I34" s="109">
         <v>0.48299999999999998</v>
       </c>
-      <c r="J34" s="117"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="118">
+      <c r="E35" s="114">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F35" s="119"/>
+      <c r="F35" s="115"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="120"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="116"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="113">
+      <c r="A36" s="105">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="C36" s="113">
+      <c r="B36" s="111"/>
+      <c r="C36" s="105">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D36" s="114"/>
+      <c r="D36" s="111"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="116"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="106"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="109">
+      <c r="E37" s="107">
         <v>0.88100000000000001</v>
       </c>
-      <c r="F37" s="110"/>
+      <c r="F37" s="112"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="115"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="108"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -5263,8 +5265,8 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="H38" s="8"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="115"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="108"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
@@ -5277,40 +5279,40 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="111">
+      <c r="I39" s="109">
         <v>0.22700000000000001</v>
       </c>
-      <c r="J39" s="117"/>
+      <c r="J39" s="110"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0.34899999999999998</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="113">
+      <c r="C40" s="105">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D40" s="114"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="116"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="106"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="109">
+      <c r="E41" s="107">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F41" s="110"/>
+      <c r="F41" s="112"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="115"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -5323,8 +5325,8 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="115"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="108"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
@@ -5337,40 +5339,40 @@
         <v>0.21</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="111">
+      <c r="I43" s="109">
         <v>0.104</v>
       </c>
-      <c r="J43" s="117"/>
+      <c r="J43" s="110"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="113">
+      <c r="E44" s="105">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F44" s="114"/>
+      <c r="F44" s="111"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="116"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="106"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>0.48499999999999999</v>
       </c>
       <c r="B45" s="21"/>
-      <c r="C45" s="109">
+      <c r="C45" s="107">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D45" s="110"/>
+      <c r="D45" s="112"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="115"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="108"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -5383,8 +5385,8 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="115"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="108"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
@@ -5397,26 +5399,26 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="H47" s="27"/>
-      <c r="I47" s="111">
+      <c r="I47" s="109">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="J47" s="117"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.18</v>
       </c>
       <c r="B48" s="30"/>
-      <c r="C48" s="113">
+      <c r="C48" s="105">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D48" s="114"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="116"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="106"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -5429,8 +5431,8 @@
         <v>1</v>
       </c>
       <c r="H49" s="8"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="115"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="108"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -5443,54 +5445,54 @@
         <v>0.246</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="I50" s="109">
+      <c r="I50" s="107">
         <v>0.13500000000000001</v>
       </c>
-      <c r="J50" s="115"/>
+      <c r="J50" s="108"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="111">
+      <c r="E51" s="109">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F51" s="112"/>
+      <c r="F51" s="113"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="117"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>0.28399999999999997</v>
       </c>
       <c r="B52" s="30"/>
-      <c r="C52" s="113">
+      <c r="C52" s="105">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D52" s="114"/>
+      <c r="D52" s="111"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="116"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="106"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="109">
+      <c r="E53" s="107">
         <v>0.57399999999999995</v>
       </c>
-      <c r="F53" s="110"/>
+      <c r="F53" s="112"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="115"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -5503,8 +5505,8 @@
         <v>0.56411</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="115"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="108"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
@@ -5517,10 +5519,10 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="111">
+      <c r="I55" s="109">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J55" s="117"/>
+      <c r="J55" s="110"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -5533,8 +5535,8 @@
         <v>0.182</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="113"/>
-      <c r="J56" s="116"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="106"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -5547,8 +5549,8 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="115"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="108"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -5573,10 +5575,10 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="H59" s="8"/>
-      <c r="I59" s="109">
+      <c r="I59" s="107">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J59" s="115"/>
+      <c r="J59" s="108"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
@@ -5589,24 +5591,24 @@
         <v>0.18</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="111">
+      <c r="I60" s="109">
         <v>0.26100000000000001</v>
       </c>
-      <c r="J60" s="117"/>
+      <c r="J60" s="110"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="113">
+      <c r="E61" s="105">
         <v>0.40600000000000003</v>
       </c>
-      <c r="F61" s="114"/>
+      <c r="F61" s="111"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="116"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="106"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -5619,10 +5621,10 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="109">
+      <c r="I62" s="107">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J62" s="115"/>
+      <c r="J62" s="108"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -5635,10 +5637,10 @@
         <v>0.215</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="109">
+      <c r="I63" s="107">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J63" s="115"/>
+      <c r="J63" s="108"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -5651,8 +5653,8 @@
         <v>0.124</v>
       </c>
       <c r="H64" s="8"/>
-      <c r="I64" s="109"/>
-      <c r="J64" s="115"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="108"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
@@ -5665,10 +5667,10 @@
         <v>0.109</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="111">
+      <c r="I65" s="109">
         <v>0.58299999999999996</v>
       </c>
-      <c r="J65" s="117"/>
+      <c r="J65" s="110"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
@@ -5681,10 +5683,10 @@
         <v>0.224</v>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="113">
+      <c r="I66" s="105">
         <v>1</v>
       </c>
-      <c r="J66" s="116"/>
+      <c r="J66" s="106"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
@@ -5709,8 +5711,8 @@
         <v>0.19</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="115"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="108"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
@@ -5723,25 +5725,82 @@
         <v>0.122</v>
       </c>
       <c r="H69" s="27"/>
-      <c r="I69" s="111">
+      <c r="I69" s="109">
         <v>0.36899999999999999</v>
       </c>
-      <c r="J69" s="117"/>
+      <c r="J69" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I47:J47"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="I56:J56"/>
@@ -5749,75 +5808,18 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
   </mergeCells>
   <conditionalFormatting sqref="A45:J69 A4:J43">
     <cfRule type="cellIs" dxfId="154" priority="13" operator="between">
@@ -26356,7 +26358,7 @@
   </sheetPr>
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
@@ -26372,68 +26374,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="105">
+      <c r="B1" s="119">
         <v>0.34</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="105">
+      <c r="C1" s="120"/>
+      <c r="D1" s="119">
         <v>0.245</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="105">
+      <c r="E1" s="120"/>
+      <c r="F1" s="119">
         <v>0.125</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="105">
+      <c r="G1" s="120"/>
+      <c r="H1" s="119">
         <v>0.25025999999999998</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="105">
+      <c r="I1" s="120"/>
+      <c r="J1" s="119">
         <v>0.19</v>
       </c>
-      <c r="K1" s="106"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128" t="s">
+      <c r="B2" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128" t="s">
+      <c r="G2" s="138"/>
+      <c r="H2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128" t="s">
+      <c r="I2" s="138"/>
+      <c r="J2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="128"/>
-      <c r="Q2" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128" t="s">
+      <c r="K2" s="138"/>
+      <c r="Q2" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128" t="s">
+      <c r="T2" s="138"/>
+      <c r="U2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128" t="s">
+      <c r="V2" s="138"/>
+      <c r="W2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128" t="s">
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="128"/>
+      <c r="Z2" s="138"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -26442,49 +26444,49 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="131"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="134"/>
       <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="130"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="131"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="134"/>
       <c r="W3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="131"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="134"/>
     </row>
     <row r="4" spans="1:26" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="122">
+      <c r="B4" s="131">
         <v>0.59699999999999998</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122">
+      <c r="C4" s="131"/>
+      <c r="D4" s="131">
         <v>0.86599999999999999</v>
       </c>
-      <c r="E4" s="122"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -26515,14 +26517,14 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="129">
+      <c r="B5" s="139">
         <v>0.27600000000000002</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129">
+      <c r="C5" s="139"/>
+      <c r="D5" s="139">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -26556,10 +26558,10 @@
       <c r="C6" s="2">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D6" s="122">
+      <c r="D6" s="131">
         <v>1</v>
       </c>
-      <c r="E6" s="122"/>
+      <c r="E6" s="131"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -26590,10 +26592,10 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="132">
+      <c r="F7" s="129">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G7" s="132"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -26628,10 +26630,10 @@
       <c r="C8" s="2">
         <v>0.189</v>
       </c>
-      <c r="D8" s="122">
+      <c r="D8" s="131">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E8" s="122"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -26666,11 +26668,11 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="129">
+      <c r="F9" s="139">
         <f>0.318*1.14</f>
         <v>0.36251999999999995</v>
       </c>
-      <c r="G9" s="129"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -26699,10 +26701,10 @@
         <v>0.75366</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="122">
+      <c r="D10" s="131">
         <v>0.70798000000000005</v>
       </c>
-      <c r="E10" s="122"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -26737,10 +26739,10 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="121">
+      <c r="F11" s="126">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G11" s="121"/>
+      <c r="G11" s="126"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -26805,10 +26807,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="122">
+      <c r="D13" s="131">
         <v>0.47899999999999998</v>
       </c>
-      <c r="E13" s="122"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -26830,10 +26832,10 @@
       <c r="X13" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="Y13" s="123">
+      <c r="Y13" s="121">
         <v>0.50714999999999999</v>
       </c>
-      <c r="Z13" s="124"/>
+      <c r="Z13" s="122"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -26843,10 +26845,10 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="121">
+      <c r="F14" s="126">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G14" s="121"/>
+      <c r="G14" s="126"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -26858,14 +26860,14 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="125">
+      <c r="U14" s="135">
         <v>0.94399999999999995</v>
       </c>
-      <c r="V14" s="125"/>
+      <c r="V14" s="135"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="127"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="137"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -26886,20 +26888,20 @@
       <c r="P15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="122">
+      <c r="Q15" s="131">
         <v>0.29099999999999998</v>
       </c>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122">
+      <c r="R15" s="131"/>
+      <c r="S15" s="131">
         <v>0.34799999999999998</v>
       </c>
-      <c r="T15" s="122"/>
+      <c r="T15" s="131"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="116"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="106"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -26909,10 +26911,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="122">
+      <c r="D16" s="131">
         <v>0.41400000000000003</v>
       </c>
-      <c r="E16" s="122"/>
+      <c r="E16" s="131"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -26926,14 +26928,14 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="121">
+      <c r="U16" s="126">
         <v>0.88100000000000001</v>
       </c>
-      <c r="V16" s="121"/>
+      <c r="V16" s="126"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="115"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="108"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -26943,10 +26945,10 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="121">
+      <c r="F17" s="126">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G17" s="121"/>
+      <c r="G17" s="126"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -26964,8 +26966,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="X17" s="8"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="115"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="108"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -26996,10 +26998,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="X18" s="5"/>
-      <c r="Y18" s="123">
+      <c r="Y18" s="121">
         <v>0.24062</v>
       </c>
-      <c r="Z18" s="124"/>
+      <c r="Z18" s="122"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -27009,10 +27011,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="122">
+      <c r="D19" s="131">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="131"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -27028,8 +27030,8 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="123"/>
-      <c r="Z19" s="124"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="122"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -27039,10 +27041,10 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="121">
+      <c r="F20" s="126">
         <v>0.23</v>
       </c>
-      <c r="G20" s="121"/>
+      <c r="G20" s="126"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -27052,12 +27054,12 @@
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
-      <c r="Y20" s="126"/>
-      <c r="Z20" s="127"/>
+      <c r="Y20" s="136"/>
+      <c r="Z20" s="137"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -27076,16 +27078,16 @@
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="116"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="106"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -27095,10 +27097,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="122">
+      <c r="D22" s="131">
         <v>0.68300000000000005</v>
       </c>
-      <c r="E22" s="122"/>
+      <c r="E22" s="131"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -27110,12 +27112,12 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="121"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="115"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="108"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -27125,10 +27127,10 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="121">
+      <c r="F23" s="126">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G23" s="121"/>
+      <c r="G23" s="126"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -27142,8 +27144,8 @@
       <c r="V23" s="102"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="115"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="108"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -27170,8 +27172,8 @@
       <c r="V24" s="101"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="123"/>
-      <c r="Z24" s="124"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="122"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -27183,16 +27185,16 @@
       <c r="C25" s="2">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="D25" s="122">
+      <c r="D25" s="131">
         <v>0.4</v>
       </c>
-      <c r="E25" s="122"/>
+      <c r="E25" s="131"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="116"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -27202,14 +27204,14 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="121">
+      <c r="F26" s="126">
         <v>1</v>
       </c>
-      <c r="G26" s="121"/>
+      <c r="G26" s="126"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="115"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="108"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -27223,10 +27225,10 @@
       <c r="G27" s="11"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="123">
+      <c r="J27" s="121">
         <v>0.21</v>
       </c>
-      <c r="K27" s="124"/>
+      <c r="K27" s="122"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -27244,10 +27246,10 @@
       <c r="I28" s="5">
         <v>0.12674418604651164</v>
       </c>
-      <c r="J28" s="123">
+      <c r="J28" s="121">
         <v>0.34125000000000005</v>
       </c>
-      <c r="K28" s="124"/>
+      <c r="K28" s="122"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -27259,16 +27261,16 @@
       <c r="C29" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D29" s="122">
+      <c r="D29" s="131">
         <v>0.59399999999999997</v>
       </c>
-      <c r="E29" s="122"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="116"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -27282,10 +27284,10 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="123">
+      <c r="J30" s="121">
         <v>0.12</v>
       </c>
-      <c r="K30" s="124"/>
+      <c r="K30" s="122"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -27303,10 +27305,10 @@
       <c r="I31" s="5">
         <v>6.5116279069767455E-2</v>
       </c>
-      <c r="J31" s="123">
+      <c r="J31" s="121">
         <v>0.17519999999999999</v>
       </c>
-      <c r="K31" s="124"/>
+      <c r="K31" s="122"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -27318,16 +27320,16 @@
       <c r="C32" s="2">
         <v>3.8249999999999999E-2</v>
       </c>
-      <c r="D32" s="122">
+      <c r="D32" s="131">
         <v>0.16200000000000003</v>
       </c>
-      <c r="E32" s="122"/>
+      <c r="E32" s="131"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="116"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="106"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
@@ -27341,10 +27343,10 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="123">
+      <c r="J33" s="121">
         <v>0.31</v>
       </c>
-      <c r="K33" s="124"/>
+      <c r="K33" s="122"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
@@ -27362,10 +27364,10 @@
       <c r="I34" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="J34" s="123">
+      <c r="J34" s="121">
         <v>0.50714999999999999</v>
       </c>
-      <c r="K34" s="124"/>
+      <c r="K34" s="122"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
@@ -27375,33 +27377,33 @@
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="125">
+      <c r="F35" s="135">
         <v>0.94399999999999995</v>
       </c>
-      <c r="G35" s="125"/>
+      <c r="G35" s="135"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="127"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="137"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="122">
+      <c r="B36" s="131">
         <v>0.29099999999999998</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122">
+      <c r="C36" s="131"/>
+      <c r="D36" s="131">
         <v>0.34799999999999998</v>
       </c>
-      <c r="E36" s="122"/>
+      <c r="E36" s="131"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="116"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="106"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
@@ -27411,14 +27413,14 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="121">
+      <c r="F37" s="126">
         <v>0.88100000000000001</v>
       </c>
-      <c r="G37" s="121"/>
+      <c r="G37" s="126"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="115"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="108"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -27434,8 +27436,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="115"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="108"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -27457,10 +27459,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="123">
+      <c r="J39" s="121">
         <v>0.24062</v>
       </c>
-      <c r="K39" s="124"/>
+      <c r="K39" s="122"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -27476,16 +27478,16 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="122">
+      <c r="D40" s="131">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E40" s="122"/>
+      <c r="E40" s="131"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="116"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="106"/>
       <c r="P40" s="43"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -27501,14 +27503,14 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="121">
+      <c r="F41" s="126">
         <v>0.45500000000000002</v>
       </c>
-      <c r="G41" s="121"/>
+      <c r="G41" s="126"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="115"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="108"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -27524,8 +27526,8 @@
         <v>0.86393023255813961</v>
       </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="115"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="108"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
@@ -27541,10 +27543,10 @@
         <v>0.2441860465116279</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="123">
+      <c r="J43" s="121">
         <v>0.12064</v>
       </c>
-      <c r="K43" s="124"/>
+      <c r="K43" s="122"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -27554,14 +27556,14 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="122">
+      <c r="F44" s="131">
         <v>0.38100000000000001</v>
       </c>
-      <c r="G44" s="122"/>
+      <c r="G44" s="131"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="133"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="132"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
@@ -27571,16 +27573,16 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="121">
+      <c r="D45" s="126">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E45" s="121"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="136"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="128"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
@@ -27596,8 +27598,8 @@
         <v>0.67255813953488375</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="136"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="128"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
@@ -27613,10 +27615,10 @@
         <v>0.2011627906976744</v>
       </c>
       <c r="I47" s="27"/>
-      <c r="J47" s="132">
+      <c r="J47" s="129">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="K47" s="137"/>
+      <c r="K47" s="130"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -27626,16 +27628,16 @@
         <v>0.18</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="134">
+      <c r="D48" s="123">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E48" s="134"/>
+      <c r="E48" s="123"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="135"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="127"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
@@ -27651,8 +27653,8 @@
         <v>1</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="136"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="128"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
@@ -27668,10 +27670,10 @@
         <v>0.28604651162790701</v>
       </c>
       <c r="I50" s="8"/>
-      <c r="J50" s="121">
+      <c r="J50" s="126">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K50" s="136"/>
+      <c r="K50" s="128"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
@@ -27681,14 +27683,14 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="132">
+      <c r="F51" s="129">
         <v>0.30480000000000002</v>
       </c>
-      <c r="G51" s="132"/>
+      <c r="G51" s="129"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="137"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="130"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -27698,16 +27700,16 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="C52" s="30"/>
-      <c r="D52" s="134">
+      <c r="D52" s="123">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E52" s="134"/>
+      <c r="E52" s="123"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="139"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="125"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -27717,14 +27719,14 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="121">
+      <c r="F53" s="126">
         <v>0.63139999999999996</v>
       </c>
-      <c r="G53" s="121"/>
+      <c r="G53" s="126"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="115"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="108"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -27740,8 +27742,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="I54" s="8"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="115"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="108"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
@@ -27757,10 +27759,10 @@
         <v>0.1933139534883721</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="123">
+      <c r="J55" s="121">
         <v>0.14800000000000002</v>
       </c>
-      <c r="K55" s="124"/>
+      <c r="K55" s="122"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -27776,8 +27778,8 @@
         <v>0.21162790697674419</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="113"/>
-      <c r="K56" s="116"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="106"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
@@ -27793,8 +27795,8 @@
         <v>0.60697674418604652</v>
       </c>
       <c r="I57" s="8"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="115"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="108"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -27804,10 +27806,10 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="113">
+      <c r="F58" s="105">
         <v>0.25</v>
       </c>
-      <c r="G58" s="114"/>
+      <c r="G58" s="111"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="23"/>
@@ -27827,10 +27829,10 @@
         <v>0.52441860465116286</v>
       </c>
       <c r="I59" s="8"/>
-      <c r="J59" s="109">
+      <c r="J59" s="107">
         <v>0.60697000000000001</v>
       </c>
-      <c r="K59" s="115"/>
+      <c r="K59" s="108"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -27846,10 +27848,10 @@
         <v>0.20930232558139536</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="123">
+      <c r="J60" s="121">
         <v>0.26100000000000001</v>
       </c>
-      <c r="K60" s="124"/>
+      <c r="K60" s="122"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -27859,14 +27861,14 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="113">
+      <c r="F61" s="105">
         <v>0.40600000000000003</v>
       </c>
-      <c r="G61" s="114"/>
+      <c r="G61" s="111"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="116"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="106"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -27882,10 +27884,10 @@
         <v>0.32441860465116279</v>
       </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="109">
+      <c r="J62" s="107">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K62" s="115"/>
+      <c r="K62" s="108"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -27901,10 +27903,10 @@
         <v>0.25</v>
       </c>
       <c r="I63" s="8"/>
-      <c r="J63" s="109">
+      <c r="J63" s="107">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K63" s="115"/>
+      <c r="K63" s="108"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -27920,8 +27922,8 @@
         <v>0.14418604651162792</v>
       </c>
       <c r="I64" s="8"/>
-      <c r="J64" s="109"/>
-      <c r="K64" s="115"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="108"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
@@ -27937,10 +27939,10 @@
         <v>0.12674418604651164</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="123">
+      <c r="J65" s="121">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K65" s="124"/>
+      <c r="K65" s="122"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
@@ -27956,10 +27958,10 @@
         <v>0.26046511627906982</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="113">
+      <c r="J66" s="105">
         <v>1</v>
       </c>
-      <c r="K66" s="116"/>
+      <c r="K66" s="106"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -27969,10 +27971,10 @@
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
-      <c r="F67" s="113">
+      <c r="F67" s="105">
         <v>0.25</v>
       </c>
-      <c r="G67" s="114"/>
+      <c r="G67" s="111"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="31"/>
@@ -27992,8 +27994,8 @@
         <v>0.22093023255813954</v>
       </c>
       <c r="I68" s="8"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="115"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="108"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
@@ -28009,74 +28011,49 @@
         <v>0.14186046511627906</v>
       </c>
       <c r="I69" s="27"/>
-      <c r="J69" s="111">
+      <c r="J69" s="109">
         <v>0.36899999999999999</v>
       </c>
-      <c r="K69" s="117"/>
+      <c r="K69" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="Y24:Z24"/>
     <mergeCell ref="Q2:R2"/>
@@ -28101,42 +28078,67 @@
     <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
   </mergeCells>
   <conditionalFormatting sqref="B44:K44">
     <cfRule type="cellIs" dxfId="146" priority="13" operator="between">
@@ -28276,8 +28278,8 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30089,7 +30091,7 @@
   <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="Z26" sqref="Z26:AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
+++ b/projects/current/hattrick/6-Aportaciones_por_POS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD23055-B0DD-4C65-8777-A37EB12177B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8990B50-90B6-4E0C-93E4-793B23C54DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apo_ManualNOEscrito&lt;T60" sheetId="17" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="215">
   <si>
     <t>Def Lateral</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>DhL</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1392,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1593,31 +1596,43 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1629,58 +1644,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1698,13 +1671,102 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="155">
+  <dxfs count="160">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4287,13 +4349,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>666749</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4665,48 +4727,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119">
+      <c r="A1" s="105">
         <v>0.34</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="119">
+      <c r="B1" s="106"/>
+      <c r="C1" s="105">
         <v>0.245</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="119">
+      <c r="D1" s="106"/>
+      <c r="E1" s="105">
         <v>0.125</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="119">
+      <c r="F1" s="106"/>
+      <c r="G1" s="105">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="119">
+      <c r="H1" s="106"/>
+      <c r="I1" s="105">
         <v>0.19</v>
       </c>
-      <c r="J1" s="120"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="117" t="s">
+      <c r="A2" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="117" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="117" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="117" t="s">
+      <c r="H2" s="108"/>
+      <c r="I2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="118"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4715,28 +4777,28 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="117"/>
-      <c r="J3" s="118"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107">
+      <c r="A4" s="109">
         <v>0.59699999999999998</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="107">
+      <c r="B4" s="110"/>
+      <c r="C4" s="109">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D4" s="112"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4745,14 +4807,14 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="74" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109">
+      <c r="A5" s="111">
         <v>0.27600000000000002</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="109">
+      <c r="B5" s="112"/>
+      <c r="C5" s="111">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -4768,10 +4830,10 @@
         <f>A6/2</f>
         <v>0.25800000000000001</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="113">
         <v>1</v>
       </c>
-      <c r="D6" s="111"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4784,10 +4846,10 @@
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="109">
+      <c r="E7" s="111">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F7" s="113"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -4801,10 +4863,10 @@
         <f>A8/2</f>
         <v>0.189</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="113">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D8" s="111"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -4817,10 +4879,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="109">
+      <c r="E9" s="111">
         <v>0.318</v>
       </c>
-      <c r="F9" s="113"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4831,10 +4893,10 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="105">
+      <c r="C10" s="113">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4847,10 +4909,10 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="107">
+      <c r="E11" s="109">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F11" s="112"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -4875,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="105">
+      <c r="C13" s="113">
         <v>0.47899999999999998</v>
       </c>
-      <c r="D13" s="111"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4891,10 +4953,10 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="107">
+      <c r="E14" s="109">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F14" s="112"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4919,10 +4981,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="105">
+      <c r="C16" s="113">
         <v>0.45</v>
       </c>
-      <c r="D16" s="111"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4935,10 +4997,10 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="107">
+      <c r="E17" s="109">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F17" s="112"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4963,10 +5025,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="105">
+      <c r="C19" s="113">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D19" s="111"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4979,10 +5041,10 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="107">
+      <c r="E20" s="109">
         <v>0.23</v>
       </c>
-      <c r="F20" s="112"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -5007,10 +5069,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="105">
+      <c r="C22" s="113">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D22" s="111"/>
+      <c r="D22" s="114"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5023,10 +5085,10 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="107">
+      <c r="E23" s="109">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F23" s="112"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5054,30 +5116,30 @@
         <f>A25/2</f>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="C25" s="105">
+      <c r="C25" s="113">
         <v>0.4</v>
       </c>
-      <c r="D25" s="111"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="106"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="107">
+      <c r="E26" s="109">
         <v>1</v>
       </c>
-      <c r="F26" s="112"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="115"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -5105,10 +5167,10 @@
         <f>G28/2</f>
         <v>0.109</v>
       </c>
-      <c r="I28" s="109">
+      <c r="I28" s="111">
         <v>0.32500000000000001</v>
       </c>
-      <c r="J28" s="110"/>
+      <c r="J28" s="117"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -5118,16 +5180,16 @@
         <f>A29/2</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="C29" s="105">
+      <c r="C29" s="113">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D29" s="111"/>
+      <c r="D29" s="114"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="106"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="116"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
@@ -5155,10 +5217,10 @@
         <f>G31/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I31" s="109">
+      <c r="I31" s="111">
         <v>0.219</v>
       </c>
-      <c r="J31" s="110"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -5168,16 +5230,16 @@
         <f>A32/2</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C32" s="105">
+      <c r="C32" s="113">
         <v>0.216</v>
       </c>
-      <c r="D32" s="111"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="106"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
@@ -5205,54 +5267,54 @@
         <f>G34/2</f>
         <v>0.108</v>
       </c>
-      <c r="I34" s="109">
+      <c r="I34" s="111">
         <v>0.48299999999999998</v>
       </c>
-      <c r="J34" s="110"/>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="114">
+      <c r="E35" s="118">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F35" s="115"/>
+      <c r="F35" s="119"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="116"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="120"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="105">
+      <c r="A36" s="113">
         <v>0.29099999999999998</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="105">
+      <c r="B36" s="114"/>
+      <c r="C36" s="113">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D36" s="111"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="106"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="116"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="107">
+      <c r="E37" s="109">
         <v>0.88100000000000001</v>
       </c>
-      <c r="F37" s="112"/>
+      <c r="F37" s="110"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="108"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="115"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -5265,8 +5327,8 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="H38" s="8"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="108"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="115"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
@@ -5279,40 +5341,40 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="109">
+      <c r="I39" s="111">
         <v>0.22700000000000001</v>
       </c>
-      <c r="J39" s="110"/>
+      <c r="J39" s="117"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0.34899999999999998</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="105">
+      <c r="C40" s="113">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D40" s="111"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="106"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="116"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="107">
+      <c r="E41" s="109">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F41" s="112"/>
+      <c r="F41" s="110"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="115"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -5325,8 +5387,8 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="108"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="115"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
@@ -5339,40 +5401,40 @@
         <v>0.21</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="109">
+      <c r="I43" s="111">
         <v>0.104</v>
       </c>
-      <c r="J43" s="110"/>
+      <c r="J43" s="117"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="105">
+      <c r="E44" s="113">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F44" s="111"/>
+      <c r="F44" s="114"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="106"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="116"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>0.48499999999999999</v>
       </c>
       <c r="B45" s="21"/>
-      <c r="C45" s="107">
+      <c r="C45" s="109">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D45" s="112"/>
+      <c r="D45" s="110"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="108"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="115"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -5385,8 +5447,8 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="108"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="115"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
@@ -5399,26 +5461,26 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="H47" s="27"/>
-      <c r="I47" s="109">
+      <c r="I47" s="111">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="J47" s="110"/>
+      <c r="J47" s="117"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>0.18</v>
       </c>
       <c r="B48" s="30"/>
-      <c r="C48" s="105">
+      <c r="C48" s="113">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D48" s="111"/>
+      <c r="D48" s="114"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="106"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="116"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -5431,8 +5493,8 @@
         <v>1</v>
       </c>
       <c r="H49" s="8"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="108"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="115"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -5445,54 +5507,54 @@
         <v>0.246</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="I50" s="107">
+      <c r="I50" s="109">
         <v>0.13500000000000001</v>
       </c>
-      <c r="J50" s="108"/>
+      <c r="J50" s="115"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="109">
+      <c r="E51" s="111">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F51" s="113"/>
+      <c r="F51" s="112"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="117"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>0.28399999999999997</v>
       </c>
       <c r="B52" s="30"/>
-      <c r="C52" s="105">
+      <c r="C52" s="113">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D52" s="111"/>
+      <c r="D52" s="114"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="106"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="116"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="107">
+      <c r="E53" s="109">
         <v>0.57399999999999995</v>
       </c>
-      <c r="F53" s="112"/>
+      <c r="F53" s="110"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="108"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="115"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -5505,8 +5567,8 @@
         <v>0.56411</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="108"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="115"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
@@ -5519,10 +5581,10 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="109">
+      <c r="I55" s="111">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J55" s="110"/>
+      <c r="J55" s="117"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -5535,8 +5597,8 @@
         <v>0.182</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="106"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="116"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -5549,8 +5611,8 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="108"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="115"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -5575,10 +5637,10 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="H59" s="8"/>
-      <c r="I59" s="107">
+      <c r="I59" s="109">
         <v>0.60697000000000001</v>
       </c>
-      <c r="J59" s="108"/>
+      <c r="J59" s="115"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
@@ -5591,24 +5653,24 @@
         <v>0.18</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="109">
+      <c r="I60" s="111">
         <v>0.26100000000000001</v>
       </c>
-      <c r="J60" s="110"/>
+      <c r="J60" s="117"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="105">
+      <c r="E61" s="113">
         <v>0.40600000000000003</v>
       </c>
-      <c r="F61" s="111"/>
+      <c r="F61" s="114"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="106"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="116"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -5621,10 +5683,10 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="107">
+      <c r="I62" s="109">
         <v>0.80176999999999998</v>
       </c>
-      <c r="J62" s="108"/>
+      <c r="J62" s="115"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -5637,10 +5699,10 @@
         <v>0.215</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="107">
+      <c r="I63" s="109">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J63" s="108"/>
+      <c r="J63" s="115"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -5653,8 +5715,8 @@
         <v>0.124</v>
       </c>
       <c r="H64" s="8"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="108"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="115"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
@@ -5667,10 +5729,10 @@
         <v>0.109</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="109">
+      <c r="I65" s="111">
         <v>0.58299999999999996</v>
       </c>
-      <c r="J65" s="110"/>
+      <c r="J65" s="117"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
@@ -5683,10 +5745,10 @@
         <v>0.224</v>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="105">
+      <c r="I66" s="113">
         <v>1</v>
       </c>
-      <c r="J66" s="106"/>
+      <c r="J66" s="116"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
@@ -5711,8 +5773,8 @@
         <v>0.19</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="108"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="115"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
@@ -5725,18 +5787,89 @@
         <v>0.122</v>
       </c>
       <c r="H69" s="27"/>
-      <c r="I69" s="109">
+      <c r="I69" s="111">
         <v>0.36899999999999999</v>
       </c>
-      <c r="J69" s="110"/>
+      <c r="J69" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A2:B2"/>
@@ -5744,112 +5877,41 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A45:J69 A4:J43">
-    <cfRule type="cellIs" dxfId="154" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="13" operator="between">
       <formula>0.15</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="158" priority="14" operator="between">
       <formula>0.3</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="15" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="16" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:J44">
-    <cfRule type="cellIs" dxfId="150" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="155" priority="9" operator="between">
       <formula>0.15</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="10" operator="between">
       <formula>0.3</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="11" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="12" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9389,37 +9451,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3:P13">
-    <cfRule type="cellIs" dxfId="73" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L13">
-    <cfRule type="cellIs" dxfId="72" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="11" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N13">
-    <cfRule type="cellIs" dxfId="71" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:V13 X3:Y13 AF3:AG13 AK3:AM13 AR3:AR13 AW3:AX13">
-    <cfRule type="cellIs" dxfId="70" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W13 AH3:AH13 AN3:AN13 AT3:AT13 AY3:AY13 BB3:BB13">
-    <cfRule type="cellIs" dxfId="69" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="8" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA13 AI3:AJ13 AO3:AQ13 AU3:AV13 AZ3:BA13 BC3:BH13">
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9434,17 +9496,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC13">
-    <cfRule type="cellIs" dxfId="66" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE13">
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI3:BI13">
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13785,37 +13847,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3:P13">
-    <cfRule type="cellIs" dxfId="63" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="20" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L13">
-    <cfRule type="cellIs" dxfId="62" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="19" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N13">
-    <cfRule type="cellIs" dxfId="61" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="18" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:V13 AB3:AC13 AJ3:AK13 AO3:AQ13 BC3:BC13 BH3:BI13">
-    <cfRule type="cellIs" dxfId="60" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="17" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W13 AL3:AL13 AR3:AR13 BE3:BE13 BJ3:BJ13 BR3:BR13">
-    <cfRule type="cellIs" dxfId="59" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE13 AM3:AN13 AS3:AU13 BF3:BG13 BK3:BL13 BS3:BX13">
-    <cfRule type="cellIs" dxfId="58" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="57" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="14" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13830,47 +13892,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AG13">
-    <cfRule type="cellIs" dxfId="56" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI13">
-    <cfRule type="cellIs" dxfId="55" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY3:BY13">
-    <cfRule type="cellIs" dxfId="54" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM3:BN13">
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO3:BO13">
-    <cfRule type="cellIs" dxfId="52" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BQ13">
-    <cfRule type="cellIs" dxfId="51" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AX13">
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3:AY13">
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ3:BB13">
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13885,12 +13947,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:Z13">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA13">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18220,92 +18282,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3:P13">
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="23" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L13">
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="22" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N13">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:V13 AB3:AC13 AJ3:AK13 AO3:AQ13 BC3:BC13 BH3:BI13">
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W13 AL3:AL13 AR3:AR13 BE3:BE13 BJ3:BJ13 BR3:BR13">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="19" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE13 AM3:AN13 AS3:AU13 BF3:BG13 BK3:BL13 BS3:BX13">
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="18" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="17" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AG13">
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI13">
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY3:BY13">
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM3:BN13">
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO3:BO13">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BQ13">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AX13">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3:AY13">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ3:BB13">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:Z13">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA13">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22634,37 +22696,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3:P13">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L13">
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N13">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:V13 AB3:AC13 AJ3:AK13 AO3:AQ13 BC3:BC13 BH3:BI13">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W13 AL3:AL13 AR3:AR13 BE3:BE13 BJ3:BJ13 BR3:BR13">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE13 AM3:AN13 AS3:AU13 BF3:BG13 BK3:BL13 BS3:BX13">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22679,47 +22741,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AG13">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI13">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY3:BY13">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM3:BN13">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO3:BO13">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BQ13">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AX13">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3:AY13">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ3:BB13">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22734,12 +22796,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:Z13">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA13">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26276,52 +26338,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3:P13">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L13">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N13">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:V13 X3:Y13 AF3:AG13 AK3:AM13 AR3:AR13 AW3:AX13">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W13 AH3:AH13 AN3:AN13 AT3:AT13 AY3:AY13 BB3:BB13">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA13 AI3:AJ13 AO3:AQ13 AU3:AV13 AZ3:BA13 BC3:BH13">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC13">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE13">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI3:BI13">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26374,68 +26436,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="119">
+      <c r="B1" s="105">
         <v>0.34</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="119">
+      <c r="C1" s="106"/>
+      <c r="D1" s="105">
         <v>0.245</v>
       </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="119">
+      <c r="E1" s="106"/>
+      <c r="F1" s="105">
         <v>0.125</v>
       </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="119">
+      <c r="G1" s="106"/>
+      <c r="H1" s="105">
         <v>0.25025999999999998</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="119">
+      <c r="I1" s="106"/>
+      <c r="J1" s="105">
         <v>0.19</v>
       </c>
-      <c r="K1" s="120"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138" t="s">
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138" t="s">
+      <c r="G2" s="128"/>
+      <c r="H2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="138"/>
-      <c r="Q2" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138" t="s">
+      <c r="K2" s="128"/>
+      <c r="Q2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138" t="s">
+      <c r="T2" s="128"/>
+      <c r="U2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138" t="s">
+      <c r="V2" s="128"/>
+      <c r="W2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138" t="s">
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="138"/>
+      <c r="Z2" s="128"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -26444,49 +26506,49 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="134"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="133"/>
-      <c r="K3" s="134"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
       <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="133"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="134"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="131"/>
       <c r="W3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="134"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="131"/>
     </row>
     <row r="4" spans="1:26" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="131">
+      <c r="B4" s="122">
         <v>0.59699999999999998</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131">
+      <c r="C4" s="122"/>
+      <c r="D4" s="122">
         <v>0.86599999999999999</v>
       </c>
-      <c r="E4" s="131"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -26517,14 +26579,14 @@
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="139">
+      <c r="B5" s="129">
         <v>0.27600000000000002</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139">
+      <c r="C5" s="129"/>
+      <c r="D5" s="129">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E5" s="139"/>
+      <c r="E5" s="129"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -26558,10 +26620,10 @@
       <c r="C6" s="2">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D6" s="131">
+      <c r="D6" s="122">
         <v>1</v>
       </c>
-      <c r="E6" s="131"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -26592,10 +26654,10 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="129">
+      <c r="F7" s="132">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G7" s="129"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -26630,10 +26692,10 @@
       <c r="C8" s="2">
         <v>0.189</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="122">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E8" s="131"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -26668,11 +26730,11 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="139">
+      <c r="F9" s="129">
         <f>0.318*1.14</f>
         <v>0.36251999999999995</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="129"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -26701,10 +26763,10 @@
         <v>0.75366</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="131">
+      <c r="D10" s="122">
         <v>0.70798000000000005</v>
       </c>
-      <c r="E10" s="131"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -26739,10 +26801,10 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="126">
+      <c r="F11" s="121">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G11" s="126"/>
+      <c r="G11" s="121"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -26807,10 +26869,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="131">
+      <c r="D13" s="122">
         <v>0.47899999999999998</v>
       </c>
-      <c r="E13" s="131"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -26832,10 +26894,10 @@
       <c r="X13" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="Y13" s="121">
+      <c r="Y13" s="123">
         <v>0.50714999999999999</v>
       </c>
-      <c r="Z13" s="122"/>
+      <c r="Z13" s="124"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -26845,10 +26907,10 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="126">
+      <c r="F14" s="121">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G14" s="126"/>
+      <c r="G14" s="121"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -26860,14 +26922,14 @@
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="135">
+      <c r="U14" s="125">
         <v>0.94399999999999995</v>
       </c>
-      <c r="V14" s="135"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="137"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="127"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -26888,20 +26950,20 @@
       <c r="P15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="131">
+      <c r="Q15" s="122">
         <v>0.29099999999999998</v>
       </c>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131">
+      <c r="R15" s="122"/>
+      <c r="S15" s="122">
         <v>0.34799999999999998</v>
       </c>
-      <c r="T15" s="131"/>
+      <c r="T15" s="122"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="106"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="116"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -26911,10 +26973,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="131">
+      <c r="D16" s="122">
         <v>0.41400000000000003</v>
       </c>
-      <c r="E16" s="131"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -26928,14 +26990,14 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="126">
+      <c r="U16" s="121">
         <v>0.88100000000000001</v>
       </c>
-      <c r="V16" s="126"/>
+      <c r="V16" s="121"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="108"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="115"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -26945,10 +27007,10 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="126">
+      <c r="F17" s="121">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G17" s="126"/>
+      <c r="G17" s="121"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -26966,8 +27028,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="X17" s="8"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="108"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="115"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -26998,10 +27060,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="X18" s="5"/>
-      <c r="Y18" s="121">
+      <c r="Y18" s="123">
         <v>0.24062</v>
       </c>
-      <c r="Z18" s="122"/>
+      <c r="Z18" s="124"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -27011,10 +27073,10 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="131">
+      <c r="D19" s="122">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E19" s="131"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -27030,8 +27092,8 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="122"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="124"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -27041,10 +27103,10 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="126">
+      <c r="F20" s="121">
         <v>0.23</v>
       </c>
-      <c r="G20" s="126"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -27054,12 +27116,12 @@
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
-      <c r="Y20" s="136"/>
-      <c r="Z20" s="137"/>
+      <c r="Y20" s="126"/>
+      <c r="Z20" s="127"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -27078,16 +27140,16 @@
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="106"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="116"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -27097,10 +27159,10 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="131">
+      <c r="D22" s="122">
         <v>0.68300000000000005</v>
       </c>
-      <c r="E22" s="131"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -27112,12 +27174,12 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="121"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="108"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="115"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -27127,10 +27189,10 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="126">
+      <c r="F23" s="121">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G23" s="126"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -27144,8 +27206,8 @@
       <c r="V23" s="102"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="108"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="115"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -27172,8 +27234,8 @@
       <c r="V24" s="101"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="122"/>
+      <c r="Y24" s="123"/>
+      <c r="Z24" s="124"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -27185,16 +27247,16 @@
       <c r="C25" s="2">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="D25" s="131">
+      <c r="D25" s="122">
         <v>0.4</v>
       </c>
-      <c r="E25" s="131"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="116"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -27204,14 +27266,14 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="126">
+      <c r="F26" s="121">
         <v>1</v>
       </c>
-      <c r="G26" s="126"/>
+      <c r="G26" s="121"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="115"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -27225,10 +27287,10 @@
       <c r="G27" s="11"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="121">
+      <c r="J27" s="123">
         <v>0.21</v>
       </c>
-      <c r="K27" s="122"/>
+      <c r="K27" s="124"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -27246,10 +27308,10 @@
       <c r="I28" s="5">
         <v>0.12674418604651164</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J28" s="123">
         <v>0.34125000000000005</v>
       </c>
-      <c r="K28" s="122"/>
+      <c r="K28" s="124"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -27261,16 +27323,16 @@
       <c r="C29" s="2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D29" s="131">
+      <c r="D29" s="122">
         <v>0.59399999999999997</v>
       </c>
-      <c r="E29" s="131"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="106"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="116"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -27284,10 +27346,10 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="121">
+      <c r="J30" s="123">
         <v>0.12</v>
       </c>
-      <c r="K30" s="122"/>
+      <c r="K30" s="124"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -27305,10 +27367,10 @@
       <c r="I31" s="5">
         <v>6.5116279069767455E-2</v>
       </c>
-      <c r="J31" s="121">
+      <c r="J31" s="123">
         <v>0.17519999999999999</v>
       </c>
-      <c r="K31" s="122"/>
+      <c r="K31" s="124"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -27320,16 +27382,16 @@
       <c r="C32" s="2">
         <v>3.8249999999999999E-2</v>
       </c>
-      <c r="D32" s="131">
+      <c r="D32" s="122">
         <v>0.16200000000000003</v>
       </c>
-      <c r="E32" s="131"/>
+      <c r="E32" s="122"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="106"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="116"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
@@ -27343,10 +27405,10 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="121">
+      <c r="J33" s="123">
         <v>0.31</v>
       </c>
-      <c r="K33" s="122"/>
+      <c r="K33" s="124"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
@@ -27364,10 +27426,10 @@
       <c r="I34" s="5">
         <v>0.12558139534883722</v>
       </c>
-      <c r="J34" s="121">
+      <c r="J34" s="123">
         <v>0.50714999999999999</v>
       </c>
-      <c r="K34" s="122"/>
+      <c r="K34" s="124"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
@@ -27377,33 +27439,33 @@
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="135">
+      <c r="F35" s="125">
         <v>0.94399999999999995</v>
       </c>
-      <c r="G35" s="135"/>
+      <c r="G35" s="125"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="137"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="127"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="131">
+      <c r="B36" s="122">
         <v>0.29099999999999998</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131">
+      <c r="C36" s="122"/>
+      <c r="D36" s="122">
         <v>0.34799999999999998</v>
       </c>
-      <c r="E36" s="131"/>
+      <c r="E36" s="122"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="106"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="116"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
@@ -27413,14 +27475,14 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="126">
+      <c r="F37" s="121">
         <v>0.88100000000000001</v>
       </c>
-      <c r="G37" s="126"/>
+      <c r="G37" s="121"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="108"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="115"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -27436,8 +27498,8 @@
         <v>0.57441860465116279</v>
       </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="108"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="115"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -27459,10 +27521,10 @@
         <v>0.31511627906976747</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="121">
+      <c r="J39" s="123">
         <v>0.24062</v>
       </c>
-      <c r="K39" s="122"/>
+      <c r="K39" s="124"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -27478,16 +27540,16 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="131">
+      <c r="D40" s="122">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E40" s="131"/>
+      <c r="E40" s="122"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="106"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="116"/>
       <c r="P40" s="43"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -27503,14 +27565,14 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="126">
+      <c r="F41" s="121">
         <v>0.45500000000000002</v>
       </c>
-      <c r="G41" s="126"/>
+      <c r="G41" s="121"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="108"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="115"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -27526,8 +27588,8 @@
         <v>0.86393023255813961</v>
       </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="108"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="115"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
@@ -27543,10 +27605,10 @@
         <v>0.2441860465116279</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="121">
+      <c r="J43" s="123">
         <v>0.12064</v>
       </c>
-      <c r="K43" s="122"/>
+      <c r="K43" s="124"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -27556,14 +27618,14 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="131">
+      <c r="F44" s="122">
         <v>0.38100000000000001</v>
       </c>
-      <c r="G44" s="131"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="132"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="133"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
@@ -27573,16 +27635,16 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="126">
+      <c r="D45" s="121">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E45" s="126"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="128"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="136"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
@@ -27598,8 +27660,8 @@
         <v>0.67255813953488375</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="128"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="136"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
@@ -27615,10 +27677,10 @@
         <v>0.2011627906976744</v>
       </c>
       <c r="I47" s="27"/>
-      <c r="J47" s="129">
+      <c r="J47" s="132">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="K47" s="130"/>
+      <c r="K47" s="137"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -27628,16 +27690,16 @@
         <v>0.18</v>
       </c>
       <c r="C48" s="30"/>
-      <c r="D48" s="123">
+      <c r="D48" s="134">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E48" s="123"/>
+      <c r="E48" s="134"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="127"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="135"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
@@ -27653,8 +27715,8 @@
         <v>1</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="128"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="136"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
@@ -27670,10 +27732,10 @@
         <v>0.28604651162790701</v>
       </c>
       <c r="I50" s="8"/>
-      <c r="J50" s="126">
+      <c r="J50" s="121">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K50" s="128"/>
+      <c r="K50" s="136"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
@@ -27683,14 +27745,14 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="129">
+      <c r="F51" s="132">
         <v>0.30480000000000002</v>
       </c>
-      <c r="G51" s="129"/>
+      <c r="G51" s="132"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="130"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="137"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -27700,16 +27762,16 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="C52" s="30"/>
-      <c r="D52" s="123">
+      <c r="D52" s="134">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E52" s="123"/>
+      <c r="E52" s="134"/>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="125"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="139"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -27719,14 +27781,14 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="126">
+      <c r="F53" s="121">
         <v>0.63139999999999996</v>
       </c>
-      <c r="G53" s="126"/>
+      <c r="G53" s="121"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="108"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="115"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -27742,8 +27804,8 @@
         <v>0.70185779069767451</v>
       </c>
       <c r="I54" s="8"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="108"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="115"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
@@ -27759,10 +27821,10 @@
         <v>0.1933139534883721</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="121">
+      <c r="J55" s="123">
         <v>0.14800000000000002</v>
       </c>
-      <c r="K55" s="122"/>
+      <c r="K55" s="124"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -27778,8 +27840,8 @@
         <v>0.21162790697674419</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="106"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="116"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
@@ -27795,8 +27857,8 @@
         <v>0.60697674418604652</v>
       </c>
       <c r="I57" s="8"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="108"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="115"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -27806,10 +27868,10 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="105">
+      <c r="F58" s="113">
         <v>0.25</v>
       </c>
-      <c r="G58" s="111"/>
+      <c r="G58" s="114"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="23"/>
@@ -27829,10 +27891,10 @@
         <v>0.52441860465116286</v>
       </c>
       <c r="I59" s="8"/>
-      <c r="J59" s="107">
+      <c r="J59" s="109">
         <v>0.60697000000000001</v>
       </c>
-      <c r="K59" s="108"/>
+      <c r="K59" s="115"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -27848,10 +27910,10 @@
         <v>0.20930232558139536</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="121">
+      <c r="J60" s="123">
         <v>0.26100000000000001</v>
       </c>
-      <c r="K60" s="122"/>
+      <c r="K60" s="124"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
@@ -27861,14 +27923,14 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="105">
+      <c r="F61" s="113">
         <v>0.40600000000000003</v>
       </c>
-      <c r="G61" s="111"/>
+      <c r="G61" s="114"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="106"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="116"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -27884,10 +27946,10 @@
         <v>0.32441860465116279</v>
       </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="107">
+      <c r="J62" s="109">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K62" s="108"/>
+      <c r="K62" s="115"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -27903,10 +27965,10 @@
         <v>0.25</v>
       </c>
       <c r="I63" s="8"/>
-      <c r="J63" s="107">
+      <c r="J63" s="109">
         <v>0.54300000000000004</v>
       </c>
-      <c r="K63" s="108"/>
+      <c r="K63" s="115"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -27922,8 +27984,8 @@
         <v>0.14418604651162792</v>
       </c>
       <c r="I64" s="8"/>
-      <c r="J64" s="107"/>
-      <c r="K64" s="108"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="115"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
@@ -27939,10 +28001,10 @@
         <v>0.12674418604651164</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="121">
+      <c r="J65" s="123">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K65" s="122"/>
+      <c r="K65" s="124"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
@@ -27958,10 +28020,10 @@
         <v>0.26046511627906982</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="105">
+      <c r="J66" s="113">
         <v>1</v>
       </c>
-      <c r="K66" s="106"/>
+      <c r="K66" s="116"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -27971,10 +28033,10 @@
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
-      <c r="F67" s="105">
+      <c r="F67" s="113">
         <v>0.25</v>
       </c>
-      <c r="G67" s="111"/>
+      <c r="G67" s="114"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="31"/>
@@ -27994,8 +28056,8 @@
         <v>0.22093023255813954</v>
       </c>
       <c r="I68" s="8"/>
-      <c r="J68" s="107"/>
-      <c r="K68" s="108"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="115"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
@@ -28011,25 +28073,98 @@
         <v>0.14186046511627906</v>
       </c>
       <c r="I69" s="27"/>
-      <c r="J69" s="109">
+      <c r="J69" s="111">
         <v>0.36899999999999999</v>
       </c>
-      <c r="K69" s="110"/>
+      <c r="K69" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -28054,137 +28189,64 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y16:Z16"/>
   </mergeCells>
   <conditionalFormatting sqref="B44:K44">
-    <cfRule type="cellIs" dxfId="146" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="13" operator="between">
       <formula>0.15</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="14" operator="between">
       <formula>0.3</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="15" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="16" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:K43 B45:K69">
-    <cfRule type="cellIs" dxfId="142" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="17" operator="between">
       <formula>0.15</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="146" priority="18" operator="between">
       <formula>0.3</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="19" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="20" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Z24">
-    <cfRule type="cellIs" dxfId="138" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="143" priority="1" operator="between">
       <formula>0.15</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="2" operator="between">
       <formula>0.3</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="3" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="4" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28276,10 +28338,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28290,9 +28352,10 @@
     <col min="4" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="142" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="76"/>
       <c r="D1" s="80" t="s">
         <v>99</v>
@@ -28336,8 +28399,11 @@
       <c r="Q1" s="82" t="s">
         <v>165</v>
       </c>
+      <c r="R1" s="140" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -28393,8 +28459,12 @@
         <f t="shared" ref="Q2:Q33" si="0">SUM(D2:P2)</f>
         <v>9.6880000000000006</v>
       </c>
+      <c r="R2" s="141">
+        <f>Q2/$Q$2</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -28446,8 +28516,12 @@
         <f t="shared" si="0"/>
         <v>9.59</v>
       </c>
+      <c r="R3" s="141">
+        <f t="shared" ref="R3:R33" si="1">Q3/$Q$2</f>
+        <v>0.98988439306358378</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" s="79" t="s">
         <v>133</v>
       </c>
@@ -28496,8 +28570,12 @@
         <f t="shared" si="0"/>
         <v>9.57</v>
       </c>
+      <c r="R4" s="141">
+        <f t="shared" si="1"/>
+        <v>0.98781998348472333</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -28537,23 +28615,27 @@
         <v>1</v>
       </c>
       <c r="N5" s="81">
-        <f t="shared" ref="N5:P6" si="1">1-0.135</f>
+        <f t="shared" ref="N5:P6" si="2">1-0.135</f>
         <v>0.86499999999999999</v>
       </c>
       <c r="O5" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P5" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q5" s="84">
         <f t="shared" si="0"/>
         <v>9.5229999999999997</v>
       </c>
+      <c r="R5" s="141">
+        <f t="shared" si="1"/>
+        <v>0.98296862097440119</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -28593,23 +28675,27 @@
         <v>1</v>
       </c>
       <c r="N6" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O6" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P6" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q6" s="84">
         <f t="shared" si="0"/>
         <v>9.4650000000000016</v>
       </c>
+      <c r="R6" s="141">
+        <f t="shared" si="1"/>
+        <v>0.97698183319570608</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="79" t="s">
         <v>136</v>
       </c>
@@ -28660,8 +28746,12 @@
         <f t="shared" si="0"/>
         <v>9.4600000000000009</v>
       </c>
+      <c r="R7" s="141">
+        <f t="shared" si="1"/>
+        <v>0.97646573080099097</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -28715,8 +28805,12 @@
         <f t="shared" si="0"/>
         <v>9.4600000000000009</v>
       </c>
+      <c r="R8" s="141">
+        <f t="shared" si="1"/>
+        <v>0.97646573080099097</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -28771,8 +28865,12 @@
         <f t="shared" si="0"/>
         <v>9.4030000000000005</v>
       </c>
+      <c r="R9" s="141">
+        <f t="shared" si="1"/>
+        <v>0.9705821635012386</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" s="79" t="s">
         <v>147</v>
       </c>
@@ -28811,23 +28909,27 @@
         <v>0</v>
       </c>
       <c r="N10" s="81">
-        <f t="shared" ref="N10:P11" si="2">1-0.135</f>
+        <f t="shared" ref="N10:P11" si="3">1-0.135</f>
         <v>0.86499999999999999</v>
       </c>
       <c r="O10" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P10" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q10" s="84">
         <f t="shared" si="0"/>
         <v>9.3930000000000007</v>
       </c>
+      <c r="R10" s="141">
+        <f t="shared" si="1"/>
+        <v>0.96954995871180838</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="79" t="s">
         <v>158</v>
       </c>
@@ -28866,23 +28968,27 @@
         <v>1</v>
       </c>
       <c r="N11" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O11" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P11" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q11" s="84">
         <f t="shared" si="0"/>
         <v>9.3930000000000007</v>
       </c>
+      <c r="R11" s="141">
+        <f t="shared" si="1"/>
+        <v>0.96954995871180838</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" s="79" t="s">
         <v>152</v>
       </c>
@@ -28934,8 +29040,12 @@
         <f t="shared" si="0"/>
         <v>9.3650000000000002</v>
       </c>
+      <c r="R12" s="141">
+        <f t="shared" si="1"/>
+        <v>0.96665978530140373</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="79" t="s">
         <v>137</v>
       </c>
@@ -28970,23 +29080,27 @@
         <v>1</v>
       </c>
       <c r="N13" s="81">
-        <f t="shared" ref="N13:P15" si="3">1-0.135</f>
+        <f t="shared" ref="N13:P15" si="4">1-0.135</f>
         <v>0.86499999999999999</v>
       </c>
       <c r="O13" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P13" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q13" s="84">
         <f t="shared" si="0"/>
         <v>9.2949999999999999</v>
       </c>
+      <c r="R13" s="141">
+        <f t="shared" si="1"/>
+        <v>0.95943435177539216</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" s="79" t="s">
         <v>139</v>
       </c>
@@ -29021,23 +29135,27 @@
         <v>0</v>
       </c>
       <c r="N14" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O14" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P14" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q14" s="84">
         <f t="shared" si="0"/>
         <v>9.2949999999999999</v>
       </c>
+      <c r="R14" s="141">
+        <f t="shared" si="1"/>
+        <v>0.95943435177539216</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" s="79" t="s">
         <v>149</v>
       </c>
@@ -29072,23 +29190,27 @@
         <v>1</v>
       </c>
       <c r="N15" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O15" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P15" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q15" s="84">
         <f t="shared" si="0"/>
         <v>9.2949999999999999</v>
       </c>
+      <c r="R15" s="141">
+        <f t="shared" si="1"/>
+        <v>0.95943435177539216</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="79" t="s">
         <v>145</v>
       </c>
@@ -29113,15 +29235,15 @@
         <v>1</v>
       </c>
       <c r="J16" s="81">
-        <f t="shared" ref="J16:L20" si="4">1-0.175</f>
+        <f t="shared" ref="J16:L20" si="5">1-0.175</f>
         <v>0.82499999999999996</v>
       </c>
       <c r="K16" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L16" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M16" s="81">
@@ -29142,8 +29264,12 @@
         <f t="shared" si="0"/>
         <v>9.293000000000001</v>
       </c>
+      <c r="R16" s="141">
+        <f t="shared" si="1"/>
+        <v>0.95922791081750625</v>
+      </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="79" t="s">
         <v>153</v>
       </c>
@@ -29168,15 +29294,15 @@
         <v>1</v>
       </c>
       <c r="J17" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K17" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L17" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M17" s="81">
@@ -29197,8 +29323,12 @@
         <f t="shared" si="0"/>
         <v>9.293000000000001</v>
       </c>
+      <c r="R17" s="141">
+        <f t="shared" si="1"/>
+        <v>0.95922791081750625</v>
+      </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18" s="79">
         <v>550</v>
       </c>
@@ -29221,15 +29351,15 @@
         <v>1</v>
       </c>
       <c r="J18" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K18" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L18" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M18" s="81">
@@ -29248,8 +29378,12 @@
         <f t="shared" si="0"/>
         <v>9.1749999999999989</v>
       </c>
+      <c r="R18" s="141">
+        <f t="shared" si="1"/>
+        <v>0.94704789430222935</v>
+      </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" s="79" t="s">
         <v>141</v>
       </c>
@@ -29272,15 +29406,15 @@
         <v>1</v>
       </c>
       <c r="J19" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K19" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L19" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M19" s="81">
@@ -29299,8 +29433,12 @@
         <f t="shared" si="0"/>
         <v>9.1750000000000007</v>
       </c>
+      <c r="R19" s="141">
+        <f t="shared" si="1"/>
+        <v>0.94704789430222958</v>
+      </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="79" t="s">
         <v>134</v>
       </c>
@@ -29323,15 +29461,15 @@
         <v>1</v>
       </c>
       <c r="J20" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K20" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L20" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M20" s="81">
@@ -29350,8 +29488,12 @@
         <f t="shared" si="0"/>
         <v>9.1749999999999989</v>
       </c>
+      <c r="R20" s="141">
+        <f t="shared" si="1"/>
+        <v>0.94704789430222935</v>
+      </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" s="79" t="s">
         <v>138</v>
       </c>
@@ -29388,23 +29530,27 @@
         <v>0</v>
       </c>
       <c r="N21" s="81">
-        <f t="shared" ref="N21:P26" si="5">1-0.135</f>
+        <f t="shared" ref="N21:P26" si="6">1-0.135</f>
         <v>0.86499999999999999</v>
       </c>
       <c r="O21" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P21" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q21" s="84">
         <f t="shared" si="0"/>
         <v>9.1650000000000009</v>
       </c>
+      <c r="R21" s="141">
+        <f t="shared" si="1"/>
+        <v>0.94601568951279935</v>
+      </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C22" s="79" t="s">
         <v>150</v>
       </c>
@@ -29441,23 +29587,27 @@
         <v>0</v>
       </c>
       <c r="N22" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O22" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P22" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q22" s="84">
         <f t="shared" si="0"/>
         <v>9.1650000000000009</v>
       </c>
+      <c r="R22" s="141">
+        <f t="shared" si="1"/>
+        <v>0.94601568951279935</v>
+      </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23" s="79" t="s">
         <v>159</v>
       </c>
@@ -29494,23 +29644,27 @@
         <v>1</v>
       </c>
       <c r="N23" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O23" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P23" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q23" s="84">
         <f t="shared" si="0"/>
         <v>9.1650000000000009</v>
       </c>
+      <c r="R23" s="141">
+        <f t="shared" si="1"/>
+        <v>0.94601568951279935</v>
+      </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24" s="79" t="s">
         <v>156</v>
       </c>
@@ -29533,38 +29687,42 @@
         <v>1</v>
       </c>
       <c r="J24" s="81">
-        <f t="shared" ref="J24:L33" si="6">1-0.175</f>
+        <f t="shared" ref="J24:L33" si="7">1-0.175</f>
         <v>0.82499999999999996</v>
       </c>
       <c r="K24" s="81">
+        <f t="shared" si="7"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="L24" s="81">
+        <f t="shared" si="7"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M24" s="81">
+        <v>0</v>
+      </c>
+      <c r="N24" s="81">
         <f t="shared" si="6"/>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="L24" s="81">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="O24" s="81">
         <f t="shared" si="6"/>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="M24" s="81">
-        <v>0</v>
-      </c>
-      <c r="N24" s="81">
-        <f t="shared" si="5"/>
         <v>0.86499999999999999</v>
       </c>
-      <c r="O24" s="81">
-        <f t="shared" si="5"/>
-        <v>0.86499999999999999</v>
-      </c>
       <c r="P24" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q24" s="84">
         <f t="shared" si="0"/>
         <v>9.07</v>
       </c>
+      <c r="R24" s="141">
+        <f t="shared" si="1"/>
+        <v>0.93620974401321222</v>
+      </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C25" s="79" t="s">
         <v>161</v>
       </c>
@@ -29587,38 +29745,42 @@
         <v>1</v>
       </c>
       <c r="J25" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K25" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L25" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M25" s="81">
         <v>1</v>
       </c>
       <c r="N25" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O25" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P25" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q25" s="84">
         <f t="shared" si="0"/>
         <v>9.07</v>
       </c>
+      <c r="R25" s="141">
+        <f t="shared" si="1"/>
+        <v>0.93620974401321222</v>
+      </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C26" s="79" t="s">
         <v>162</v>
       </c>
@@ -29641,38 +29803,42 @@
         <v>1</v>
       </c>
       <c r="J26" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K26" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L26" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M26" s="81">
         <v>1</v>
       </c>
       <c r="N26" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O26" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P26" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" si="0"/>
         <v>9.07</v>
       </c>
+      <c r="R26" s="141">
+        <f t="shared" si="1"/>
+        <v>0.93620974401321222</v>
+      </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C27" s="79" t="s">
         <v>154</v>
       </c>
@@ -29695,15 +29861,15 @@
         <v>1</v>
       </c>
       <c r="J27" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K27" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L27" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M27" s="81">
@@ -29724,8 +29890,12 @@
         <f t="shared" si="0"/>
         <v>9.0650000000000013</v>
       </c>
+      <c r="R27" s="141">
+        <f t="shared" si="1"/>
+        <v>0.93569364161849722</v>
+      </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C28" s="79" t="s">
         <v>144</v>
       </c>
@@ -29748,15 +29918,15 @@
         <v>1</v>
       </c>
       <c r="J28" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K28" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L28" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M28" s="81">
@@ -29777,8 +29947,12 @@
         <f t="shared" si="0"/>
         <v>9.0649999999999995</v>
       </c>
+      <c r="R28" s="141">
+        <f t="shared" si="1"/>
+        <v>0.935693641618497</v>
+      </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C29" s="79" t="s">
         <v>148</v>
       </c>
@@ -29803,38 +29977,42 @@
         <v>0</v>
       </c>
       <c r="J29" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K29" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L29" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M29" s="81">
         <v>0</v>
       </c>
       <c r="N29" s="81">
-        <f t="shared" ref="N29:P33" si="7">1-0.135</f>
+        <f t="shared" ref="N29:P33" si="8">1-0.135</f>
         <v>0.86499999999999999</v>
       </c>
       <c r="O29" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P29" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q29" s="84">
         <f t="shared" si="0"/>
         <v>8.9980000000000011</v>
       </c>
+      <c r="R29" s="141">
+        <f t="shared" si="1"/>
+        <v>0.92877786952931463</v>
+      </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C30" s="79" t="s">
         <v>157</v>
       </c>
@@ -29859,38 +30037,42 @@
         <v>1</v>
       </c>
       <c r="J30" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K30" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L30" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M30" s="81">
         <v>0</v>
       </c>
       <c r="N30" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O30" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P30" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q30" s="84">
         <f t="shared" si="0"/>
         <v>8.9980000000000011</v>
       </c>
+      <c r="R30" s="141">
+        <f t="shared" si="1"/>
+        <v>0.92877786952931463</v>
+      </c>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C31" s="79" t="s">
         <v>163</v>
       </c>
@@ -29915,38 +30097,42 @@
         <v>1</v>
       </c>
       <c r="J31" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K31" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L31" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M31" s="81">
         <v>1</v>
       </c>
       <c r="N31" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O31" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P31" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q31" s="84">
         <f t="shared" si="0"/>
         <v>8.9980000000000011</v>
       </c>
+      <c r="R31" s="141">
+        <f t="shared" si="1"/>
+        <v>0.92877786952931463</v>
+      </c>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C32" s="79" t="s">
         <v>160</v>
       </c>
@@ -29969,38 +30155,42 @@
         <v>1</v>
       </c>
       <c r="J32" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K32" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L32" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M32" s="81">
         <v>0</v>
       </c>
       <c r="N32" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O32" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P32" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q32" s="84">
         <f t="shared" si="0"/>
         <v>8.7700000000000014</v>
       </c>
+      <c r="R32" s="141">
+        <f t="shared" si="1"/>
+        <v>0.9052436003303056</v>
+      </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="79" t="s">
         <v>151</v>
       </c>
@@ -30023,35 +30213,39 @@
         <v>0</v>
       </c>
       <c r="J33" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="K33" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="L33" s="81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="M33" s="81">
         <v>0</v>
       </c>
       <c r="N33" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="O33" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="P33" s="81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="Q33" s="84">
         <f t="shared" si="0"/>
         <v>8.77</v>
+      </c>
+      <c r="R33" s="141">
+        <f t="shared" si="1"/>
+        <v>0.90524360033030549</v>
       </c>
     </row>
   </sheetData>
@@ -30059,22 +30253,22 @@
     <sortCondition descending="1" ref="Q3:Q33"/>
   </sortState>
   <conditionalFormatting sqref="D2:P33">
-    <cfRule type="cellIs" dxfId="134" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="3" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="4" operator="between">
       <formula>0.93</formula>
       <formula>0.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q33">
-    <cfRule type="cellIs" dxfId="131" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="1" operator="lessThan">
       <formula>9.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="2" operator="greaterThan">
       <formula>9.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30090,8 +30284,8 @@
   </sheetPr>
   <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26:AB26"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34197,18 +34391,18 @@
     <sortCondition descending="1" ref="AF3:AF34"/>
   </sortState>
   <conditionalFormatting sqref="M3:M34">
-    <cfRule type="cellIs" dxfId="129" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="7" operator="lessThan">
       <formula>9.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="8" operator="greaterThan">
       <formula>9.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y34">
-    <cfRule type="cellIs" dxfId="127" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="5" operator="lessThan">
       <formula>9.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="6" operator="greaterThan">
       <formula>9.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38126,37 +38320,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3:P13">
-    <cfRule type="cellIs" dxfId="125" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="15" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L13">
-    <cfRule type="cellIs" dxfId="124" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="14" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N13">
-    <cfRule type="cellIs" dxfId="123" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="13" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:V13 X3:Y13 AF3:AG13 AK3:AM13 AY3:AY13 BD3:BE13">
-    <cfRule type="cellIs" dxfId="122" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="12" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W13 AH3:AH13 AN3:AN13 BA3:BA13 BF3:BF13 BI3:BI13">
-    <cfRule type="cellIs" dxfId="121" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="11" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA13 AI3:AJ13 AO3:AQ13 BB3:BC13 BG3:BH13 BJ3:BO13">
-    <cfRule type="cellIs" dxfId="120" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="10" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="119" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="9" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38171,17 +38365,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC13">
-    <cfRule type="cellIs" dxfId="118" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="8" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE13">
-    <cfRule type="cellIs" dxfId="117" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="7" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BP13">
-    <cfRule type="cellIs" dxfId="116" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="6" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38206,17 +38400,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3:AT13">
-    <cfRule type="cellIs" dxfId="115" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="3" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU3:AU13">
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="2" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AX13">
-    <cfRule type="cellIs" dxfId="113" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="1" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42095,37 +42289,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3:P13">
-    <cfRule type="cellIs" dxfId="112" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="15" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L13">
-    <cfRule type="cellIs" dxfId="111" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="14" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N13">
-    <cfRule type="cellIs" dxfId="110" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="13" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:V13 X3:Y13 AF3:AG13 AK3:AM13 AY3:AY13 BD3:BE13">
-    <cfRule type="cellIs" dxfId="109" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="12" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W13 AH3:AH13 AN3:AN13 BA3:BA13 BF3:BF13 BI3:BI13">
-    <cfRule type="cellIs" dxfId="108" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="11" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA13 AI3:AJ13 AO3:AQ13 BB3:BC13 BG3:BH13 BJ3:BO13">
-    <cfRule type="cellIs" dxfId="107" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="10" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="106" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="9" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42140,17 +42334,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC13">
-    <cfRule type="cellIs" dxfId="105" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="8" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE13">
-    <cfRule type="cellIs" dxfId="104" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BP13">
-    <cfRule type="cellIs" dxfId="103" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="6" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42175,17 +42369,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3:AT13">
-    <cfRule type="cellIs" dxfId="102" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="3" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU3:AU13">
-    <cfRule type="cellIs" dxfId="101" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AX13">
-    <cfRule type="cellIs" dxfId="100" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46063,37 +46257,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3:P13">
-    <cfRule type="cellIs" dxfId="99" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="15" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L13">
-    <cfRule type="cellIs" dxfId="98" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="14" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N13">
-    <cfRule type="cellIs" dxfId="97" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="13" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:V13 X3:Y13 AF3:AG13 AK3:AM13 AY3:AY13 BD3:BE13">
-    <cfRule type="cellIs" dxfId="96" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="12" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W13 AH3:AH13 AN3:AN13 BA3:BA13 BF3:BF13 BI3:BI13">
-    <cfRule type="cellIs" dxfId="95" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="11" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA13 AI3:AJ13 AO3:AQ13 BB3:BC13 BG3:BH13 BJ3:BO13">
-    <cfRule type="cellIs" dxfId="94" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="10" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="93" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="9" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46108,17 +46302,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC13">
-    <cfRule type="cellIs" dxfId="92" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="8" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE13">
-    <cfRule type="cellIs" dxfId="91" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="7" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BP13">
-    <cfRule type="cellIs" dxfId="90" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="6" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46143,17 +46337,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3:AT13">
-    <cfRule type="cellIs" dxfId="89" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="3" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU3:AU13">
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="2" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AX13">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50031,37 +50225,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3:P13">
-    <cfRule type="cellIs" dxfId="86" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="15" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L13">
-    <cfRule type="cellIs" dxfId="85" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="14" operator="greaterThan">
       <formula>3.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N13">
-    <cfRule type="cellIs" dxfId="84" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:V13 X3:Y13 AF3:AG13 AK3:AM13 AY3:AY13 BD3:BE13">
-    <cfRule type="cellIs" dxfId="83" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="12" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W13 AH3:AH13 AN3:AN13 BA3:BA13 BF3:BF13 BI3:BI13">
-    <cfRule type="cellIs" dxfId="82" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="11" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA13 AI3:AJ13 AO3:AQ13 BB3:BC13 BG3:BH13 BJ3:BO13">
-    <cfRule type="cellIs" dxfId="81" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="80" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="9" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50076,17 +50270,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC13">
-    <cfRule type="cellIs" dxfId="79" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="8" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE13">
-    <cfRule type="cellIs" dxfId="78" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="7" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BP13">
-    <cfRule type="cellIs" dxfId="77" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50111,17 +50305,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3:AT13">
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU3:AU13">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AX13">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="greaterThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
